--- a/Code/Results/Cases/Case_4_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_18/res_line/pl_mw.xlsx
@@ -418,28 +418,28 @@
         <v>0.9923881349202759</v>
       </c>
       <c r="D2">
-        <v>0.2008114305007069</v>
+        <v>0.2008114305004796</v>
       </c>
       <c r="E2">
-        <v>0.03912224136560205</v>
+        <v>0.03912224136557008</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.769586266777665</v>
+        <v>2.769586266777679</v>
       </c>
       <c r="H2">
-        <v>1.941223196861444</v>
+        <v>1.941223196861458</v>
       </c>
       <c r="I2">
-        <v>0.007352588442054109</v>
+        <v>0.0073525884420651</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1806454949562095</v>
+        <v>0.1806454949561953</v>
       </c>
       <c r="L2">
         <v>0.7156932323600458</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.205870974116067</v>
+        <v>2.205870974115953</v>
       </c>
       <c r="C3">
-        <v>0.8513228615307469</v>
+        <v>0.8513228615310311</v>
       </c>
       <c r="D3">
-        <v>0.1749393454569486</v>
+        <v>0.1749393454569628</v>
       </c>
       <c r="E3">
-        <v>0.03650699237408972</v>
+        <v>0.03650699237409327</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>2.474794646583973</v>
       </c>
       <c r="H3">
-        <v>1.757486017089605</v>
+        <v>1.75748601708959</v>
       </c>
       <c r="I3">
-        <v>0.00720920359214583</v>
+        <v>0.007209203592133728</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1576710104014261</v>
+        <v>0.1576710104014403</v>
       </c>
       <c r="L3">
-        <v>0.6175942260064033</v>
+        <v>0.6175942260064105</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.989692613475995</v>
+        <v>1.989692613476109</v>
       </c>
       <c r="C4">
-        <v>0.7665824998342146</v>
+        <v>0.7665824998339872</v>
       </c>
       <c r="D4">
-        <v>0.1594643213917664</v>
+        <v>0.1594643213917806</v>
       </c>
       <c r="E4">
-        <v>0.03496782966477774</v>
+        <v>0.03496782966478129</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.29974398679002</v>
+        <v>2.299743986790006</v>
       </c>
       <c r="H4">
         <v>1.648673497013689</v>
       </c>
       <c r="I4">
-        <v>0.007121833955226142</v>
+        <v>0.00712183395522592</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1439430198212897</v>
+        <v>0.1439430198213039</v>
       </c>
       <c r="L4">
-        <v>0.5587087013305947</v>
+        <v>0.5587087013306018</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.902521398916974</v>
+        <v>1.902521398917003</v>
       </c>
       <c r="C5">
-        <v>0.7324484533146745</v>
+        <v>0.7324484533149018</v>
       </c>
       <c r="D5">
         <v>0.1532478810617306</v>
       </c>
       <c r="E5">
-        <v>0.03435570812103883</v>
+        <v>0.03435570812106192</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.22972318796721</v>
+        <v>2.229723187967195</v>
       </c>
       <c r="H5">
         <v>1.605218640467825</v>
       </c>
       <c r="I5">
-        <v>0.007086289386688982</v>
+        <v>0.007086289386715738</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1384316364746958</v>
+        <v>0.1384316364746994</v>
       </c>
       <c r="L5">
         <v>0.5350038903164744</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.888098009601663</v>
+        <v>1.888098009601521</v>
       </c>
       <c r="C6">
-        <v>0.7268025894619825</v>
+        <v>0.7268025894614709</v>
       </c>
       <c r="D6">
-        <v>0.1522206982567411</v>
+        <v>0.1522206982568974</v>
       </c>
       <c r="E6">
-        <v>0.03425493251706691</v>
+        <v>0.03425493251701361</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>1.598053304230973</v>
       </c>
       <c r="I6">
-        <v>0.007080387891041484</v>
+        <v>0.007080387891022943</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1375211457412782</v>
+        <v>0.137521145741264</v>
       </c>
       <c r="L6">
-        <v>0.5310840374954182</v>
+        <v>0.5310840374953827</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.988513456555438</v>
+        <v>1.988513456555324</v>
       </c>
       <c r="C7">
-        <v>0.7661206342173443</v>
+        <v>0.7661206342173159</v>
       </c>
       <c r="D7">
-        <v>0.1593801377185002</v>
+        <v>0.1593801377187276</v>
       </c>
       <c r="E7">
-        <v>0.03495951530781838</v>
+        <v>0.03495951530783081</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.298794571226168</v>
+        <v>2.298794571226196</v>
       </c>
       <c r="H7">
         <v>1.648084007008606</v>
       </c>
       <c r="I7">
-        <v>0.007121354482830911</v>
+        <v>0.007121354482845232</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1438683711160031</v>
+        <v>0.1438683711159996</v>
       </c>
       <c r="L7">
-        <v>0.5583878887212492</v>
+        <v>0.5583878887212421</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.44016145946506</v>
+        <v>2.440161459465116</v>
       </c>
       <c r="C8">
-        <v>0.9433133822186903</v>
+        <v>0.9433133822189177</v>
       </c>
       <c r="D8">
-        <v>0.1917969727963253</v>
+        <v>0.1917969727961975</v>
       </c>
       <c r="E8">
-        <v>0.0382056332498113</v>
+        <v>0.03820563324980597</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.666590478450672</v>
+        <v>2.666590478450701</v>
       </c>
       <c r="H8">
-        <v>1.876964072405812</v>
+        <v>1.876964072405855</v>
       </c>
       <c r="I8">
-        <v>0.007302940219896858</v>
+        <v>0.007302940219887422</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1726375513578908</v>
+        <v>0.1726375513579264</v>
       </c>
       <c r="L8">
-        <v>0.6815588838067157</v>
+        <v>0.6815588838067299</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.368471456989141</v>
+        <v>3.368471456988971</v>
       </c>
       <c r="C9">
-        <v>1.309424574508967</v>
+        <v>1.309424574508682</v>
       </c>
       <c r="D9">
-        <v>0.2593147141634091</v>
+        <v>0.2593147141631675</v>
       </c>
       <c r="E9">
-        <v>0.04518391635093799</v>
+        <v>0.04518391635092378</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.444446904741028</v>
+        <v>3.444446904741</v>
       </c>
       <c r="H9">
-        <v>2.363668663617503</v>
+        <v>2.363668663617489</v>
       </c>
       <c r="I9">
-        <v>0.007670136868716537</v>
+        <v>0.00767013686873208</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2326866978224729</v>
+        <v>0.23268669782248</v>
       </c>
       <c r="L9">
-        <v>0.9362260371938333</v>
+        <v>0.936226037193812</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.090075398193449</v>
+        <v>4.090075398193108</v>
       </c>
       <c r="C10">
-        <v>1.595895332439795</v>
+        <v>1.595895332439966</v>
       </c>
       <c r="D10">
-        <v>0.3124430238613911</v>
+        <v>0.3124430238616043</v>
       </c>
       <c r="E10">
         <v>0.05081938448649126</v>
@@ -731,13 +731,13 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.065595790476834</v>
+        <v>4.065595790476863</v>
       </c>
       <c r="H10">
-        <v>2.754194376983207</v>
+        <v>2.754194376983179</v>
       </c>
       <c r="I10">
-        <v>0.007956480930672249</v>
+        <v>0.00795648093067447</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0.2800386064056966</v>
       </c>
       <c r="L10">
-        <v>1.135281473847883</v>
+        <v>1.135281473847861</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.430641589351978</v>
+        <v>4.430641589352092</v>
       </c>
       <c r="C11">
-        <v>1.731691188319758</v>
+        <v>1.731691188320269</v>
       </c>
       <c r="D11">
-        <v>0.3376794414241289</v>
+        <v>0.3376794414241573</v>
       </c>
       <c r="E11">
-        <v>0.05352978920410578</v>
+        <v>0.05352978920411289</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.363059877864117</v>
+        <v>4.363059877864174</v>
       </c>
       <c r="H11">
         <v>2.941675306242047</v>
       </c>
       <c r="I11">
-        <v>0.00809316309085073</v>
+        <v>0.008093163090860056</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3025587018549345</v>
+        <v>0.3025587018548848</v>
       </c>
       <c r="L11">
         <v>1.229504400634127</v>
@@ -795,13 +795,13 @@
         <v>4.561748838831079</v>
       </c>
       <c r="C12">
-        <v>1.784071902384426</v>
+        <v>1.784071902384312</v>
       </c>
       <c r="D12">
-        <v>0.3474198629059231</v>
+        <v>0.347419862905511</v>
       </c>
       <c r="E12">
-        <v>0.05458089478750949</v>
+        <v>0.05458089478748462</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,19 +810,19 @@
         <v>4.478259424950892</v>
       </c>
       <c r="H12">
-        <v>3.014352229704798</v>
+        <v>3.014352229704826</v>
       </c>
       <c r="I12">
-        <v>0.008146144985824666</v>
+        <v>0.008146144985836656</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3112552379278242</v>
+        <v>0.3112552379277815</v>
       </c>
       <c r="L12">
-        <v>1.26582059709817</v>
+        <v>1.265820597098156</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.533410612300941</v>
+        <v>4.533410612301111</v>
       </c>
       <c r="C13">
-        <v>1.77274513888068</v>
+        <v>1.772745138880452</v>
       </c>
       <c r="D13">
-        <v>0.3453133672939401</v>
+        <v>0.3453133672940822</v>
       </c>
       <c r="E13">
-        <v>0.05435335595914381</v>
+        <v>0.05435335595913315</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.45332806589073</v>
+        <v>4.453328065890787</v>
       </c>
       <c r="H13">
         <v>2.998620358690388</v>
       </c>
       <c r="I13">
-        <v>0.008134674489167493</v>
+        <v>0.008134674489181482</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3093742857007555</v>
+        <v>0.3093742857007697</v>
       </c>
       <c r="L13">
-        <v>1.257969038685033</v>
+        <v>1.257969038685019</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.441382554280324</v>
+        <v>4.441382554280437</v>
       </c>
       <c r="C14">
-        <v>1.735980301520954</v>
+        <v>1.735980301521124</v>
       </c>
       <c r="D14">
-        <v>0.3384769124954943</v>
+        <v>0.3384769124956506</v>
       </c>
       <c r="E14">
-        <v>0.0536157456214319</v>
+        <v>0.05361574562141413</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.372483549011633</v>
+        <v>4.372483549011719</v>
       </c>
       <c r="H14">
-        <v>2.947619063593478</v>
+        <v>2.947619063593493</v>
       </c>
       <c r="I14">
-        <v>0.008097495472494609</v>
+        <v>0.008097495472491723</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3032706138959966</v>
+        <v>0.3032706138960606</v>
       </c>
       <c r="L14">
-        <v>1.232478721548745</v>
+        <v>1.232478721548731</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.385303889433544</v>
+        <v>4.385303889433658</v>
       </c>
       <c r="C15">
-        <v>1.713591077998899</v>
+        <v>1.71359107799907</v>
       </c>
       <c r="D15">
-        <v>0.3343143317839576</v>
+        <v>0.3343143317839292</v>
       </c>
       <c r="E15">
-        <v>0.0531672771308358</v>
+        <v>0.05316727713081448</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.323310383242301</v>
+        <v>4.323310383242273</v>
       </c>
       <c r="H15">
-        <v>2.916607114431599</v>
+        <v>2.916607114431613</v>
       </c>
       <c r="I15">
-        <v>0.008074891581619781</v>
+        <v>0.008074891581568266</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2995548128758401</v>
+        <v>0.2995548128758472</v>
       </c>
       <c r="L15">
         <v>1.21695152789826</v>
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.068096605335882</v>
+        <v>4.068096605336052</v>
       </c>
       <c r="C16">
-        <v>1.587144845293096</v>
+        <v>1.587144845293267</v>
       </c>
       <c r="D16">
         <v>0.3108177345745702</v>
       </c>
       <c r="E16">
-        <v>0.05064550346362751</v>
+        <v>0.05064550346356356</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.046489401441647</v>
+        <v>4.046489401441733</v>
       </c>
       <c r="H16">
-        <v>2.742161759097812</v>
+        <v>2.74216175909784</v>
       </c>
       <c r="I16">
-        <v>0.007947701852304423</v>
+        <v>0.007947701852288214</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2785888446816713</v>
+        <v>0.2785888446816784</v>
       </c>
       <c r="L16">
-        <v>1.12920648006682</v>
+        <v>1.129206480066777</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.876897250376999</v>
+        <v>3.876897250376942</v>
       </c>
       <c r="C17">
         <v>1.511089130014625</v>
       </c>
       <c r="D17">
-        <v>0.2966969086502047</v>
+        <v>0.2966969086504605</v>
       </c>
       <c r="E17">
-        <v>0.04913847215369671</v>
+        <v>0.04913847215367895</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,10 +1000,10 @@
         <v>3.880757653335053</v>
       </c>
       <c r="H17">
-        <v>2.63783964844032</v>
+        <v>2.637839648440305</v>
       </c>
       <c r="I17">
-        <v>0.007871513943411568</v>
+        <v>0.007871513943404462</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0.2659961028617559</v>
       </c>
       <c r="L17">
-        <v>1.076389294890525</v>
+        <v>1.076389294890518</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.768056874235924</v>
+        <v>3.768056874236152</v>
       </c>
       <c r="C18">
-        <v>1.467847818418704</v>
+        <v>1.467847818418988</v>
       </c>
       <c r="D18">
-        <v>0.2886734239567943</v>
+        <v>0.2886734239569222</v>
       </c>
       <c r="E18">
-        <v>0.0482852363934736</v>
+        <v>0.04828523639346827</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.786807078713906</v>
+        <v>3.786807078713991</v>
       </c>
       <c r="H18">
-        <v>2.578742942609495</v>
+        <v>2.578742942609509</v>
       </c>
       <c r="I18">
-        <v>0.007828275945898078</v>
+        <v>0.007828275945893193</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0.2588433642491879</v>
       </c>
       <c r="L18">
-        <v>1.046348374819026</v>
+        <v>1.04634837481904</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.731389561573053</v>
+        <v>3.731389561572939</v>
       </c>
       <c r="C19">
-        <v>1.453288905203578</v>
+        <v>1.453288905203124</v>
       </c>
       <c r="D19">
-        <v>0.2859728747348811</v>
+        <v>0.2859728747344121</v>
       </c>
       <c r="E19">
-        <v>0.04799857497559934</v>
+        <v>0.04799857497557625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.755221530425871</v>
+        <v>3.755221530425899</v>
       </c>
       <c r="H19">
         <v>2.558882071998795</v>
       </c>
       <c r="I19">
-        <v>0.007813728360016592</v>
+        <v>0.007813728360011818</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.256436302750636</v>
+        <v>0.2564363027506218</v>
       </c>
       <c r="L19">
-        <v>1.036232114026745</v>
+        <v>1.036232114026731</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.89713105007786</v>
+        <v>3.897131050077746</v>
       </c>
       <c r="C20">
-        <v>1.519132101220976</v>
+        <v>1.519132101221032</v>
       </c>
       <c r="D20">
-        <v>0.2981897029486902</v>
+        <v>0.2981897029484912</v>
       </c>
       <c r="E20">
-        <v>0.04929746953403935</v>
+        <v>0.04929746953407488</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,19 +1114,19 @@
         <v>3.898255111430728</v>
       </c>
       <c r="H20">
-        <v>2.648849284120871</v>
+        <v>2.648849284120843</v>
       </c>
       <c r="I20">
-        <v>0.007879561940841606</v>
+        <v>0.007879561940822954</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2673270923861679</v>
+        <v>0.2673270923861537</v>
       </c>
       <c r="L20">
-        <v>1.081976055923263</v>
+        <v>1.081976055923271</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.468351982504487</v>
+        <v>4.46835198250443</v>
       </c>
       <c r="C21">
-        <v>1.746751522528598</v>
+        <v>1.746751522528655</v>
       </c>
       <c r="D21">
-        <v>0.3404796845479581</v>
+        <v>0.3404796845477733</v>
       </c>
       <c r="E21">
-        <v>0.05383169642428598</v>
+        <v>0.05383169642420782</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>2.9625513555239</v>
       </c>
       <c r="I21">
-        <v>0.008108379931565768</v>
+        <v>0.008108379931589305</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.305058586530528</v>
+        <v>0.3050585865305067</v>
       </c>
       <c r="L21">
         <v>1.23994762722424</v>
@@ -1175,34 +1175,34 @@
         <v>4.854388756384992</v>
       </c>
       <c r="C22">
-        <v>1.901199407772481</v>
+        <v>1.901199407772253</v>
       </c>
       <c r="D22">
-        <v>0.3692089400752678</v>
+        <v>0.369208940075481</v>
       </c>
       <c r="E22">
-        <v>0.05694140029737937</v>
+        <v>0.05694140029736872</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.736712616082002</v>
+        <v>4.736712616081917</v>
       </c>
       <c r="H22">
-        <v>3.177538644970355</v>
+        <v>3.177538644970326</v>
       </c>
       <c r="I22">
-        <v>0.008265246704834972</v>
+        <v>0.008265246704856732</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3307180972268569</v>
+        <v>0.330718097226864</v>
       </c>
       <c r="L22">
-        <v>1.346963319588568</v>
+        <v>1.346963319588582</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.647049185403716</v>
+        <v>4.64704918540366</v>
       </c>
       <c r="C23">
-        <v>1.818182787741023</v>
+        <v>1.818182787740398</v>
       </c>
       <c r="D23">
-        <v>0.353764349027557</v>
+        <v>0.3537643490273439</v>
       </c>
       <c r="E23">
-        <v>0.05526693830535123</v>
+        <v>0.05526693830540097</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>3.061782398641697</v>
       </c>
       <c r="I23">
-        <v>0.008180736831947755</v>
+        <v>0.008180736831921998</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3169211156663536</v>
+        <v>0.3169211156663607</v>
       </c>
       <c r="L23">
-        <v>1.28946091975925</v>
+        <v>1.289460919759264</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.887980004158408</v>
+        <v>3.887980004158294</v>
       </c>
       <c r="C24">
-        <v>1.515494378365645</v>
+        <v>1.515494378365418</v>
       </c>
       <c r="D24">
-        <v>0.2975145176861105</v>
+        <v>0.2975145176859257</v>
       </c>
       <c r="E24">
-        <v>0.04922554604087637</v>
+        <v>0.04922554604087992</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.890340395690544</v>
+        <v>3.890340395690458</v>
       </c>
       <c r="H24">
-        <v>2.643869108146276</v>
+        <v>2.643869108146262</v>
       </c>
       <c r="I24">
-        <v>0.007875921707712452</v>
+        <v>0.007875921707718891</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2667250830790877</v>
+        <v>0.2667250830790309</v>
       </c>
       <c r="L24">
-        <v>1.079449278770824</v>
+        <v>1.079449278770817</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,34 +1289,34 @@
         <v>3.111492459901172</v>
       </c>
       <c r="C25">
-        <v>1.207809219023716</v>
+        <v>1.207809219024227</v>
       </c>
       <c r="D25">
-        <v>0.2405210680176282</v>
+        <v>0.2405210680179835</v>
       </c>
       <c r="E25">
-        <v>0.04321769914321827</v>
+        <v>0.04321769914317386</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.226523021652298</v>
+        <v>3.226523021652341</v>
       </c>
       <c r="H25">
-        <v>2.227014976099127</v>
+        <v>2.227014976099142</v>
       </c>
       <c r="I25">
-        <v>0.007568708252714607</v>
+        <v>0.007568708252729595</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2159565272570276</v>
+        <v>0.2159565272570205</v>
       </c>
       <c r="L25">
-        <v>0.8655532909189958</v>
+        <v>0.8655532909189887</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_18/res_line/pl_mw.xlsx
@@ -418,28 +418,28 @@
         <v>0.9923881349202759</v>
       </c>
       <c r="D2">
-        <v>0.2008114305004796</v>
+        <v>0.2008114305007069</v>
       </c>
       <c r="E2">
-        <v>0.03912224136557008</v>
+        <v>0.03912224136560205</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.769586266777679</v>
+        <v>2.769586266777665</v>
       </c>
       <c r="H2">
-        <v>1.941223196861458</v>
+        <v>1.941223196861444</v>
       </c>
       <c r="I2">
-        <v>0.0073525884420651</v>
+        <v>0.007352588442054109</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1806454949561953</v>
+        <v>0.1806454949562095</v>
       </c>
       <c r="L2">
         <v>0.7156932323600458</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.205870974115953</v>
+        <v>2.205870974116067</v>
       </c>
       <c r="C3">
-        <v>0.8513228615310311</v>
+        <v>0.8513228615307469</v>
       </c>
       <c r="D3">
-        <v>0.1749393454569628</v>
+        <v>0.1749393454569486</v>
       </c>
       <c r="E3">
-        <v>0.03650699237409327</v>
+        <v>0.03650699237408972</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>2.474794646583973</v>
       </c>
       <c r="H3">
-        <v>1.75748601708959</v>
+        <v>1.757486017089605</v>
       </c>
       <c r="I3">
-        <v>0.007209203592133728</v>
+        <v>0.00720920359214583</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1576710104014403</v>
+        <v>0.1576710104014261</v>
       </c>
       <c r="L3">
-        <v>0.6175942260064105</v>
+        <v>0.6175942260064033</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.989692613476109</v>
+        <v>1.989692613475995</v>
       </c>
       <c r="C4">
-        <v>0.7665824998339872</v>
+        <v>0.7665824998342146</v>
       </c>
       <c r="D4">
-        <v>0.1594643213917806</v>
+        <v>0.1594643213917664</v>
       </c>
       <c r="E4">
-        <v>0.03496782966478129</v>
+        <v>0.03496782966477774</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.299743986790006</v>
+        <v>2.29974398679002</v>
       </c>
       <c r="H4">
         <v>1.648673497013689</v>
       </c>
       <c r="I4">
-        <v>0.00712183395522592</v>
+        <v>0.007121833955226142</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1439430198213039</v>
+        <v>0.1439430198212897</v>
       </c>
       <c r="L4">
-        <v>0.5587087013306018</v>
+        <v>0.5587087013305947</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.902521398917003</v>
+        <v>1.902521398916974</v>
       </c>
       <c r="C5">
-        <v>0.7324484533149018</v>
+        <v>0.7324484533146745</v>
       </c>
       <c r="D5">
         <v>0.1532478810617306</v>
       </c>
       <c r="E5">
-        <v>0.03435570812106192</v>
+        <v>0.03435570812103883</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.229723187967195</v>
+        <v>2.22972318796721</v>
       </c>
       <c r="H5">
         <v>1.605218640467825</v>
       </c>
       <c r="I5">
-        <v>0.007086289386715738</v>
+        <v>0.007086289386688982</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1384316364746994</v>
+        <v>0.1384316364746958</v>
       </c>
       <c r="L5">
         <v>0.5350038903164744</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.888098009601521</v>
+        <v>1.888098009601663</v>
       </c>
       <c r="C6">
-        <v>0.7268025894614709</v>
+        <v>0.7268025894619825</v>
       </c>
       <c r="D6">
-        <v>0.1522206982568974</v>
+        <v>0.1522206982567411</v>
       </c>
       <c r="E6">
-        <v>0.03425493251701361</v>
+        <v>0.03425493251706691</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>1.598053304230973</v>
       </c>
       <c r="I6">
-        <v>0.007080387891022943</v>
+        <v>0.007080387891041484</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.137521145741264</v>
+        <v>0.1375211457412782</v>
       </c>
       <c r="L6">
-        <v>0.5310840374953827</v>
+        <v>0.5310840374954182</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.988513456555324</v>
+        <v>1.988513456555438</v>
       </c>
       <c r="C7">
-        <v>0.7661206342173159</v>
+        <v>0.7661206342173443</v>
       </c>
       <c r="D7">
-        <v>0.1593801377187276</v>
+        <v>0.1593801377185002</v>
       </c>
       <c r="E7">
-        <v>0.03495951530783081</v>
+        <v>0.03495951530781838</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.298794571226196</v>
+        <v>2.298794571226168</v>
       </c>
       <c r="H7">
         <v>1.648084007008606</v>
       </c>
       <c r="I7">
-        <v>0.007121354482845232</v>
+        <v>0.007121354482830911</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1438683711159996</v>
+        <v>0.1438683711160031</v>
       </c>
       <c r="L7">
-        <v>0.5583878887212421</v>
+        <v>0.5583878887212492</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.440161459465116</v>
+        <v>2.44016145946506</v>
       </c>
       <c r="C8">
-        <v>0.9433133822189177</v>
+        <v>0.9433133822186903</v>
       </c>
       <c r="D8">
-        <v>0.1917969727961975</v>
+        <v>0.1917969727963253</v>
       </c>
       <c r="E8">
-        <v>0.03820563324980597</v>
+        <v>0.0382056332498113</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.666590478450701</v>
+        <v>2.666590478450672</v>
       </c>
       <c r="H8">
-        <v>1.876964072405855</v>
+        <v>1.876964072405812</v>
       </c>
       <c r="I8">
-        <v>0.007302940219887422</v>
+        <v>0.007302940219896858</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1726375513579264</v>
+        <v>0.1726375513578908</v>
       </c>
       <c r="L8">
-        <v>0.6815588838067299</v>
+        <v>0.6815588838067157</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.368471456988971</v>
+        <v>3.368471456989141</v>
       </c>
       <c r="C9">
-        <v>1.309424574508682</v>
+        <v>1.309424574508967</v>
       </c>
       <c r="D9">
-        <v>0.2593147141631675</v>
+        <v>0.2593147141634091</v>
       </c>
       <c r="E9">
-        <v>0.04518391635092378</v>
+        <v>0.04518391635093799</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.444446904741</v>
+        <v>3.444446904741028</v>
       </c>
       <c r="H9">
-        <v>2.363668663617489</v>
+        <v>2.363668663617503</v>
       </c>
       <c r="I9">
-        <v>0.00767013686873208</v>
+        <v>0.007670136868716537</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.23268669782248</v>
+        <v>0.2326866978224729</v>
       </c>
       <c r="L9">
-        <v>0.936226037193812</v>
+        <v>0.9362260371938333</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.090075398193108</v>
+        <v>4.090075398193449</v>
       </c>
       <c r="C10">
-        <v>1.595895332439966</v>
+        <v>1.595895332439795</v>
       </c>
       <c r="D10">
-        <v>0.3124430238616043</v>
+        <v>0.3124430238613911</v>
       </c>
       <c r="E10">
         <v>0.05081938448649126</v>
@@ -731,13 +731,13 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.065595790476863</v>
+        <v>4.065595790476834</v>
       </c>
       <c r="H10">
-        <v>2.754194376983179</v>
+        <v>2.754194376983207</v>
       </c>
       <c r="I10">
-        <v>0.00795648093067447</v>
+        <v>0.007956480930672249</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0.2800386064056966</v>
       </c>
       <c r="L10">
-        <v>1.135281473847861</v>
+        <v>1.135281473847883</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.430641589352092</v>
+        <v>4.430641589351978</v>
       </c>
       <c r="C11">
-        <v>1.731691188320269</v>
+        <v>1.731691188319758</v>
       </c>
       <c r="D11">
-        <v>0.3376794414241573</v>
+        <v>0.3376794414241289</v>
       </c>
       <c r="E11">
-        <v>0.05352978920411289</v>
+        <v>0.05352978920410578</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.363059877864174</v>
+        <v>4.363059877864117</v>
       </c>
       <c r="H11">
         <v>2.941675306242047</v>
       </c>
       <c r="I11">
-        <v>0.008093163090860056</v>
+        <v>0.00809316309085073</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3025587018548848</v>
+        <v>0.3025587018549345</v>
       </c>
       <c r="L11">
         <v>1.229504400634127</v>
@@ -795,13 +795,13 @@
         <v>4.561748838831079</v>
       </c>
       <c r="C12">
-        <v>1.784071902384312</v>
+        <v>1.784071902384426</v>
       </c>
       <c r="D12">
-        <v>0.347419862905511</v>
+        <v>0.3474198629059231</v>
       </c>
       <c r="E12">
-        <v>0.05458089478748462</v>
+        <v>0.05458089478750949</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,19 +810,19 @@
         <v>4.478259424950892</v>
       </c>
       <c r="H12">
-        <v>3.014352229704826</v>
+        <v>3.014352229704798</v>
       </c>
       <c r="I12">
-        <v>0.008146144985836656</v>
+        <v>0.008146144985824666</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3112552379277815</v>
+        <v>0.3112552379278242</v>
       </c>
       <c r="L12">
-        <v>1.265820597098156</v>
+        <v>1.26582059709817</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.533410612301111</v>
+        <v>4.533410612300941</v>
       </c>
       <c r="C13">
-        <v>1.772745138880452</v>
+        <v>1.77274513888068</v>
       </c>
       <c r="D13">
-        <v>0.3453133672940822</v>
+        <v>0.3453133672939401</v>
       </c>
       <c r="E13">
-        <v>0.05435335595913315</v>
+        <v>0.05435335595914381</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.453328065890787</v>
+        <v>4.45332806589073</v>
       </c>
       <c r="H13">
         <v>2.998620358690388</v>
       </c>
       <c r="I13">
-        <v>0.008134674489181482</v>
+        <v>0.008134674489167493</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3093742857007697</v>
+        <v>0.3093742857007555</v>
       </c>
       <c r="L13">
-        <v>1.257969038685019</v>
+        <v>1.257969038685033</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.441382554280437</v>
+        <v>4.441382554280324</v>
       </c>
       <c r="C14">
-        <v>1.735980301521124</v>
+        <v>1.735980301520954</v>
       </c>
       <c r="D14">
-        <v>0.3384769124956506</v>
+        <v>0.3384769124954943</v>
       </c>
       <c r="E14">
-        <v>0.05361574562141413</v>
+        <v>0.0536157456214319</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.372483549011719</v>
+        <v>4.372483549011633</v>
       </c>
       <c r="H14">
-        <v>2.947619063593493</v>
+        <v>2.947619063593478</v>
       </c>
       <c r="I14">
-        <v>0.008097495472491723</v>
+        <v>0.008097495472494609</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3032706138960606</v>
+        <v>0.3032706138959966</v>
       </c>
       <c r="L14">
-        <v>1.232478721548731</v>
+        <v>1.232478721548745</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.385303889433658</v>
+        <v>4.385303889433544</v>
       </c>
       <c r="C15">
-        <v>1.71359107799907</v>
+        <v>1.713591077998899</v>
       </c>
       <c r="D15">
-        <v>0.3343143317839292</v>
+        <v>0.3343143317839576</v>
       </c>
       <c r="E15">
-        <v>0.05316727713081448</v>
+        <v>0.0531672771308358</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.323310383242273</v>
+        <v>4.323310383242301</v>
       </c>
       <c r="H15">
-        <v>2.916607114431613</v>
+        <v>2.916607114431599</v>
       </c>
       <c r="I15">
-        <v>0.008074891581568266</v>
+        <v>0.008074891581619781</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2995548128758472</v>
+        <v>0.2995548128758401</v>
       </c>
       <c r="L15">
         <v>1.21695152789826</v>
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.068096605336052</v>
+        <v>4.068096605335882</v>
       </c>
       <c r="C16">
-        <v>1.587144845293267</v>
+        <v>1.587144845293096</v>
       </c>
       <c r="D16">
         <v>0.3108177345745702</v>
       </c>
       <c r="E16">
-        <v>0.05064550346356356</v>
+        <v>0.05064550346362751</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.046489401441733</v>
+        <v>4.046489401441647</v>
       </c>
       <c r="H16">
-        <v>2.74216175909784</v>
+        <v>2.742161759097812</v>
       </c>
       <c r="I16">
-        <v>0.007947701852288214</v>
+        <v>0.007947701852304423</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2785888446816784</v>
+        <v>0.2785888446816713</v>
       </c>
       <c r="L16">
-        <v>1.129206480066777</v>
+        <v>1.12920648006682</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.876897250376942</v>
+        <v>3.876897250376999</v>
       </c>
       <c r="C17">
         <v>1.511089130014625</v>
       </c>
       <c r="D17">
-        <v>0.2966969086504605</v>
+        <v>0.2966969086502047</v>
       </c>
       <c r="E17">
-        <v>0.04913847215367895</v>
+        <v>0.04913847215369671</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,10 +1000,10 @@
         <v>3.880757653335053</v>
       </c>
       <c r="H17">
-        <v>2.637839648440305</v>
+        <v>2.63783964844032</v>
       </c>
       <c r="I17">
-        <v>0.007871513943404462</v>
+        <v>0.007871513943411568</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0.2659961028617559</v>
       </c>
       <c r="L17">
-        <v>1.076389294890518</v>
+        <v>1.076389294890525</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.768056874236152</v>
+        <v>3.768056874235924</v>
       </c>
       <c r="C18">
-        <v>1.467847818418988</v>
+        <v>1.467847818418704</v>
       </c>
       <c r="D18">
-        <v>0.2886734239569222</v>
+        <v>0.2886734239567943</v>
       </c>
       <c r="E18">
-        <v>0.04828523639346827</v>
+        <v>0.0482852363934736</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.786807078713991</v>
+        <v>3.786807078713906</v>
       </c>
       <c r="H18">
-        <v>2.578742942609509</v>
+        <v>2.578742942609495</v>
       </c>
       <c r="I18">
-        <v>0.007828275945893193</v>
+        <v>0.007828275945898078</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0.2588433642491879</v>
       </c>
       <c r="L18">
-        <v>1.04634837481904</v>
+        <v>1.046348374819026</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.731389561572939</v>
+        <v>3.731389561573053</v>
       </c>
       <c r="C19">
-        <v>1.453288905203124</v>
+        <v>1.453288905203578</v>
       </c>
       <c r="D19">
-        <v>0.2859728747344121</v>
+        <v>0.2859728747348811</v>
       </c>
       <c r="E19">
-        <v>0.04799857497557625</v>
+        <v>0.04799857497559934</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.755221530425899</v>
+        <v>3.755221530425871</v>
       </c>
       <c r="H19">
         <v>2.558882071998795</v>
       </c>
       <c r="I19">
-        <v>0.007813728360011818</v>
+        <v>0.007813728360016592</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2564363027506218</v>
+        <v>0.256436302750636</v>
       </c>
       <c r="L19">
-        <v>1.036232114026731</v>
+        <v>1.036232114026745</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.897131050077746</v>
+        <v>3.89713105007786</v>
       </c>
       <c r="C20">
-        <v>1.519132101221032</v>
+        <v>1.519132101220976</v>
       </c>
       <c r="D20">
-        <v>0.2981897029484912</v>
+        <v>0.2981897029486902</v>
       </c>
       <c r="E20">
-        <v>0.04929746953407488</v>
+        <v>0.04929746953403935</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,19 +1114,19 @@
         <v>3.898255111430728</v>
       </c>
       <c r="H20">
-        <v>2.648849284120843</v>
+        <v>2.648849284120871</v>
       </c>
       <c r="I20">
-        <v>0.007879561940822954</v>
+        <v>0.007879561940841606</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2673270923861537</v>
+        <v>0.2673270923861679</v>
       </c>
       <c r="L20">
-        <v>1.081976055923271</v>
+        <v>1.081976055923263</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.46835198250443</v>
+        <v>4.468351982504487</v>
       </c>
       <c r="C21">
-        <v>1.746751522528655</v>
+        <v>1.746751522528598</v>
       </c>
       <c r="D21">
-        <v>0.3404796845477733</v>
+        <v>0.3404796845479581</v>
       </c>
       <c r="E21">
-        <v>0.05383169642420782</v>
+        <v>0.05383169642428598</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>2.9625513555239</v>
       </c>
       <c r="I21">
-        <v>0.008108379931589305</v>
+        <v>0.008108379931565768</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3050585865305067</v>
+        <v>0.305058586530528</v>
       </c>
       <c r="L21">
         <v>1.23994762722424</v>
@@ -1175,34 +1175,34 @@
         <v>4.854388756384992</v>
       </c>
       <c r="C22">
-        <v>1.901199407772253</v>
+        <v>1.901199407772481</v>
       </c>
       <c r="D22">
-        <v>0.369208940075481</v>
+        <v>0.3692089400752678</v>
       </c>
       <c r="E22">
-        <v>0.05694140029736872</v>
+        <v>0.05694140029737937</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.736712616081917</v>
+        <v>4.736712616082002</v>
       </c>
       <c r="H22">
-        <v>3.177538644970326</v>
+        <v>3.177538644970355</v>
       </c>
       <c r="I22">
-        <v>0.008265246704856732</v>
+        <v>0.008265246704834972</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.330718097226864</v>
+        <v>0.3307180972268569</v>
       </c>
       <c r="L22">
-        <v>1.346963319588582</v>
+        <v>1.346963319588568</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.64704918540366</v>
+        <v>4.647049185403716</v>
       </c>
       <c r="C23">
-        <v>1.818182787740398</v>
+        <v>1.818182787741023</v>
       </c>
       <c r="D23">
-        <v>0.3537643490273439</v>
+        <v>0.353764349027557</v>
       </c>
       <c r="E23">
-        <v>0.05526693830540097</v>
+        <v>0.05526693830535123</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>3.061782398641697</v>
       </c>
       <c r="I23">
-        <v>0.008180736831921998</v>
+        <v>0.008180736831947755</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3169211156663607</v>
+        <v>0.3169211156663536</v>
       </c>
       <c r="L23">
-        <v>1.289460919759264</v>
+        <v>1.28946091975925</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.887980004158294</v>
+        <v>3.887980004158408</v>
       </c>
       <c r="C24">
-        <v>1.515494378365418</v>
+        <v>1.515494378365645</v>
       </c>
       <c r="D24">
-        <v>0.2975145176859257</v>
+        <v>0.2975145176861105</v>
       </c>
       <c r="E24">
-        <v>0.04922554604087992</v>
+        <v>0.04922554604087637</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.890340395690458</v>
+        <v>3.890340395690544</v>
       </c>
       <c r="H24">
-        <v>2.643869108146262</v>
+        <v>2.643869108146276</v>
       </c>
       <c r="I24">
-        <v>0.007875921707718891</v>
+        <v>0.007875921707712452</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2667250830790309</v>
+        <v>0.2667250830790877</v>
       </c>
       <c r="L24">
-        <v>1.079449278770817</v>
+        <v>1.079449278770824</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,34 +1289,34 @@
         <v>3.111492459901172</v>
       </c>
       <c r="C25">
-        <v>1.207809219024227</v>
+        <v>1.207809219023716</v>
       </c>
       <c r="D25">
-        <v>0.2405210680179835</v>
+        <v>0.2405210680176282</v>
       </c>
       <c r="E25">
-        <v>0.04321769914317386</v>
+        <v>0.04321769914321827</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.226523021652341</v>
+        <v>3.226523021652298</v>
       </c>
       <c r="H25">
-        <v>2.227014976099142</v>
+        <v>2.227014976099127</v>
       </c>
       <c r="I25">
-        <v>0.007568708252729595</v>
+        <v>0.007568708252714607</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2159565272570205</v>
+        <v>0.2159565272570276</v>
       </c>
       <c r="L25">
-        <v>0.8655532909189887</v>
+        <v>0.8655532909189958</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_18/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.56498262506642</v>
+        <v>2.564876066520696</v>
       </c>
       <c r="C2">
-        <v>0.9923881349202759</v>
+        <v>0.9913415756468567</v>
       </c>
       <c r="D2">
-        <v>0.2008114305007069</v>
+        <v>0.2008213582019636</v>
       </c>
       <c r="E2">
-        <v>0.03912224136560205</v>
+        <v>0.03914094711888438</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.769586266777665</v>
+        <v>0.8913193869602622</v>
       </c>
       <c r="H2">
-        <v>1.941223196861444</v>
+        <v>1.873451371045832</v>
       </c>
       <c r="I2">
-        <v>0.007352588442054109</v>
+        <v>1.935726312407624</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.007349482875776303</v>
       </c>
       <c r="K2">
-        <v>0.1806454949562095</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.7156932323600458</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.1805681286997327</v>
+      </c>
+      <c r="M2">
+        <v>0.7155639379800007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.205870974116067</v>
+        <v>2.205834368413718</v>
       </c>
       <c r="C3">
-        <v>0.8513228615307469</v>
+        <v>0.8504357263594216</v>
       </c>
       <c r="D3">
-        <v>0.1749393454569486</v>
+        <v>0.1749503975830891</v>
       </c>
       <c r="E3">
-        <v>0.03650699237408972</v>
+        <v>0.03652530175292057</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.474794646583973</v>
+        <v>0.7899916032593381</v>
       </c>
       <c r="H3">
-        <v>1.757486017089605</v>
+        <v>1.68114163891849</v>
       </c>
       <c r="I3">
-        <v>0.00720920359214583</v>
+        <v>1.752634962823095</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.00720759265891513</v>
       </c>
       <c r="K3">
-        <v>0.1576710104014261</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.6175942260064033</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.1576047773518319</v>
+      </c>
+      <c r="M3">
+        <v>0.6174916759756996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.989692613475995</v>
+        <v>1.989688689285799</v>
       </c>
       <c r="C4">
-        <v>0.7665824998342146</v>
+        <v>0.7657880671704902</v>
       </c>
       <c r="D4">
-        <v>0.1594643213917664</v>
+        <v>0.1594757355071863</v>
       </c>
       <c r="E4">
-        <v>0.03496782966477774</v>
+        <v>0.0349859798031833</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.29974398679002</v>
+        <v>0.7297239138133733</v>
       </c>
       <c r="H4">
-        <v>1.648673497013689</v>
+        <v>1.567050386871855</v>
       </c>
       <c r="I4">
-        <v>0.007121833955226142</v>
+        <v>1.644210608764894</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.007121141496784333</v>
       </c>
       <c r="K4">
-        <v>0.1439430198212897</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5587087013305947</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.1438831496795778</v>
+      </c>
+      <c r="M4">
+        <v>0.5586200535023309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.902521398916974</v>
+        <v>1.902528569093448</v>
       </c>
       <c r="C5">
-        <v>0.7324484533146745</v>
+        <v>0.7316906962646499</v>
       </c>
       <c r="D5">
-        <v>0.1532478810617306</v>
+        <v>0.1532593762622128</v>
       </c>
       <c r="E5">
-        <v>0.03435570812103883</v>
+        <v>0.03437381444611098</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.22972318796721</v>
+        <v>0.7055923477277588</v>
       </c>
       <c r="H5">
-        <v>1.605218640467825</v>
+        <v>1.521439511541516</v>
       </c>
       <c r="I5">
-        <v>0.007086289386688982</v>
+        <v>1.600912217788121</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.007085972363852777</v>
       </c>
       <c r="K5">
-        <v>0.1384316364746958</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5350038903164744</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.1383742603751053</v>
+      </c>
+      <c r="M5">
+        <v>0.5349203661797759</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.888098009601663</v>
+        <v>1.888106897256023</v>
       </c>
       <c r="C6">
-        <v>0.7268025894619825</v>
+        <v>0.7260508612618821</v>
       </c>
       <c r="D6">
-        <v>0.1522206982567411</v>
+        <v>0.1522322033319767</v>
       </c>
       <c r="E6">
-        <v>0.03425493251706691</v>
+        <v>0.03427303283540795</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.218170625121431</v>
+        <v>0.7016094776039665</v>
       </c>
       <c r="H6">
-        <v>1.598053304230973</v>
+        <v>1.513915846718589</v>
       </c>
       <c r="I6">
-        <v>0.007080387891041484</v>
+        <v>1.593772769487529</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.007080133304123382</v>
       </c>
       <c r="K6">
-        <v>0.1375211457412782</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5310840374954182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.1374641783329587</v>
+      </c>
+      <c r="M6">
+        <v>0.5310013338767376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.988513456555438</v>
+        <v>1.988509690552405</v>
       </c>
       <c r="C7">
-        <v>0.7661206342173443</v>
+        <v>0.7653267003856854</v>
       </c>
       <c r="D7">
-        <v>0.1593801377185002</v>
+        <v>0.1593915531769596</v>
       </c>
       <c r="E7">
-        <v>0.03495951530781838</v>
+        <v>0.03497766477016739</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.298794571226168</v>
+        <v>0.7293968113754659</v>
       </c>
       <c r="H7">
-        <v>1.648084007008606</v>
+        <v>1.566431841137558</v>
       </c>
       <c r="I7">
-        <v>0.007121354482830911</v>
+        <v>1.643623235371521</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.007120667081803034</v>
       </c>
       <c r="K7">
-        <v>0.1438683711160031</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5583878887212492</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.1438085349858618</v>
+      </c>
+      <c r="M7">
+        <v>0.558299312073693</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.44016145946506</v>
+        <v>2.440081384516247</v>
       </c>
       <c r="C8">
-        <v>0.9433133822186903</v>
+        <v>0.9423229990470361</v>
       </c>
       <c r="D8">
-        <v>0.1917969727963253</v>
+        <v>0.1918073669707354</v>
       </c>
       <c r="E8">
-        <v>0.0382056332498113</v>
+        <v>0.03822418486546475</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.666590478450672</v>
+        <v>0.8559380266183041</v>
       </c>
       <c r="H8">
-        <v>1.876964072405812</v>
+        <v>1.806238853827367</v>
       </c>
       <c r="I8">
-        <v>0.007302940219896858</v>
+        <v>1.871691859892948</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.007300350461345917</v>
       </c>
       <c r="K8">
-        <v>0.1726375513578908</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6815588838067157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.1725641350229061</v>
+      </c>
+      <c r="M8">
+        <v>0.6814393932764133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.368471456989141</v>
+        <v>3.368140898472745</v>
       </c>
       <c r="C9">
-        <v>1.309424574508967</v>
+        <v>1.307996980450127</v>
       </c>
       <c r="D9">
-        <v>0.2593147141634091</v>
+        <v>0.2593195965426389</v>
       </c>
       <c r="E9">
-        <v>0.04518391635093799</v>
+        <v>0.04520391881899322</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.444446904741028</v>
+        <v>1.122708585345435</v>
       </c>
       <c r="H9">
-        <v>2.363668663617503</v>
+        <v>2.314313380096706</v>
       </c>
       <c r="I9">
-        <v>0.007670136868716537</v>
+        <v>2.356718076089493</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.007663771679003561</v>
       </c>
       <c r="K9">
-        <v>0.2326866978224729</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.9362260371938333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.2325818032588103</v>
+      </c>
+      <c r="M9">
+        <v>0.9360209575494451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.090075398193449</v>
+        <v>4.089465944110259</v>
       </c>
       <c r="C10">
-        <v>1.595895332439795</v>
+        <v>1.594096302840626</v>
       </c>
       <c r="D10">
-        <v>0.3124430238613911</v>
+        <v>0.312440095390258</v>
       </c>
       <c r="E10">
-        <v>0.05081938448649126</v>
+        <v>0.05084082819917057</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.065595790476834</v>
+        <v>1.33517286282185</v>
       </c>
       <c r="H10">
-        <v>2.754194376983207</v>
+        <v>2.720616401177125</v>
       </c>
       <c r="I10">
-        <v>0.007956480930672249</v>
+        <v>2.745922786768574</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.007947228086937042</v>
       </c>
       <c r="K10">
-        <v>0.2800386064056966</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.135281473847883</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.279905712027734</v>
+      </c>
+      <c r="M10">
+        <v>1.134989648272104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.430641589351978</v>
+        <v>4.42987472818794</v>
       </c>
       <c r="C11">
-        <v>1.731691188319758</v>
+        <v>1.729706834477611</v>
       </c>
       <c r="D11">
-        <v>0.3376794414241289</v>
+        <v>0.3376716366195041</v>
       </c>
       <c r="E11">
-        <v>0.05352978920410578</v>
+        <v>0.05355195446991345</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.363059877864117</v>
+        <v>1.43678985626417</v>
       </c>
       <c r="H11">
-        <v>2.941675306242047</v>
+        <v>2.915325094276398</v>
       </c>
       <c r="I11">
-        <v>0.00809316309085073</v>
+        <v>2.932773692609857</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.008082546743070296</v>
       </c>
       <c r="K11">
-        <v>0.3025587018549345</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1.229504400634127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.3024114310436588</v>
+      </c>
+      <c r="M11">
+        <v>1.229165341190225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.561748838831079</v>
+        <v>4.560916889311784</v>
       </c>
       <c r="C12">
-        <v>1.784071902384426</v>
+        <v>1.782014427054605</v>
       </c>
       <c r="D12">
-        <v>0.3474198629059231</v>
+        <v>0.3474099635986647</v>
       </c>
       <c r="E12">
-        <v>0.05458089478750949</v>
+        <v>0.05460334043119275</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.478259424950892</v>
+        <v>1.476123716326242</v>
       </c>
       <c r="H12">
-        <v>3.014352229704798</v>
+        <v>2.990749861395216</v>
       </c>
       <c r="I12">
-        <v>0.008146144985824666</v>
+        <v>3.00520679653566</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.008135002436322036</v>
       </c>
       <c r="K12">
-        <v>0.3112552379278242</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.26582059709817</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.3111022227767251</v>
+      </c>
+      <c r="M12">
+        <v>1.26546224763392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.533410612300941</v>
+        <v>4.532592944841667</v>
       </c>
       <c r="C13">
-        <v>1.77274513888068</v>
+        <v>1.770703553433975</v>
       </c>
       <c r="D13">
-        <v>0.3453133672939401</v>
+        <v>0.3453039311964261</v>
       </c>
       <c r="E13">
-        <v>0.05435335595914381</v>
+        <v>0.05437574095015307</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.45332806589073</v>
+        <v>1.467612006185789</v>
       </c>
       <c r="H13">
-        <v>2.998620358690388</v>
+        <v>2.974425644922036</v>
       </c>
       <c r="I13">
-        <v>0.008134674489167493</v>
+        <v>2.989527689077676</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.008123645755479192</v>
       </c>
       <c r="K13">
-        <v>0.3093742857007555</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.257969038685033</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.309222522263525</v>
+      </c>
+      <c r="M13">
+        <v>1.257614911437187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.441382554280324</v>
+        <v>4.44061045533897</v>
       </c>
       <c r="C14">
-        <v>1.735980301520954</v>
+        <v>1.733989994812703</v>
       </c>
       <c r="D14">
-        <v>0.3384769124954943</v>
+        <v>0.3384689407321417</v>
       </c>
       <c r="E14">
-        <v>0.0536157456214319</v>
+        <v>0.05363793382833393</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.372483549011633</v>
+        <v>1.440007878902719</v>
       </c>
       <c r="H14">
-        <v>2.947619063593478</v>
+        <v>2.921494677605352</v>
       </c>
       <c r="I14">
-        <v>0.008097495472494609</v>
+        <v>2.938697502787804</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.008086836049322699</v>
       </c>
       <c r="K14">
-        <v>0.3032706138959966</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.232478721548745</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.3031228769431635</v>
+      </c>
+      <c r="M14">
+        <v>1.232138105130346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.385303889433544</v>
+        <v>4.384558951673853</v>
       </c>
       <c r="C15">
-        <v>1.713591077998899</v>
+        <v>1.711631777744799</v>
       </c>
       <c r="D15">
-        <v>0.3343143317839576</v>
+        <v>0.3343072226937949</v>
       </c>
       <c r="E15">
-        <v>0.0531672771308358</v>
+        <v>0.05318934564362721</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.323310383242301</v>
+        <v>1.423215295246536</v>
       </c>
       <c r="H15">
-        <v>2.916607114431599</v>
+        <v>2.889302280954638</v>
       </c>
       <c r="I15">
-        <v>0.008074891581619781</v>
+        <v>2.907789644384451</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.008064456995423797</v>
       </c>
       <c r="K15">
-        <v>0.2995548128758401</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.21695152789826</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.299409500951036</v>
+      </c>
+      <c r="M15">
+        <v>1.216618994751428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.068096605335882</v>
+        <v>4.067496736378644</v>
       </c>
       <c r="C16">
-        <v>1.587144845293096</v>
+        <v>1.585357550498145</v>
       </c>
       <c r="D16">
-        <v>0.3108177345745702</v>
+        <v>0.3108150935772898</v>
       </c>
       <c r="E16">
-        <v>0.05064550346362751</v>
+        <v>0.0506669011715779</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.046489401441647</v>
+        <v>1.328643272882459</v>
       </c>
       <c r="H16">
-        <v>2.742161759097812</v>
+        <v>2.70811273721452</v>
       </c>
       <c r="I16">
-        <v>0.007947701852304423</v>
+        <v>2.733930671559932</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.007938536895765402</v>
       </c>
       <c r="K16">
-        <v>0.2785888446816713</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1.12920648006682</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.2784568516980102</v>
+      </c>
+      <c r="M16">
+        <v>1.128917562067294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.876897250376999</v>
+        <v>3.876377858526553</v>
       </c>
       <c r="C17">
-        <v>1.511089130014625</v>
+        <v>1.509402786675025</v>
       </c>
       <c r="D17">
-        <v>0.2966969086502047</v>
+        <v>0.296696633436909</v>
       </c>
       <c r="E17">
-        <v>0.04913847215369671</v>
+        <v>0.04915947388202468</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.880757653335053</v>
+        <v>1.271990305535212</v>
       </c>
       <c r="H17">
-        <v>2.63783964844032</v>
+        <v>2.599668540620854</v>
       </c>
       <c r="I17">
-        <v>0.007871513943411568</v>
+        <v>2.629960151773048</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.00786311334837464</v>
       </c>
       <c r="K17">
-        <v>0.2659961028617559</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.076389294890525</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.265871819734798</v>
+      </c>
+      <c r="M17">
+        <v>1.076124960323831</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.768056874235924</v>
+        <v>3.767580975120723</v>
       </c>
       <c r="C18">
-        <v>1.467847818418704</v>
+        <v>1.466218042564265</v>
       </c>
       <c r="D18">
-        <v>0.2886734239567943</v>
+        <v>0.288674389173849</v>
       </c>
       <c r="E18">
-        <v>0.0482852363934736</v>
+        <v>0.04830601676122548</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.786807078713906</v>
+        <v>1.239862800791968</v>
       </c>
       <c r="H18">
-        <v>2.578742942609495</v>
+        <v>2.538205425495846</v>
       </c>
       <c r="I18">
-        <v>0.007828275945898078</v>
+        <v>2.571063008651649</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.007820310487517745</v>
       </c>
       <c r="K18">
-        <v>0.2588433642491879</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1.046348374819026</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.2587233660305728</v>
+      </c>
+      <c r="M18">
+        <v>1.046097469059099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.731389561573053</v>
+        <v>3.730927937315414</v>
       </c>
       <c r="C19">
-        <v>1.453288905203578</v>
+        <v>1.451678040841898</v>
       </c>
       <c r="D19">
-        <v>0.2859728747348811</v>
+        <v>0.2859742407908499</v>
       </c>
       <c r="E19">
-        <v>0.04799857497559934</v>
+        <v>0.048019281547802</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.755221530425871</v>
+        <v>1.229059731827022</v>
       </c>
       <c r="H19">
-        <v>2.558882071998795</v>
+        <v>2.51754400699707</v>
       </c>
       <c r="I19">
-        <v>0.007813728360016592</v>
+        <v>2.551269277827586</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.007805909530480992</v>
       </c>
       <c r="K19">
-        <v>0.256436302750636</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1.036232114026745</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.2563177313470817</v>
+      </c>
+      <c r="M19">
+        <v>1.03598564053528</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.89713105007786</v>
+        <v>3.896603387706989</v>
       </c>
       <c r="C20">
-        <v>1.519132101220976</v>
+        <v>1.517435170221404</v>
       </c>
       <c r="D20">
-        <v>0.2981897029486902</v>
+        <v>0.2981891887134225</v>
       </c>
       <c r="E20">
-        <v>0.04929746953403935</v>
+        <v>0.04931851276668908</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.898255111430728</v>
+        <v>1.277972796354305</v>
       </c>
       <c r="H20">
-        <v>2.648849284120871</v>
+        <v>2.611116489728516</v>
       </c>
       <c r="I20">
-        <v>0.007879561940841606</v>
+        <v>2.640932642573645</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.00787108046192353</v>
       </c>
       <c r="K20">
-        <v>0.2673270923861679</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1.081976055923263</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.2672020044311907</v>
+      </c>
+      <c r="M20">
+        <v>1.081709179837212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.468351982504487</v>
+        <v>4.467566657804753</v>
       </c>
       <c r="C21">
-        <v>1.746751522528598</v>
+        <v>1.744746239312917</v>
       </c>
       <c r="D21">
-        <v>0.3404796845479581</v>
+        <v>0.3404712899429825</v>
       </c>
       <c r="E21">
-        <v>0.05383169642428598</v>
+        <v>0.05385394226163243</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.39615650204567</v>
+        <v>1.448091474864697</v>
       </c>
       <c r="H21">
-        <v>2.9625513555239</v>
+        <v>2.936993434112708</v>
       </c>
       <c r="I21">
-        <v>0.008108379931565768</v>
+        <v>2.953579687850606</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.008097612325501879</v>
       </c>
       <c r="K21">
-        <v>0.305058586530528</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.23994762722424</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.304909675650471</v>
+      </c>
+      <c r="M21">
+        <v>1.239603083081121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.854388756384992</v>
+        <v>4.853402363306543</v>
       </c>
       <c r="C22">
-        <v>1.901199407772481</v>
+        <v>1.898975057060284</v>
       </c>
       <c r="D22">
-        <v>0.3692089400752678</v>
+        <v>0.3691939104988222</v>
       </c>
       <c r="E22">
-        <v>0.05694140029737937</v>
+        <v>0.05696447175749597</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.736712616082002</v>
+        <v>1.564333745435448</v>
       </c>
       <c r="H22">
-        <v>3.177538644970355</v>
+        <v>3.160003218903626</v>
       </c>
       <c r="I22">
-        <v>0.008265246704834972</v>
+        <v>3.167846216696404</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.00825292569597913</v>
       </c>
       <c r="K22">
-        <v>0.3307180972268569</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.346963319588568</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.330551823074039</v>
+      </c>
+      <c r="M22">
+        <v>1.346559643982786</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.647049185403716</v>
+        <v>4.646173531472471</v>
       </c>
       <c r="C23">
-        <v>1.818182787741023</v>
+        <v>1.816077197377581</v>
       </c>
       <c r="D23">
-        <v>0.353764349027557</v>
+        <v>0.3537530200597701</v>
       </c>
       <c r="E23">
-        <v>0.05526693830535123</v>
+        <v>0.05528956657196105</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.553408548221825</v>
+        <v>1.501777187554154</v>
       </c>
       <c r="H23">
-        <v>3.061782398641697</v>
+        <v>3.039957816175303</v>
       </c>
       <c r="I23">
-        <v>0.008180736831947755</v>
+        <v>3.052477928324677</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.008169251393098875</v>
       </c>
       <c r="K23">
-        <v>0.3169211156663536</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.28946091975925</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.3167642987636228</v>
+      </c>
+      <c r="M23">
+        <v>1.289089684285472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.887980004158408</v>
+        <v>3.887456089453281</v>
       </c>
       <c r="C24">
-        <v>1.515494378365645</v>
+        <v>1.513802238584674</v>
       </c>
       <c r="D24">
-        <v>0.2975145176861105</v>
+        <v>0.2975141118812132</v>
       </c>
       <c r="E24">
-        <v>0.04922554604087637</v>
+        <v>0.04924657048962899</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.890340395690544</v>
+        <v>1.275266742481477</v>
       </c>
       <c r="H24">
-        <v>2.643869108146276</v>
+        <v>2.605938141820928</v>
       </c>
       <c r="I24">
-        <v>0.007875921707712452</v>
+        <v>2.635969267730047</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.00786747680963229</v>
       </c>
       <c r="K24">
-        <v>0.2667250830790877</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1.079449278770824</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.2666003594419166</v>
+      </c>
+      <c r="M24">
+        <v>1.079183553879453</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.111492459901172</v>
+        <v>3.111243498894623</v>
       </c>
       <c r="C25">
-        <v>1.207809219023716</v>
+        <v>1.206507162392654</v>
       </c>
       <c r="D25">
-        <v>0.2405210680176282</v>
+        <v>0.2405279616147737</v>
       </c>
       <c r="E25">
-        <v>0.04321769914321827</v>
+        <v>0.04323723984346906</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.226523021652298</v>
+        <v>1.048062502609184</v>
       </c>
       <c r="H25">
-        <v>2.227014976099127</v>
+        <v>2.171874628116115</v>
       </c>
       <c r="I25">
-        <v>0.007568708252714607</v>
+        <v>2.220530978008313</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.007563377177051356</v>
       </c>
       <c r="K25">
-        <v>0.2159565272570276</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.8655532909189958</v>
+        <v>0.2158608405474851</v>
+      </c>
+      <c r="M25">
+        <v>0.8653748225710203</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_18/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.564876066520696</v>
+        <v>4.165143344411888</v>
       </c>
       <c r="C2">
-        <v>0.9913415756468567</v>
+        <v>0.4435305214781238</v>
       </c>
       <c r="D2">
-        <v>0.2008213582019636</v>
+        <v>0.2313543739122679</v>
       </c>
       <c r="E2">
-        <v>0.03914094711888438</v>
+        <v>0.04204087820548708</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.8913193869602622</v>
+        <v>0.0008520864461789313</v>
       </c>
       <c r="H2">
-        <v>1.873451371045832</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.935726312407624</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.007349482875776303</v>
+        <v>0.01632885694927388</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9561888233899793</v>
       </c>
       <c r="L2">
-        <v>0.1805681286997327</v>
+        <v>0.4541760942375959</v>
       </c>
       <c r="M2">
-        <v>0.7155639379800007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>2.236691491034563</v>
+      </c>
+      <c r="O2">
+        <v>2.793386605052348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.205834368413718</v>
+        <v>3.707299326424788</v>
       </c>
       <c r="C3">
-        <v>0.8504357263594216</v>
+        <v>0.3821601915531403</v>
       </c>
       <c r="D3">
-        <v>0.1749503975830891</v>
+        <v>0.2171393709664358</v>
       </c>
       <c r="E3">
-        <v>0.03652530175292057</v>
+        <v>0.04146626932758402</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.7899916032593381</v>
+        <v>0.0008623291602974963</v>
       </c>
       <c r="H3">
-        <v>1.68114163891849</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.752634962823095</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.00720759265891513</v>
+        <v>0.01548084869002686</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.8442223489818161</v>
       </c>
       <c r="L3">
-        <v>0.1576047773518319</v>
+        <v>0.4145877076550875</v>
       </c>
       <c r="M3">
-        <v>0.6174916759756996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>2.249057081415842</v>
+      </c>
+      <c r="O3">
+        <v>2.625292028827857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.989688689285799</v>
+        <v>3.433810300739481</v>
       </c>
       <c r="C4">
-        <v>0.7657880671704902</v>
+        <v>0.345262322211596</v>
       </c>
       <c r="D4">
-        <v>0.1594757355071863</v>
+        <v>0.2087961749600993</v>
       </c>
       <c r="E4">
-        <v>0.0349859798031833</v>
+        <v>0.0411609844224845</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.7297239138133733</v>
+        <v>0.0008687764655719692</v>
       </c>
       <c r="H4">
-        <v>1.567050386871855</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.644210608764894</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.007121141496784333</v>
+        <v>0.01496515217845484</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7772393303933427</v>
       </c>
       <c r="L4">
-        <v>0.1438831496795778</v>
+        <v>0.3911096927071185</v>
       </c>
       <c r="M4">
-        <v>0.5586200535023309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>2.259129396344193</v>
+      </c>
+      <c r="O4">
+        <v>2.527294794623259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.902528569093448</v>
+        <v>3.324071678133123</v>
       </c>
       <c r="C5">
-        <v>0.7316906962646499</v>
+        <v>0.3303955863521537</v>
       </c>
       <c r="D5">
-        <v>0.1532593762622128</v>
+        <v>0.2054852935663831</v>
       </c>
       <c r="E5">
-        <v>0.03437381444611098</v>
+        <v>0.04104796913361319</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.7055923477277588</v>
+        <v>0.0008714458666029091</v>
       </c>
       <c r="H5">
-        <v>1.521439511541516</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.600912217788121</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.007085972363852777</v>
+        <v>0.01475587467122885</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7503363333952038</v>
       </c>
       <c r="L5">
-        <v>0.1383742603751053</v>
+        <v>0.3817310128796407</v>
       </c>
       <c r="M5">
-        <v>0.5349203661797759</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>2.263819696939208</v>
+      </c>
+      <c r="O5">
+        <v>2.488554562187275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.888106897256023</v>
+        <v>3.305947243655169</v>
       </c>
       <c r="C6">
-        <v>0.7260508612618821</v>
+        <v>0.3279364511999745</v>
       </c>
       <c r="D6">
-        <v>0.1522322033319767</v>
+        <v>0.2049406888288416</v>
       </c>
       <c r="E6">
-        <v>0.03427303283540795</v>
+        <v>0.04102987557757665</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.7016094776039665</v>
+        <v>0.0008718917226994021</v>
       </c>
       <c r="H6">
-        <v>1.513915846718589</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.593772769487529</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.007080133304123382</v>
+        <v>0.01472116661897971</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7458914619571146</v>
       </c>
       <c r="L6">
-        <v>0.1374641783329587</v>
+        <v>0.380184549852828</v>
       </c>
       <c r="M6">
-        <v>0.5310013338767376</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>2.264632856630769</v>
+      </c>
+      <c r="O6">
+        <v>2.48219071151432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.988509690552405</v>
+        <v>3.432323663159707</v>
       </c>
       <c r="C7">
-        <v>0.7653267003856854</v>
+        <v>0.345061172781584</v>
       </c>
       <c r="D7">
-        <v>0.1593915531769596</v>
+        <v>0.2087511724641899</v>
       </c>
       <c r="E7">
-        <v>0.03497766477016739</v>
+        <v>0.04115941484155172</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.7293968113754659</v>
+        <v>0.000868812292911554</v>
       </c>
       <c r="H7">
-        <v>1.566431841137558</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.643623235371521</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.007120667081803034</v>
+        <v>0.01496232672938191</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7768749789860863</v>
       </c>
       <c r="L7">
-        <v>0.1438085349858618</v>
+        <v>0.3909824689012993</v>
       </c>
       <c r="M7">
-        <v>0.558299312073693</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>2.25919032710145</v>
+      </c>
+      <c r="O7">
+        <v>2.526767640335052</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.440081384516247</v>
+        <v>4.005563815114556</v>
       </c>
       <c r="C8">
-        <v>0.9423229990470361</v>
+        <v>0.4221898680960692</v>
       </c>
       <c r="D8">
-        <v>0.1918073669707354</v>
+        <v>0.2263682704412275</v>
       </c>
       <c r="E8">
-        <v>0.03822418486546475</v>
+        <v>0.0418325348935511</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.8559380266183041</v>
+        <v>0.0008555867294075607</v>
       </c>
       <c r="H8">
-        <v>1.806238853827367</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.871691859892948</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.007300350461345917</v>
+        <v>0.01603518796392933</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.9171844552183472</v>
       </c>
       <c r="L8">
-        <v>0.1725641350229061</v>
+        <v>0.4403413803252079</v>
       </c>
       <c r="M8">
-        <v>0.6814393932764133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>2.240416558895802</v>
+      </c>
+      <c r="O8">
+        <v>2.734271860608473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.368140898472745</v>
+        <v>5.200770673526563</v>
       </c>
       <c r="C9">
-        <v>1.307996980450127</v>
+        <v>0.5810640429767489</v>
       </c>
       <c r="D9">
-        <v>0.2593195965426389</v>
+        <v>0.2643610049011471</v>
       </c>
       <c r="E9">
-        <v>0.04520391881899322</v>
+        <v>0.04355797089128899</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.122708585345435</v>
+        <v>0.0008307921666342066</v>
       </c>
       <c r="H9">
-        <v>2.314313380096706</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2.356718076089493</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.007663771679003561</v>
+        <v>0.01819808181423888</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.208905388722741</v>
       </c>
       <c r="L9">
-        <v>0.2325818032588103</v>
+        <v>0.5447174834258135</v>
       </c>
       <c r="M9">
-        <v>0.9360209575494451</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>2.225191518995487</v>
+      </c>
+      <c r="O9">
+        <v>3.188460397012221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.089465944110259</v>
+        <v>6.139014502919395</v>
       </c>
       <c r="C10">
-        <v>1.594096302840626</v>
+        <v>0.7046839532997637</v>
       </c>
       <c r="D10">
-        <v>0.312440095390258</v>
+        <v>0.2949968735960908</v>
       </c>
       <c r="E10">
-        <v>0.05084082819917057</v>
+        <v>0.0451177525366333</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.33517286282185</v>
+        <v>0.0008130897743599203</v>
       </c>
       <c r="H10">
-        <v>2.720616401177125</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.745922786768574</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.007947228086937042</v>
+        <v>0.01985449910873704</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.437431514621778</v>
       </c>
       <c r="L10">
-        <v>0.279905712027734</v>
+        <v>0.6276208241463763</v>
       </c>
       <c r="M10">
-        <v>1.134989648272104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>2.230213358118561</v>
+      </c>
+      <c r="O10">
+        <v>3.560368706684571</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.42987472818794</v>
+        <v>6.583340113328916</v>
       </c>
       <c r="C11">
-        <v>1.729706834477611</v>
+        <v>0.7630165166958136</v>
       </c>
       <c r="D11">
-        <v>0.3376716366195041</v>
+        <v>0.3096890387222686</v>
       </c>
       <c r="E11">
-        <v>0.05355195446991345</v>
+        <v>0.04590258342381048</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.43678985626417</v>
+        <v>0.0008051006935126423</v>
       </c>
       <c r="H11">
-        <v>2.915325094276398</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.932773692609857</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.008082546743070296</v>
+        <v>0.02063111035033671</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.545560724151983</v>
       </c>
       <c r="L11">
-        <v>0.3024114310436588</v>
+        <v>0.6671077371907614</v>
       </c>
       <c r="M11">
-        <v>1.229165341190225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>2.23682709063641</v>
+      </c>
+      <c r="O11">
+        <v>3.740346066111726</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.560916889311784</v>
+        <v>6.754550426935964</v>
       </c>
       <c r="C12">
-        <v>1.782014427054605</v>
+        <v>0.7854663205056909</v>
       </c>
       <c r="D12">
-        <v>0.3474099635986647</v>
+        <v>0.3153773662364472</v>
       </c>
       <c r="E12">
-        <v>0.05460334043119275</v>
+        <v>0.0462117630455392</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.476123716326242</v>
+        <v>0.0008020799761802587</v>
       </c>
       <c r="H12">
-        <v>2.990749861395216</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>3.00520679653566</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.008135002436322036</v>
+        <v>0.02092936034656745</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.58721318269339</v>
       </c>
       <c r="L12">
-        <v>0.3111022227767251</v>
+        <v>0.682357046799595</v>
       </c>
       <c r="M12">
-        <v>1.26546224763392</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>2.240034671640558</v>
+      </c>
+      <c r="O12">
+        <v>3.810296979223011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.532592944841667</v>
+        <v>6.717538189552386</v>
       </c>
       <c r="C13">
-        <v>1.770703553433975</v>
+        <v>0.780614278948633</v>
       </c>
       <c r="D13">
-        <v>0.3453039311964261</v>
+        <v>0.3141464541700145</v>
       </c>
       <c r="E13">
-        <v>0.05437574095015307</v>
+        <v>0.0461446225355111</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.467612006185789</v>
+        <v>0.0008027304190927767</v>
       </c>
       <c r="H13">
-        <v>2.974425644922036</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2.989527689077676</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.008123645755479192</v>
+        <v>0.02086492671858586</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.57820929560134</v>
       </c>
       <c r="L13">
-        <v>0.309222522263525</v>
+        <v>0.6790589209245468</v>
       </c>
       <c r="M13">
-        <v>1.257614911437187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>2.23931117054687</v>
+      </c>
+      <c r="O13">
+        <v>3.795147542238823</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.44061045533897</v>
+        <v>6.597363754958224</v>
       </c>
       <c r="C14">
-        <v>1.733989994812703</v>
+        <v>0.7648558788577304</v>
       </c>
       <c r="D14">
-        <v>0.3384689407321417</v>
+        <v>0.31015442057884</v>
       </c>
       <c r="E14">
-        <v>0.05363793382833393</v>
+        <v>0.04592777245510682</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.440007878902719</v>
+        <v>0.000804852114526027</v>
       </c>
       <c r="H14">
-        <v>2.921494677605352</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.938697502787804</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.008086836049322699</v>
+        <v>0.02065555876672143</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.548972673552925</v>
       </c>
       <c r="L14">
-        <v>0.3031228769431635</v>
+        <v>0.6683561052561515</v>
       </c>
       <c r="M14">
-        <v>1.232138105130346</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>2.237076382030523</v>
+      </c>
+      <c r="O14">
+        <v>3.746063406507233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.384558951673853</v>
+        <v>6.524152187135201</v>
       </c>
       <c r="C15">
-        <v>1.711631777744799</v>
+        <v>0.7552522640793313</v>
       </c>
       <c r="D15">
-        <v>0.3343072226937949</v>
+        <v>0.3077259450814296</v>
       </c>
       <c r="E15">
-        <v>0.05318934564362721</v>
+        <v>0.04579654308104786</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.423215295246536</v>
+        <v>0.0008061521614274148</v>
       </c>
       <c r="H15">
-        <v>2.889302280954638</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.907789644384451</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.008064456995423797</v>
+        <v>0.02052788456825816</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.531159815300683</v>
       </c>
       <c r="L15">
-        <v>0.299409500951036</v>
+        <v>0.6618402687982012</v>
       </c>
       <c r="M15">
-        <v>1.216618994751428</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>2.235801681773182</v>
+      </c>
+      <c r="O15">
+        <v>3.716239955250984</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.067496736378644</v>
+        <v>6.11036493539865</v>
       </c>
       <c r="C16">
-        <v>1.585357550498145</v>
+        <v>0.7009188171287235</v>
       </c>
       <c r="D16">
-        <v>0.3108150935772898</v>
+        <v>0.2940532317113878</v>
       </c>
       <c r="E16">
-        <v>0.0506669011715779</v>
+        <v>0.04506807180726291</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.328643272882459</v>
+        <v>0.0008136127856095716</v>
       </c>
       <c r="H16">
-        <v>2.70811273721452</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2.733930671559932</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.007938536895765402</v>
+        <v>0.01980427944636709</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.430457689969003</v>
       </c>
       <c r="L16">
-        <v>0.2784568516980102</v>
+        <v>0.6250793526297542</v>
       </c>
       <c r="M16">
-        <v>1.128917562067294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>2.229874856852689</v>
+      </c>
+      <c r="O16">
+        <v>3.548844089424819</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.876377858526553</v>
+        <v>5.86129522740066</v>
       </c>
       <c r="C17">
-        <v>1.509402786675025</v>
+        <v>0.6681633014661656</v>
       </c>
       <c r="D17">
-        <v>0.296696633436909</v>
+        <v>0.2858697201310463</v>
       </c>
       <c r="E17">
-        <v>0.04915947388202468</v>
+        <v>0.04464122977219809</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.271990305535212</v>
+        <v>0.000818202915876111</v>
       </c>
       <c r="H17">
-        <v>2.599668540620854</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2.629960151773048</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.00786311334837464</v>
+        <v>0.01936684450363124</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.36981939655638</v>
       </c>
       <c r="L17">
-        <v>0.265871819734798</v>
+        <v>0.6030095733311356</v>
       </c>
       <c r="M17">
-        <v>1.076124960323831</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>2.227401287111803</v>
+      </c>
+      <c r="O17">
+        <v>3.449079879466652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.767580975120723</v>
+        <v>5.719655782739039</v>
       </c>
       <c r="C18">
-        <v>1.466218042564265</v>
+        <v>0.6495165752728269</v>
       </c>
       <c r="D18">
-        <v>0.288674389173849</v>
+        <v>0.2812328263434267</v>
       </c>
       <c r="E18">
-        <v>0.04830601676122548</v>
+        <v>0.04440272868925632</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.239862800791968</v>
+        <v>0.0008208493571372595</v>
       </c>
       <c r="H18">
-        <v>2.538205425495846</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2.571063008651649</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.007820310487517745</v>
+        <v>0.01911735978599083</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.335327254911874</v>
       </c>
       <c r="L18">
-        <v>0.2587233660305728</v>
+        <v>0.5904797585453707</v>
       </c>
       <c r="M18">
-        <v>1.046097469059099</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>2.226380553255808</v>
+      </c>
+      <c r="O18">
+        <v>3.392697473291449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.730927937315414</v>
+        <v>5.671964922075347</v>
       </c>
       <c r="C19">
-        <v>1.451678040841898</v>
+        <v>0.6432346770632762</v>
       </c>
       <c r="D19">
-        <v>0.2859742407908499</v>
+        <v>0.2796744331657948</v>
       </c>
       <c r="E19">
-        <v>0.048019281547802</v>
+        <v>0.04432314727058539</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.229059731827022</v>
+        <v>0.0008217466115651995</v>
       </c>
       <c r="H19">
-        <v>2.51754400699707</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2.551269277827586</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.007805909530480992</v>
+        <v>0.0190332285488175</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.323712016171072</v>
       </c>
       <c r="L19">
-        <v>0.2563177313470817</v>
+        <v>0.586264407388569</v>
       </c>
       <c r="M19">
-        <v>1.03598564053528</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>2.226101737192351</v>
+      </c>
+      <c r="O19">
+        <v>3.373772118600328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.896603387706989</v>
+        <v>5.887638630721995</v>
       </c>
       <c r="C20">
-        <v>1.517435170221404</v>
+        <v>0.6716297698896483</v>
       </c>
       <c r="D20">
-        <v>0.2981891887134225</v>
+        <v>0.2867335107440994</v>
       </c>
       <c r="E20">
-        <v>0.04931851276668908</v>
+        <v>0.04468593477949589</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.277972796354305</v>
+        <v>0.0008177136657576747</v>
       </c>
       <c r="H20">
-        <v>2.611116489728516</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2.640932642573645</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.00787108046192353</v>
+        <v>0.01941318550558613</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.376233839124566</v>
       </c>
       <c r="L20">
-        <v>0.2672020044311907</v>
+        <v>0.6053416711261264</v>
       </c>
       <c r="M20">
-        <v>1.081709179837212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>2.227622453326788</v>
+      </c>
+      <c r="O20">
+        <v>3.459594865195612</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.467566657804753</v>
+        <v>6.632577927612658</v>
       </c>
       <c r="C21">
-        <v>1.744746239312917</v>
+        <v>0.7694742017652914</v>
       </c>
       <c r="D21">
-        <v>0.3404712899429825</v>
+        <v>0.3113234526186801</v>
       </c>
       <c r="E21">
-        <v>0.05385394226163243</v>
+        <v>0.04599113133700428</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.448091474864697</v>
+        <v>0.0008042288370652353</v>
       </c>
       <c r="H21">
-        <v>2.936993434112708</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2.953579687850606</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.008097612325501879</v>
+        <v>0.02071693477179082</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.557540079569094</v>
       </c>
       <c r="L21">
-        <v>0.304909675650471</v>
+        <v>0.6714913735685997</v>
       </c>
       <c r="M21">
-        <v>1.239603083081121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>2.237713006024023</v>
+      </c>
+      <c r="O21">
+        <v>3.760429681902764</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.853402363306543</v>
+        <v>7.136909408639383</v>
       </c>
       <c r="C22">
-        <v>1.898975057060284</v>
+        <v>0.83555714054296</v>
       </c>
       <c r="D22">
-        <v>0.3691939104988222</v>
+        <v>0.3281306864048332</v>
       </c>
       <c r="E22">
-        <v>0.05696447175749597</v>
+        <v>0.0469146563907259</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.564333745435448</v>
+        <v>0.0007954397187902344</v>
       </c>
       <c r="H22">
-        <v>3.160003218903626</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3.167846216696404</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.00825292569597913</v>
+        <v>0.02159378189190519</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.680212877131567</v>
       </c>
       <c r="L22">
-        <v>0.330551823074039</v>
+        <v>0.7164761887616606</v>
       </c>
       <c r="M22">
-        <v>1.346559643982786</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>2.248453089325949</v>
+      </c>
+      <c r="O22">
+        <v>3.967662096028221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.646173531472471</v>
+        <v>6.865977507704258</v>
       </c>
       <c r="C23">
-        <v>1.816077197377581</v>
+        <v>0.8000699645369025</v>
       </c>
       <c r="D23">
-        <v>0.3537530200597701</v>
+        <v>0.319087015408428</v>
       </c>
       <c r="E23">
-        <v>0.05528956657196105</v>
+        <v>0.04641487362880881</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.501777187554154</v>
+        <v>0.0008001301506130586</v>
       </c>
       <c r="H23">
-        <v>3.039957816175303</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3.052477928324677</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.008169251393098875</v>
+        <v>0.02112320838912751</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.614318091097942</v>
       </c>
       <c r="L23">
-        <v>0.3167642987636228</v>
+        <v>0.6922912028996961</v>
       </c>
       <c r="M23">
-        <v>1.289089684285472</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>2.242311526843451</v>
+      </c>
+      <c r="O23">
+        <v>3.855995184167995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.887456089453281</v>
+        <v>5.875723969573983</v>
       </c>
       <c r="C24">
-        <v>1.513802238584674</v>
+        <v>0.6700620080556803</v>
       </c>
       <c r="D24">
-        <v>0.2975141118812132</v>
+        <v>0.2863427806435226</v>
       </c>
       <c r="E24">
-        <v>0.04924657048962899</v>
+        <v>0.04466570225097577</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.275266742481477</v>
+        <v>0.000817934832074263</v>
       </c>
       <c r="H24">
-        <v>2.605938141820928</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2.635969267730047</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.00786747680963229</v>
+        <v>0.01939222856291423</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.373332726172606</v>
       </c>
       <c r="L24">
-        <v>0.2666003594419166</v>
+        <v>0.604286839389033</v>
       </c>
       <c r="M24">
-        <v>1.079183553879453</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>2.227521219885759</v>
+      </c>
+      <c r="O24">
+        <v>3.454838026356043</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.111243498894623</v>
+        <v>4.868222361707126</v>
       </c>
       <c r="C25">
-        <v>1.206507162392654</v>
+        <v>0.5370540661146208</v>
       </c>
       <c r="D25">
-        <v>0.2405279616147737</v>
+        <v>0.25365462080984</v>
       </c>
       <c r="E25">
-        <v>0.04323723984346906</v>
+        <v>0.04304349086683956</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.048062502609184</v>
+        <v>0.0008373950085635639</v>
       </c>
       <c r="H25">
-        <v>2.171874628116115</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2.220530978008313</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.007563377177051356</v>
+        <v>0.01760367101014992</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.127821979207269</v>
       </c>
       <c r="L25">
-        <v>0.2158608405474851</v>
+        <v>0.5155168455501666</v>
       </c>
       <c r="M25">
-        <v>0.8653748225710203</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>2.226708908857347</v>
+      </c>
+      <c r="O25">
+        <v>3.05963293033173</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_18/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.165143344411888</v>
+        <v>0.966705208494659</v>
       </c>
       <c r="C2">
-        <v>0.4435305214781238</v>
+        <v>0.1649457239135863</v>
       </c>
       <c r="D2">
-        <v>0.2313543739122679</v>
+        <v>0.194053620898984</v>
       </c>
       <c r="E2">
-        <v>0.04204087820548708</v>
+        <v>0.06670977367758368</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008520864461789313</v>
+        <v>0.5206350386384599</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.421382987055523</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01632885694927388</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9561888233899793</v>
+        <v>0.8290697850329423</v>
       </c>
       <c r="L2">
-        <v>0.4541760942375959</v>
+        <v>0.1478547424529779</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2046457355951041</v>
       </c>
       <c r="N2">
-        <v>2.236691491034563</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.793386605052348</v>
+        <v>1.932531116889351</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.707299326424788</v>
+        <v>0.8400403620026395</v>
       </c>
       <c r="C3">
-        <v>0.3821601915531403</v>
+        <v>0.1659897148095055</v>
       </c>
       <c r="D3">
-        <v>0.2171393709664358</v>
+        <v>0.1684519782564848</v>
       </c>
       <c r="E3">
-        <v>0.04146626932758402</v>
+        <v>0.06609264245405733</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008623291602974963</v>
+        <v>0.5094732864457043</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.4226210293282548</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01548084869002686</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8442223489818161</v>
+        <v>0.7259754399715064</v>
       </c>
       <c r="L3">
-        <v>0.4145877076550875</v>
+        <v>0.134326028966818</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1788940931821195</v>
       </c>
       <c r="N3">
-        <v>2.249057081415842</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.625292028827857</v>
+        <v>1.911056294384835</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.433810300739481</v>
+        <v>0.7624993820354291</v>
       </c>
       <c r="C4">
-        <v>0.345262322211596</v>
+        <v>0.1666883857996666</v>
       </c>
       <c r="D4">
-        <v>0.2087961749600993</v>
+        <v>0.15286400370168</v>
       </c>
       <c r="E4">
-        <v>0.0411609844224845</v>
+        <v>0.06580356519683939</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008687764655719692</v>
+        <v>0.5036603902075854</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.4240134843231473</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01496515217845484</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7772393303933427</v>
+        <v>0.6626687798629973</v>
       </c>
       <c r="L4">
-        <v>0.3911096927071185</v>
+        <v>0.1261721794799016</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1631801177777277</v>
       </c>
       <c r="N4">
-        <v>2.259129396344193</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2.527294794623259</v>
+        <v>1.901389577003542</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.324071678133123</v>
+        <v>0.730947209406736</v>
       </c>
       <c r="C5">
-        <v>0.3303955863521537</v>
+        <v>0.1669875017805893</v>
       </c>
       <c r="D5">
-        <v>0.2054852935663831</v>
+        <v>0.146540956423749</v>
       </c>
       <c r="E5">
-        <v>0.04104796913361319</v>
+        <v>0.06570769102060758</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008714458666029091</v>
+        <v>0.5015416343627166</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.4247348180837918</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01475587467122885</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7503363333952038</v>
+        <v>0.6368608966785274</v>
       </c>
       <c r="L5">
-        <v>0.3817310128796407</v>
+        <v>0.1228854672000139</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1567982228489626</v>
       </c>
       <c r="N5">
-        <v>2.263819696939208</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2.488554562187275</v>
+        <v>1.898299914820626</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.305947243655169</v>
+        <v>0.7257104635297935</v>
       </c>
       <c r="C6">
-        <v>0.3279364511999745</v>
+        <v>0.1670380369454776</v>
       </c>
       <c r="D6">
-        <v>0.2049406888288416</v>
+        <v>0.1454926710828346</v>
       </c>
       <c r="E6">
-        <v>0.04102987557757665</v>
+        <v>0.06569307664447877</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008718917226994021</v>
+        <v>0.5012045902864628</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.424863745553715</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01472116661897971</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7458914619571146</v>
+        <v>0.6325746852333936</v>
       </c>
       <c r="L6">
-        <v>0.380184549852828</v>
+        <v>0.1223418208069589</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1557397421890094</v>
       </c>
       <c r="N6">
-        <v>2.264632856630769</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2.48219071151432</v>
+        <v>1.897837193412514</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.432323663159707</v>
+        <v>0.7620736857196277</v>
       </c>
       <c r="C7">
-        <v>0.345061172781584</v>
+        <v>0.1666923615903748</v>
       </c>
       <c r="D7">
-        <v>0.2087511724641899</v>
+        <v>0.1527786157505631</v>
       </c>
       <c r="E7">
-        <v>0.04115941484155172</v>
+        <v>0.0658021842790415</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.000868812292911554</v>
+        <v>0.5036308184105494</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.4240225959168669</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01496232672938191</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7768749789860863</v>
+        <v>0.6623207764753545</v>
       </c>
       <c r="L7">
-        <v>0.3909824689012993</v>
+        <v>0.1261277108403149</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1630939652285335</v>
       </c>
       <c r="N7">
-        <v>2.25919032710145</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>2.526767640335052</v>
+        <v>1.901344514096948</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.005563815114556</v>
+        <v>0.9229756874551072</v>
       </c>
       <c r="C8">
-        <v>0.4221898680960692</v>
+        <v>0.1652936648642189</v>
       </c>
       <c r="D8">
-        <v>0.2263682704412275</v>
+        <v>0.1851964647532895</v>
       </c>
       <c r="E8">
-        <v>0.0418325348935511</v>
+        <v>0.06647793018954751</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008555867294075607</v>
+        <v>0.5165633694824692</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.4216754863146548</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01603518796392933</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9171844552183472</v>
+        <v>0.7935189800458318</v>
       </c>
       <c r="L8">
-        <v>0.4403413803252079</v>
+        <v>0.1431568461794228</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1957445206017283</v>
       </c>
       <c r="N8">
-        <v>2.240416558895802</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>2.734271860608473</v>
+        <v>1.924374496783059</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.200770673526563</v>
+        <v>1.240925841592826</v>
       </c>
       <c r="C9">
-        <v>0.5810640429767489</v>
+        <v>0.1630130811751513</v>
       </c>
       <c r="D9">
-        <v>0.2643610049011471</v>
+        <v>0.2499991534970007</v>
       </c>
       <c r="E9">
-        <v>0.04355797089128899</v>
+        <v>0.06854754081214054</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008307921666342066</v>
+        <v>0.5507317684090935</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.4223325666339832</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01819808181423888</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1.208905388722741</v>
+        <v>1.051159607022527</v>
       </c>
       <c r="L9">
-        <v>0.5447174834258135</v>
+        <v>0.1778785982235718</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2606871104784787</v>
       </c>
       <c r="N9">
-        <v>2.225191518995487</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>3.188460397012221</v>
+        <v>1.999136806682344</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.139014502919395</v>
+        <v>1.476882972563288</v>
       </c>
       <c r="C10">
-        <v>0.7046839532997637</v>
+        <v>0.1616266426765591</v>
       </c>
       <c r="D10">
-        <v>0.2949968735960908</v>
+        <v>0.2986395000675373</v>
       </c>
       <c r="E10">
-        <v>0.0451177525366333</v>
+        <v>0.07056837324216403</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008130897743599203</v>
+        <v>0.5820185189716938</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.4263796437934246</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01985449910873704</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.437431514621778</v>
+        <v>1.241295431850261</v>
       </c>
       <c r="L10">
-        <v>0.6276208241463763</v>
+        <v>0.2043693369023316</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3091693121322336</v>
       </c>
       <c r="N10">
-        <v>2.230213358118561</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>3.560368706684571</v>
+        <v>2.074585688816768</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.583340113328916</v>
+        <v>1.584949539050228</v>
       </c>
       <c r="C11">
-        <v>0.7630165166958136</v>
+        <v>0.1610604999852754</v>
       </c>
       <c r="D11">
-        <v>0.3096890387222686</v>
+        <v>0.3210569125393192</v>
       </c>
       <c r="E11">
-        <v>0.04590258342381048</v>
+        <v>0.07160727332069783</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008051006935126423</v>
+        <v>0.5977873697448786</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.4290797312838492</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02063111035033671</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.545560724151983</v>
+        <v>1.328127811880478</v>
       </c>
       <c r="L11">
-        <v>0.6671077371907614</v>
+        <v>0.2166742510573556</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3314424412838051</v>
       </c>
       <c r="N11">
-        <v>2.23682709063641</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>3.740346066111726</v>
+        <v>2.113952851128744</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.754550426935964</v>
+        <v>1.625994753579761</v>
       </c>
       <c r="C12">
-        <v>0.7854663205056909</v>
+        <v>0.1608555667512022</v>
       </c>
       <c r="D12">
-        <v>0.3153773662364472</v>
+        <v>0.3295933922608612</v>
       </c>
       <c r="E12">
-        <v>0.0462117630455392</v>
+        <v>0.07201884634262257</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008020799761802587</v>
+        <v>0.6039967945347229</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.4302333330270898</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02092936034656745</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.58721318269339</v>
+        <v>1.361070827765133</v>
       </c>
       <c r="L12">
-        <v>0.682357046799595</v>
+        <v>0.2213739245228652</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.3399125018620026</v>
       </c>
       <c r="N12">
-        <v>2.240034671640558</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>3.810296979223011</v>
+        <v>2.129638183680072</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.717538189552386</v>
+        <v>1.617149172333882</v>
       </c>
       <c r="C13">
-        <v>0.780614278948633</v>
+        <v>0.1608992795247772</v>
       </c>
       <c r="D13">
-        <v>0.3141464541700145</v>
+        <v>0.3277527016678334</v>
       </c>
       <c r="E13">
-        <v>0.0461446225355111</v>
+        <v>0.07192938286720363</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008027304190927767</v>
+        <v>0.6026486078077085</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.4299789250558064</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02086492671858586</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.57820929560134</v>
+        <v>1.353973011857448</v>
       </c>
       <c r="L13">
-        <v>0.6790589209245468</v>
+        <v>0.2203599249634465</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.3380866625911025</v>
       </c>
       <c r="N13">
-        <v>2.23931117054687</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>3.795147542238823</v>
+        <v>2.126224599056684</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.597363754958224</v>
+        <v>1.588323785716568</v>
       </c>
       <c r="C14">
-        <v>0.7648558788577304</v>
+        <v>0.161043449536038</v>
       </c>
       <c r="D14">
-        <v>0.31015442057884</v>
+        <v>0.3217582280878162</v>
       </c>
       <c r="E14">
-        <v>0.04592777245510682</v>
+        <v>0.07164076390472829</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.000804852114526027</v>
+        <v>0.5982933482786166</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.429171965139389</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02065555876672143</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.548972673552925</v>
+        <v>1.330836744898249</v>
       </c>
       <c r="L14">
-        <v>0.6683561052561515</v>
+        <v>0.2170600719278895</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.3321385367859122</v>
       </c>
       <c r="N14">
-        <v>2.237076382030523</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>3.746063406507233</v>
+        <v>2.115227390833468</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.524152187135201</v>
+        <v>1.570683946182783</v>
       </c>
       <c r="C15">
-        <v>0.7552522640793313</v>
+        <v>0.1611329941306039</v>
       </c>
       <c r="D15">
-        <v>0.3077259450814296</v>
+        <v>0.3180928002362435</v>
       </c>
       <c r="E15">
-        <v>0.04579654308104786</v>
+        <v>0.0714663716142816</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008061521614274148</v>
+        <v>0.5956571642218478</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.4286949916553198</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02052788456825816</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.531159815300683</v>
+        <v>1.316673515188</v>
       </c>
       <c r="L15">
-        <v>0.6618402687982012</v>
+        <v>0.2150441435720154</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.3284999217040365</v>
       </c>
       <c r="N15">
-        <v>2.235801681773182</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>3.716239955250984</v>
+        <v>2.108594197453556</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.11036493539865</v>
+        <v>1.469836736367398</v>
       </c>
       <c r="C16">
-        <v>0.7009188171287235</v>
+        <v>0.1616649546430935</v>
       </c>
       <c r="D16">
-        <v>0.2940532317113878</v>
+        <v>0.2971807967500553</v>
       </c>
       <c r="E16">
-        <v>0.04506807180726291</v>
+        <v>0.07050296661665811</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008136127856095716</v>
+        <v>0.5810203445218889</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.4262211113395011</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.01980427944636709</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.430457689969003</v>
+        <v>1.235628617129294</v>
       </c>
       <c r="L16">
-        <v>0.6250793526297542</v>
+        <v>0.2035705916964616</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.3077184660872447</v>
       </c>
       <c r="N16">
-        <v>2.229874856852689</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>3.548844089424819</v>
+        <v>2.072118866957453</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.86129522740066</v>
+        <v>1.408169224712964</v>
       </c>
       <c r="C17">
-        <v>0.6681633014661656</v>
+        <v>0.1620079457434187</v>
       </c>
       <c r="D17">
-        <v>0.2858697201310463</v>
+        <v>0.2844303429902197</v>
       </c>
       <c r="E17">
-        <v>0.04464122977219809</v>
+        <v>0.06994325153309333</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.000818202915876111</v>
+        <v>0.5724464823219506</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.4249287381261837</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.01936684450363124</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.36981939655638</v>
+        <v>1.186005731389599</v>
       </c>
       <c r="L17">
-        <v>0.6030095733311356</v>
+        <v>0.1965994649800393</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2950286117205323</v>
       </c>
       <c r="N17">
-        <v>2.227401287111803</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>3.449079879466652</v>
+        <v>2.051070740446107</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.719655782739039</v>
+        <v>1.372767119392819</v>
       </c>
       <c r="C18">
-        <v>0.6495165752728269</v>
+        <v>0.1622112904031994</v>
       </c>
       <c r="D18">
-        <v>0.2812328263434267</v>
+        <v>0.2771236164590221</v>
       </c>
       <c r="E18">
-        <v>0.04440272868925632</v>
+        <v>0.06963251558219774</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008208493571372595</v>
+        <v>0.5676585362618169</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.4242657716585541</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.01911735978599083</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1.335327254911874</v>
+        <v>1.157495014349621</v>
       </c>
       <c r="L18">
-        <v>0.5904797585453707</v>
+        <v>0.1926135538623726</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2877500178643757</v>
       </c>
       <c r="N18">
-        <v>2.226380553255808</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>3.392697473291449</v>
+        <v>2.039435940841912</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.671964922075347</v>
+        <v>1.360791626119692</v>
       </c>
       <c r="C19">
-        <v>0.6432346770632762</v>
+        <v>0.1622811761753979</v>
       </c>
       <c r="D19">
-        <v>0.2796744331657948</v>
+        <v>0.274654153775046</v>
       </c>
       <c r="E19">
-        <v>0.04432314727058539</v>
+        <v>0.06952920049916145</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008217466115651995</v>
+        <v>0.5660615640080522</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.4240548833612081</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0190332285488175</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.323712016171072</v>
+        <v>1.147846734837316</v>
       </c>
       <c r="L19">
-        <v>0.586264407388569</v>
+        <v>0.1912679592206672</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2852889666849805</v>
       </c>
       <c r="N19">
-        <v>2.226101737192351</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>3.373772118600328</v>
+        <v>2.03557604512136</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.887638630721995</v>
+        <v>1.414726732994865</v>
       </c>
       <c r="C20">
-        <v>0.6716297698896483</v>
+        <v>0.1619708048393846</v>
       </c>
       <c r="D20">
-        <v>0.2867335107440994</v>
+        <v>0.2857848163953634</v>
       </c>
       <c r="E20">
-        <v>0.04468593477949589</v>
+        <v>0.07000166848613532</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008177136657576747</v>
+        <v>0.573344210871241</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.4250579417909108</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.01941318550558613</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.376233839124566</v>
+        <v>1.191284868682573</v>
       </c>
       <c r="L20">
-        <v>0.6053416711261264</v>
+        <v>0.1973390760401941</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2963773397306895</v>
       </c>
       <c r="N20">
-        <v>2.227622453326788</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>3.459594865195612</v>
+        <v>2.053262180384735</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.632577927612658</v>
+        <v>1.596787019180709</v>
       </c>
       <c r="C21">
-        <v>0.7694742017652914</v>
+        <v>0.1610008453419027</v>
       </c>
       <c r="D21">
-        <v>0.3113234526186801</v>
+        <v>0.3235176141055547</v>
       </c>
       <c r="E21">
-        <v>0.04599113133700428</v>
+        <v>0.07172503733404056</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008042288370652353</v>
+        <v>0.5995659887045406</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.4294053665326913</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02071693477179082</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.557540079569094</v>
+        <v>1.337630652230331</v>
       </c>
       <c r="L21">
-        <v>0.6714913735685997</v>
+        <v>0.2180282020005535</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3338846404631823</v>
       </c>
       <c r="N21">
-        <v>2.237713006024023</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>3.760429681902764</v>
+        <v>2.118435991619464</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.136909408639383</v>
+        <v>1.716498731928823</v>
       </c>
       <c r="C22">
-        <v>0.83555714054296</v>
+        <v>0.1604221073661023</v>
       </c>
       <c r="D22">
-        <v>0.3281306864048332</v>
+        <v>0.3484579188908725</v>
       </c>
       <c r="E22">
-        <v>0.0469146563907259</v>
+        <v>0.07295772520578581</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007954397187902344</v>
+        <v>0.6181001296430679</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.4330149488812509</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02159378189190519</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.680212877131567</v>
+        <v>1.433641051971307</v>
       </c>
       <c r="L22">
-        <v>0.7164761887616606</v>
+        <v>0.2317851089539715</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3586082000767377</v>
       </c>
       <c r="N22">
-        <v>2.248453089325949</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>3.967662096028221</v>
+        <v>2.165591679287559</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.865977507704258</v>
+        <v>1.652533729185507</v>
       </c>
       <c r="C23">
-        <v>0.8000699645369025</v>
+        <v>0.1607258813530521</v>
       </c>
       <c r="D23">
-        <v>0.319087015408428</v>
+        <v>0.3351192311581173</v>
       </c>
       <c r="E23">
-        <v>0.04641487362880881</v>
+        <v>0.07228974917237352</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008001301506130586</v>
+        <v>0.6080743211151542</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.4310154939181814</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02112320838912751</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.614318091097942</v>
+        <v>1.382360624540837</v>
       </c>
       <c r="L23">
-        <v>0.6922912028996961</v>
+        <v>0.2244200248005086</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3453920159815311</v>
       </c>
       <c r="N23">
-        <v>2.242311526843451</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>3.855995184167995</v>
+        <v>2.139988218158095</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.875723969573983</v>
+        <v>1.411761924843915</v>
       </c>
       <c r="C24">
-        <v>0.6700620080556803</v>
+        <v>0.1619875770848438</v>
       </c>
       <c r="D24">
-        <v>0.2863427806435226</v>
+        <v>0.2851723856394699</v>
       </c>
       <c r="E24">
-        <v>0.04466570225097577</v>
+        <v>0.06997522383022314</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.000817934832074263</v>
+        <v>0.572937909018691</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.4249992800885138</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.01939222856291423</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1.373332726172606</v>
+        <v>1.188898115162203</v>
       </c>
       <c r="L24">
-        <v>0.604286839389033</v>
+        <v>0.1970046299844341</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2957675272543909</v>
       </c>
       <c r="N24">
-        <v>2.227521219885759</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>3.454838026356043</v>
+        <v>2.052269982667696</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.868222361707126</v>
+        <v>1.154564983197673</v>
       </c>
       <c r="C25">
-        <v>0.5370540661146208</v>
+        <v>0.1635798390227663</v>
       </c>
       <c r="D25">
-        <v>0.25365462080984</v>
+        <v>0.2323086590585319</v>
       </c>
       <c r="E25">
-        <v>0.04304349086683956</v>
+        <v>0.06790332179034131</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008373950085635639</v>
+        <v>0.5404644272906722</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.421556141911438</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.01760367101014992</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1.127821979207269</v>
+        <v>0.9813601479492036</v>
       </c>
       <c r="L25">
-        <v>0.5155168455501666</v>
+        <v>0.1683262564577106</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2429994856934279</v>
       </c>
       <c r="N25">
-        <v>2.226708908857347</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>3.05963293033173</v>
+        <v>1.975496437966768</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_18/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.966705208494659</v>
+        <v>0.4903499869063239</v>
       </c>
       <c r="C2">
-        <v>0.1649457239135863</v>
+        <v>0.2576560982681002</v>
       </c>
       <c r="D2">
-        <v>0.194053620898984</v>
+        <v>0.07809297637275847</v>
       </c>
       <c r="E2">
-        <v>0.06670977367758368</v>
+        <v>0.1454928687227106</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5206350386384599</v>
+        <v>0.8963065876550615</v>
       </c>
       <c r="H2">
-        <v>0.421382987055523</v>
+        <v>0.9556691858303168</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8290697850329423</v>
+        <v>0.2555851104106637</v>
       </c>
       <c r="L2">
-        <v>0.1478547424529779</v>
+        <v>0.1911193299687284</v>
       </c>
       <c r="M2">
-        <v>0.2046457355951041</v>
+        <v>0.1460821807584445</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.932531116889351</v>
+        <v>3.738499054475</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8400403620026395</v>
+        <v>0.4545619025943779</v>
       </c>
       <c r="C3">
-        <v>0.1659897148095055</v>
+        <v>0.2580419132519474</v>
       </c>
       <c r="D3">
-        <v>0.1684519782564848</v>
+        <v>0.0709065120186807</v>
       </c>
       <c r="E3">
-        <v>0.06609264245405733</v>
+        <v>0.1461369765066323</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.5094732864457043</v>
+        <v>0.8996451419604625</v>
       </c>
       <c r="H3">
-        <v>0.4226210293282548</v>
+        <v>0.9612978588448655</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7259754399715064</v>
+        <v>0.2236868652359618</v>
       </c>
       <c r="L3">
-        <v>0.134326028966818</v>
+        <v>0.1885397940620379</v>
       </c>
       <c r="M3">
-        <v>0.1788940931821195</v>
+        <v>0.1393518323464136</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.911056294384835</v>
+        <v>3.757073241339</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7624993820354291</v>
+        <v>0.4327238120229708</v>
       </c>
       <c r="C4">
-        <v>0.1666883857996666</v>
+        <v>0.2583073982245736</v>
       </c>
       <c r="D4">
-        <v>0.15286400370168</v>
+        <v>0.06652725405521664</v>
       </c>
       <c r="E4">
-        <v>0.06580356519683939</v>
+        <v>0.146588673436769</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.5036603902075854</v>
+        <v>0.9021963064860472</v>
       </c>
       <c r="H4">
-        <v>0.4240134843231473</v>
+        <v>0.9651256847939749</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6626687798629973</v>
+        <v>0.2040642024047941</v>
       </c>
       <c r="L4">
-        <v>0.1261721794799016</v>
+        <v>0.1870465847903802</v>
       </c>
       <c r="M4">
-        <v>0.1631801177777277</v>
+        <v>0.1352778560688925</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.901389577003542</v>
+        <v>3.770308741865875</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.730947209406736</v>
+        <v>0.4238593765453231</v>
       </c>
       <c r="C5">
-        <v>0.1669875017805893</v>
+        <v>0.2584228052031676</v>
       </c>
       <c r="D5">
-        <v>0.146540956423749</v>
+        <v>0.06475106029182598</v>
       </c>
       <c r="E5">
-        <v>0.06570769102060758</v>
+        <v>0.1467868990959857</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.5015416343627166</v>
+        <v>0.9033619687822636</v>
       </c>
       <c r="H5">
-        <v>0.4247348180837918</v>
+        <v>0.9667791329554589</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6368608966785274</v>
+        <v>0.1960589411263385</v>
       </c>
       <c r="L5">
-        <v>0.1228854672000139</v>
+        <v>0.1864609441531329</v>
       </c>
       <c r="M5">
-        <v>0.1567982228489626</v>
+        <v>0.1336324998310978</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.898299914820626</v>
+        <v>3.776162859814207</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7257104635297935</v>
+        <v>0.4223895605684049</v>
       </c>
       <c r="C6">
-        <v>0.1670380369454776</v>
+        <v>0.2584424053743284</v>
       </c>
       <c r="D6">
-        <v>0.1454926710828346</v>
+        <v>0.06445663213062858</v>
       </c>
       <c r="E6">
-        <v>0.06569307664447877</v>
+        <v>0.1468206698749537</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.5012045902864628</v>
+        <v>0.9035631385005019</v>
       </c>
       <c r="H6">
-        <v>0.424863745553715</v>
+        <v>0.9670593411887367</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6325746852333936</v>
+        <v>0.1947291510401925</v>
       </c>
       <c r="L6">
-        <v>0.1223418208069589</v>
+        <v>0.1863650811694768</v>
       </c>
       <c r="M6">
-        <v>0.1557397421890094</v>
+        <v>0.1333601883140219</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.897837193412514</v>
+        <v>3.777162751961669</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7620736857196277</v>
+        <v>0.4326041216173167</v>
       </c>
       <c r="C7">
-        <v>0.1666923615903748</v>
+        <v>0.2583089253713347</v>
       </c>
       <c r="D7">
-        <v>0.1527786157505631</v>
+        <v>0.06650326568227172</v>
       </c>
       <c r="E7">
-        <v>0.0658021842790415</v>
+        <v>0.1465912894350048</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.5036308184105494</v>
+        <v>0.9022115166885314</v>
       </c>
       <c r="H7">
-        <v>0.4240225959168669</v>
+        <v>0.9651476047663721</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6623207764753545</v>
+        <v>0.2039562759686788</v>
       </c>
       <c r="L7">
-        <v>0.1261277108403149</v>
+        <v>0.1870385940157249</v>
       </c>
       <c r="M7">
-        <v>0.1630939652285335</v>
+        <v>0.1352556060510892</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.901344514096948</v>
+        <v>3.770385827620018</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9229756874551072</v>
+        <v>0.4779823779883827</v>
       </c>
       <c r="C8">
-        <v>0.1652936648642189</v>
+        <v>0.2577832105118745</v>
       </c>
       <c r="D8">
-        <v>0.1851964647532895</v>
+        <v>0.07560819367147076</v>
       </c>
       <c r="E8">
-        <v>0.06647793018954751</v>
+        <v>0.1457033024433141</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5165633694824692</v>
+        <v>0.897353674209441</v>
       </c>
       <c r="H8">
-        <v>0.4216754863146548</v>
+        <v>0.9575328370884506</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7935189800458318</v>
+        <v>0.2445945310606987</v>
       </c>
       <c r="L8">
-        <v>0.1431568461794228</v>
+        <v>0.1902111310186498</v>
       </c>
       <c r="M8">
-        <v>0.1957445206017283</v>
+        <v>0.1437494850730765</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.924374496783059</v>
+        <v>3.744523525642819</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.240925841592826</v>
+        <v>0.5680267870157536</v>
       </c>
       <c r="C9">
-        <v>0.1630130811751513</v>
+        <v>0.2569778797254685</v>
       </c>
       <c r="D9">
-        <v>0.2499991534970007</v>
+        <v>0.09372663687079807</v>
       </c>
       <c r="E9">
-        <v>0.06854754081214054</v>
+        <v>0.1444071328390777</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5507317684090935</v>
+        <v>0.8918060547627391</v>
       </c>
       <c r="H9">
-        <v>0.4223325666339832</v>
+        <v>0.9455467604486074</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.051159607022527</v>
+        <v>0.3239768735213886</v>
       </c>
       <c r="L9">
-        <v>0.1778785982235718</v>
+        <v>0.1971493781396845</v>
       </c>
       <c r="M9">
-        <v>0.2606871104784787</v>
+        <v>0.1608658837371451</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.999136806682344</v>
+        <v>3.70833008910617</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.476882972563288</v>
+        <v>0.6348062253255478</v>
       </c>
       <c r="C10">
-        <v>0.1616266426765591</v>
+        <v>0.2565220548683911</v>
       </c>
       <c r="D10">
-        <v>0.2986395000675373</v>
+        <v>0.1072001421842828</v>
       </c>
       <c r="E10">
-        <v>0.07056837324216403</v>
+        <v>0.1437251620492646</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5820185189716938</v>
+        <v>0.8901584396550959</v>
       </c>
       <c r="H10">
-        <v>0.4263796437934246</v>
+        <v>0.9385323085713679</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.241295431850261</v>
+        <v>0.3820954680558089</v>
       </c>
       <c r="L10">
-        <v>0.2043693369023316</v>
+        <v>0.2026817121632973</v>
       </c>
       <c r="M10">
-        <v>0.3091693121322336</v>
+        <v>0.1737175579576231</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.074585688816768</v>
+        <v>3.690588885755005</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.584949539050228</v>
+        <v>0.6653173498160641</v>
       </c>
       <c r="C11">
-        <v>0.1610604999852754</v>
+        <v>0.2563438393434865</v>
       </c>
       <c r="D11">
-        <v>0.3210569125393192</v>
+        <v>0.1133650525211038</v>
       </c>
       <c r="E11">
-        <v>0.07160727332069783</v>
+        <v>0.1434733952395923</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5977873697448786</v>
+        <v>0.8899368298872474</v>
       </c>
       <c r="H11">
-        <v>0.4290797312838492</v>
+        <v>0.9357293833357829</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.328127811880478</v>
+        <v>0.4084880565438596</v>
       </c>
       <c r="L11">
-        <v>0.2166742510573556</v>
+        <v>0.2052924995102927</v>
       </c>
       <c r="M11">
-        <v>0.3314424412838051</v>
+        <v>0.1796233162125134</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.113952851128744</v>
+        <v>3.684439246828646</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.625994753579761</v>
+        <v>0.6768897260279232</v>
       </c>
       <c r="C12">
-        <v>0.1608555667512022</v>
+        <v>0.2562805157772843</v>
       </c>
       <c r="D12">
-        <v>0.3295933922608612</v>
+        <v>0.1157046753496758</v>
       </c>
       <c r="E12">
-        <v>0.07201884634262257</v>
+        <v>0.1433864458544178</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6039967945347229</v>
+        <v>0.8899288579367948</v>
       </c>
       <c r="H12">
-        <v>0.4302333330270898</v>
+        <v>0.9347237036076308</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.361070827765133</v>
+        <v>0.4184752823021824</v>
       </c>
       <c r="L12">
-        <v>0.2213739245228652</v>
+        <v>0.2062946157902843</v>
       </c>
       <c r="M12">
-        <v>0.3399125018620026</v>
+        <v>0.1818681269954112</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.129638183680072</v>
+        <v>3.682386685620344</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.617149172333882</v>
+        <v>0.6743965959758498</v>
       </c>
       <c r="C13">
-        <v>0.1608992795247772</v>
+        <v>0.2562939689376478</v>
       </c>
       <c r="D13">
-        <v>0.3277527016678334</v>
+        <v>0.1152005692286906</v>
       </c>
       <c r="E13">
-        <v>0.07192938286720363</v>
+        <v>0.1434047991326963</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6026486078077085</v>
+        <v>0.8899271965225921</v>
       </c>
       <c r="H13">
-        <v>0.4299789250558064</v>
+        <v>0.9349378172696134</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.353973011857448</v>
+        <v>0.4163246768386557</v>
       </c>
       <c r="L13">
-        <v>0.2203599249634465</v>
+        <v>0.2060781941535907</v>
       </c>
       <c r="M13">
-        <v>0.3380866625911025</v>
+        <v>0.181384293934947</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.126224599056684</v>
+        <v>3.682816459361248</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.588323785716568</v>
+        <v>0.6662690494653987</v>
       </c>
       <c r="C14">
-        <v>0.161043449536038</v>
+        <v>0.2563385464049119</v>
       </c>
       <c r="D14">
-        <v>0.3217582280878162</v>
+        <v>0.1135574325887774</v>
       </c>
       <c r="E14">
-        <v>0.07164076390472829</v>
+        <v>0.1434660738313625</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5982933482786166</v>
+        <v>0.8899346517405746</v>
       </c>
       <c r="H14">
-        <v>0.429171965139389</v>
+        <v>0.9356455289706531</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.330836744898249</v>
+        <v>0.4093098561571082</v>
       </c>
       <c r="L14">
-        <v>0.2170600719278895</v>
+        <v>0.2053746746711624</v>
       </c>
       <c r="M14">
-        <v>0.3321385367859122</v>
+        <v>0.1798078299350863</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.115227390833468</v>
+        <v>3.684264846759959</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.570683946182783</v>
+        <v>0.6612930801062191</v>
       </c>
       <c r="C15">
-        <v>0.1611329941306039</v>
+        <v>0.2563663926914188</v>
       </c>
       <c r="D15">
-        <v>0.3180928002362435</v>
+        <v>0.1125516277302125</v>
       </c>
       <c r="E15">
-        <v>0.0714663716142816</v>
+        <v>0.1435046983472255</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5956571642218478</v>
+        <v>0.8899491098443946</v>
       </c>
       <c r="H15">
-        <v>0.4286949916553198</v>
+        <v>0.9360862782452273</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.316673515188</v>
+        <v>0.4050121403449793</v>
       </c>
       <c r="L15">
-        <v>0.2150441435720154</v>
+        <v>0.2049455006805516</v>
       </c>
       <c r="M15">
-        <v>0.3284999217040365</v>
+        <v>0.1788432941807514</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.108594197453556</v>
+        <v>3.685187990226979</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.469836736367398</v>
+        <v>0.6328148709326626</v>
       </c>
       <c r="C16">
-        <v>0.1616649546430935</v>
+        <v>0.2565342856954658</v>
       </c>
       <c r="D16">
-        <v>0.2971807967500553</v>
+        <v>0.1067979671046686</v>
       </c>
       <c r="E16">
-        <v>0.07050296661665811</v>
+        <v>0.143742790533782</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.5810203445218889</v>
+        <v>0.8901835481134839</v>
       </c>
       <c r="H16">
-        <v>0.4262211113395011</v>
+        <v>0.9387232880463188</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.235628617129294</v>
+        <v>0.3803696865006714</v>
       </c>
       <c r="L16">
-        <v>0.2035705916964616</v>
+        <v>0.2025129791672811</v>
       </c>
       <c r="M16">
-        <v>0.3077184660872447</v>
+        <v>0.173332788881126</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.072118866957453</v>
+        <v>3.691029428520039</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.408169224712964</v>
+        <v>0.6153779866173181</v>
       </c>
       <c r="C17">
-        <v>0.1620079457434187</v>
+        <v>0.2566447266197045</v>
       </c>
       <c r="D17">
-        <v>0.2844303429902197</v>
+        <v>0.1032774132095113</v>
       </c>
       <c r="E17">
-        <v>0.06994325153309333</v>
+        <v>0.1439038139094198</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.5724464823219506</v>
+        <v>0.8904626015488475</v>
       </c>
       <c r="H17">
-        <v>0.4249287381261837</v>
+        <v>0.9404403342560954</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.186005731389599</v>
+        <v>0.3652402526200547</v>
       </c>
       <c r="L17">
-        <v>0.1965994649800393</v>
+        <v>0.2010447621185421</v>
       </c>
       <c r="M17">
-        <v>0.2950286117205323</v>
+        <v>0.1699674157826934</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.051070740446107</v>
+        <v>3.695104919053335</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.372767119392819</v>
+        <v>0.6053612911183563</v>
       </c>
       <c r="C18">
-        <v>0.1622112904031994</v>
+        <v>0.2567109938901027</v>
       </c>
       <c r="D18">
-        <v>0.2771236164590221</v>
+        <v>0.1012558503788483</v>
       </c>
       <c r="E18">
-        <v>0.06963251558219774</v>
+        <v>0.1440019343848959</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5676585362618169</v>
+        <v>0.8906727919356143</v>
       </c>
       <c r="H18">
-        <v>0.4242657716585541</v>
+        <v>0.941464456549383</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.157495014349621</v>
+        <v>0.3565339153127809</v>
       </c>
       <c r="L18">
-        <v>0.1926135538623726</v>
+        <v>0.2002091435451661</v>
       </c>
       <c r="M18">
-        <v>0.2877500178643757</v>
+        <v>0.1680373468673935</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.039435940841912</v>
+        <v>3.697629843041966</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.360791626119692</v>
+        <v>0.6019719827895074</v>
       </c>
       <c r="C19">
-        <v>0.1622811761753979</v>
+        <v>0.2567339030816953</v>
       </c>
       <c r="D19">
-        <v>0.274654153775046</v>
+        <v>0.1005719632189965</v>
       </c>
       <c r="E19">
-        <v>0.06952920049916145</v>
+        <v>0.1440361021721337</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5660615640080522</v>
+        <v>0.8907524913480813</v>
       </c>
       <c r="H19">
-        <v>0.4240548833612081</v>
+        <v>0.9418174815443905</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.147846734837316</v>
+        <v>0.353585377471461</v>
       </c>
       <c r="L19">
-        <v>0.1912679592206672</v>
+        <v>0.199927741288775</v>
       </c>
       <c r="M19">
-        <v>0.2852889666849805</v>
+        <v>0.167384825054782</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.03557604512136</v>
+        <v>3.698515794747408</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.414726732994865</v>
+        <v>0.617232879489336</v>
       </c>
       <c r="C20">
-        <v>0.1619708048393846</v>
+        <v>0.2566326861442718</v>
       </c>
       <c r="D20">
-        <v>0.2857848163953634</v>
+        <v>0.1036518339966364</v>
       </c>
       <c r="E20">
-        <v>0.07000166848613532</v>
+        <v>0.1438861031739975</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.573344210871241</v>
+        <v>0.8904277532336664</v>
       </c>
       <c r="H20">
-        <v>0.4250579417909108</v>
+        <v>0.9402537722566677</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.191284868682573</v>
+        <v>0.3668512538743869</v>
       </c>
       <c r="L20">
-        <v>0.1973390760401941</v>
+        <v>0.2012001397079786</v>
       </c>
       <c r="M20">
-        <v>0.2963773397306895</v>
+        <v>0.1703250863224568</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.053262180384735</v>
+        <v>3.694652363385387</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.596787019180709</v>
+        <v>0.6686558104383948</v>
       </c>
       <c r="C21">
-        <v>0.1610008453419027</v>
+        <v>0.256325340164409</v>
       </c>
       <c r="D21">
-        <v>0.3235176141055547</v>
+        <v>0.1140399233834017</v>
       </c>
       <c r="E21">
-        <v>0.07172503733404056</v>
+        <v>0.1434478484286714</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5995659887045406</v>
+        <v>0.8899304005060458</v>
       </c>
       <c r="H21">
-        <v>0.4294053665326913</v>
+        <v>0.9354361449796897</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.337630652230331</v>
+        <v>0.4113704748671694</v>
       </c>
       <c r="L21">
-        <v>0.2180282020005535</v>
+        <v>0.2055809503941646</v>
       </c>
       <c r="M21">
-        <v>0.3338846404631823</v>
+        <v>0.1802706478639493</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.118435991619464</v>
+        <v>3.683831925426688</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.716498731928823</v>
+        <v>0.7023710692662064</v>
       </c>
       <c r="C22">
-        <v>0.1604221073661023</v>
+        <v>0.2561487230576986</v>
       </c>
       <c r="D22">
-        <v>0.3484579188908725</v>
+        <v>0.120858879778595</v>
       </c>
       <c r="E22">
-        <v>0.07295772520578581</v>
+        <v>0.143210314201955</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.6181001296430679</v>
+        <v>0.890048044134474</v>
       </c>
       <c r="H22">
-        <v>0.4330149488812509</v>
+        <v>0.9326123383053471</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.433641051971307</v>
+        <v>0.4404249001865139</v>
       </c>
       <c r="L22">
-        <v>0.2317851089539715</v>
+        <v>0.2085225342316193</v>
       </c>
       <c r="M22">
-        <v>0.3586082000767377</v>
+        <v>0.1868197168587074</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.165591679287559</v>
+        <v>3.678369869371949</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.652533729185507</v>
+        <v>0.6843669798647625</v>
       </c>
       <c r="C23">
-        <v>0.1607258813530521</v>
+        <v>0.2562407770172115</v>
       </c>
       <c r="D23">
-        <v>0.3351192311581173</v>
+        <v>0.117216765046507</v>
       </c>
       <c r="E23">
-        <v>0.07228974917237352</v>
+        <v>0.1433326231338619</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.6080743211151542</v>
+        <v>0.8899447375599152</v>
       </c>
       <c r="H23">
-        <v>0.4310154939181814</v>
+        <v>0.9340897598573719</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.382360624540837</v>
+        <v>0.4249219587647417</v>
       </c>
       <c r="L23">
-        <v>0.2244200248005086</v>
+        <v>0.2069453966024639</v>
       </c>
       <c r="M23">
-        <v>0.3453920159815311</v>
+        <v>0.1833199062262665</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.139988218158095</v>
+        <v>3.681137799257897</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.411761924843915</v>
+        <v>0.6163942574521002</v>
       </c>
       <c r="C24">
-        <v>0.1619875770848438</v>
+        <v>0.2566381210031068</v>
       </c>
       <c r="D24">
-        <v>0.2851723856394699</v>
+        <v>0.1034825507243085</v>
       </c>
       <c r="E24">
-        <v>0.06997522383022314</v>
+        <v>0.1438940929211885</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.572937909018691</v>
+        <v>0.8904433531636755</v>
       </c>
       <c r="H24">
-        <v>0.4249992800885138</v>
+        <v>0.9403380017725169</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.188898115162203</v>
+        <v>0.366122945789698</v>
       </c>
       <c r="L24">
-        <v>0.1970046299844341</v>
+        <v>0.2011298670848873</v>
       </c>
       <c r="M24">
-        <v>0.2957675272543909</v>
+        <v>0.1701633687325597</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.052269982667696</v>
+        <v>3.694856397280518</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.154564983197673</v>
+        <v>0.5435563263725953</v>
       </c>
       <c r="C25">
-        <v>0.1635798390227663</v>
+        <v>0.2571717661713961</v>
       </c>
       <c r="D25">
-        <v>0.2323086590585319</v>
+        <v>0.08879676740340869</v>
       </c>
       <c r="E25">
-        <v>0.06790332179034131</v>
+        <v>0.1447102324416036</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5404644272906722</v>
+        <v>0.8928806088690777</v>
       </c>
       <c r="H25">
-        <v>0.421556141911438</v>
+        <v>0.9484743418894794</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9813601479492036</v>
+        <v>0.3025365151589767</v>
       </c>
       <c r="L25">
-        <v>0.1683262564577106</v>
+        <v>0.1951958799654108</v>
       </c>
       <c r="M25">
-        <v>0.2429994856934279</v>
+        <v>0.1561866333289466</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.975496437966768</v>
+        <v>3.716566968525228</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_18/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4903499869063239</v>
+        <v>0.9667052084946874</v>
       </c>
       <c r="C2">
-        <v>0.2576560982681002</v>
+        <v>0.1649457239131742</v>
       </c>
       <c r="D2">
-        <v>0.07809297637275847</v>
+        <v>0.1940536208988988</v>
       </c>
       <c r="E2">
-        <v>0.1454928687227106</v>
+        <v>0.06670977367758901</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.8963065876550615</v>
+        <v>0.5206350386384031</v>
       </c>
       <c r="H2">
-        <v>0.9556691858303168</v>
+        <v>0.421382987055523</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2555851104106637</v>
+        <v>0.8290697850329423</v>
       </c>
       <c r="L2">
-        <v>0.1911193299687284</v>
+        <v>0.1478547424530845</v>
       </c>
       <c r="M2">
-        <v>0.1460821807584445</v>
+        <v>0.204645735595097</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.738499054475</v>
+        <v>1.932531116889379</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4545619025943779</v>
+        <v>0.8400403620027816</v>
       </c>
       <c r="C3">
-        <v>0.2580419132519474</v>
+        <v>0.1659897148095766</v>
       </c>
       <c r="D3">
-        <v>0.0709065120186807</v>
+        <v>0.1684519782563711</v>
       </c>
       <c r="E3">
-        <v>0.1461369765066323</v>
+        <v>0.06609264245408752</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.8996451419604625</v>
+        <v>0.5094732864457683</v>
       </c>
       <c r="H3">
-        <v>0.9612978588448655</v>
+        <v>0.4226210293282406</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2236868652359618</v>
+        <v>0.7259754399713927</v>
       </c>
       <c r="L3">
-        <v>0.1885397940620379</v>
+        <v>0.1343260289667825</v>
       </c>
       <c r="M3">
-        <v>0.1393518323464136</v>
+        <v>0.178894093182123</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.757073241339</v>
+        <v>1.911056294384821</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4327238120229708</v>
+        <v>0.7624993820356565</v>
       </c>
       <c r="C4">
-        <v>0.2583073982245736</v>
+        <v>0.1666883858000645</v>
       </c>
       <c r="D4">
-        <v>0.06652725405521664</v>
+        <v>0.1528640037018221</v>
       </c>
       <c r="E4">
-        <v>0.146588673436769</v>
+        <v>0.06580356519683939</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.9021963064860472</v>
+        <v>0.5036603902076138</v>
       </c>
       <c r="H4">
-        <v>0.9651256847939749</v>
+        <v>0.4240134843231473</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2040642024047941</v>
+        <v>0.6626687798629831</v>
       </c>
       <c r="L4">
-        <v>0.1870465847903802</v>
+        <v>0.1261721794798447</v>
       </c>
       <c r="M4">
-        <v>0.1352778560688925</v>
+        <v>0.1631801177777277</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.770308741865875</v>
+        <v>1.901389577003556</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4238593765453231</v>
+        <v>0.7309472094067075</v>
       </c>
       <c r="C5">
-        <v>0.2584228052031676</v>
+        <v>0.1669875017805929</v>
       </c>
       <c r="D5">
-        <v>0.06475106029182598</v>
+        <v>0.1465409564236211</v>
       </c>
       <c r="E5">
-        <v>0.1467868990959857</v>
+        <v>0.06570769102060936</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.9033619687822636</v>
+        <v>0.5015416343627663</v>
       </c>
       <c r="H5">
-        <v>0.9667791329554589</v>
+        <v>0.4247348180836781</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1960589411263385</v>
+        <v>0.6368608966785985</v>
       </c>
       <c r="L5">
-        <v>0.1864609441531329</v>
+        <v>0.1228854672001063</v>
       </c>
       <c r="M5">
-        <v>0.1336324998310978</v>
+        <v>0.1567982228489555</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.776162859814207</v>
+        <v>1.898299914820555</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4223895605684049</v>
+        <v>0.7257104635299356</v>
       </c>
       <c r="C6">
-        <v>0.2584424053743284</v>
+        <v>0.1670380369454598</v>
       </c>
       <c r="D6">
-        <v>0.06445663213062858</v>
+        <v>0.1454926710828346</v>
       </c>
       <c r="E6">
-        <v>0.1468206698749537</v>
+        <v>0.0656930766444912</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.9035631385005019</v>
+        <v>0.5012045902863989</v>
       </c>
       <c r="H6">
-        <v>0.9670593411887367</v>
+        <v>0.424863745553715</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1947291510401925</v>
+        <v>0.6325746852333083</v>
       </c>
       <c r="L6">
-        <v>0.1863650811694768</v>
+        <v>0.1223418208070441</v>
       </c>
       <c r="M6">
-        <v>0.1333601883140219</v>
+        <v>0.1557397421889988</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.777162751961669</v>
+        <v>1.897837193412514</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4326041216173167</v>
+        <v>0.7620736857196562</v>
       </c>
       <c r="C7">
-        <v>0.2583089253713347</v>
+        <v>0.1666923615906306</v>
       </c>
       <c r="D7">
-        <v>0.06650326568227172</v>
+        <v>0.152778615750421</v>
       </c>
       <c r="E7">
-        <v>0.1465912894350048</v>
+        <v>0.06580218427905926</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.9022115166885314</v>
+        <v>0.5036308184106133</v>
       </c>
       <c r="H7">
-        <v>0.9651476047663721</v>
+        <v>0.4240225959168669</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2039562759686788</v>
+        <v>0.6623207764751982</v>
       </c>
       <c r="L7">
-        <v>0.1870385940157249</v>
+        <v>0.1261277108403362</v>
       </c>
       <c r="M7">
-        <v>0.1352556060510892</v>
+        <v>0.1630939652285441</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.770385827620018</v>
+        <v>1.901344514097005</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4779823779883827</v>
+        <v>0.9229756874551356</v>
       </c>
       <c r="C8">
-        <v>0.2577832105118745</v>
+        <v>0.165293664863988</v>
       </c>
       <c r="D8">
-        <v>0.07560819367147076</v>
+        <v>0.1851964647533606</v>
       </c>
       <c r="E8">
-        <v>0.1457033024433141</v>
+        <v>0.06647793018956349</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.897353674209441</v>
+        <v>0.5165633694824123</v>
       </c>
       <c r="H8">
-        <v>0.9575328370884506</v>
+        <v>0.4216754863146548</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2445945310606987</v>
+        <v>0.7935189800458318</v>
       </c>
       <c r="L8">
-        <v>0.1902111310186498</v>
+        <v>0.143156846179572</v>
       </c>
       <c r="M8">
-        <v>0.1437494850730765</v>
+        <v>0.1957445206017354</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.744523525642819</v>
+        <v>1.924374496783088</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5680267870157536</v>
+        <v>1.240925841592883</v>
       </c>
       <c r="C9">
-        <v>0.2569778797254685</v>
+        <v>0.1630130811751442</v>
       </c>
       <c r="D9">
-        <v>0.09372663687079807</v>
+        <v>0.2499991534972281</v>
       </c>
       <c r="E9">
-        <v>0.1444071328390777</v>
+        <v>0.06854754081212455</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.8918060547627391</v>
+        <v>0.5507317684090793</v>
       </c>
       <c r="H9">
-        <v>0.9455467604486074</v>
+        <v>0.4223325666339832</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3239768735213886</v>
+        <v>1.051159607022441</v>
       </c>
       <c r="L9">
-        <v>0.1971493781396845</v>
+        <v>0.1778785982236286</v>
       </c>
       <c r="M9">
-        <v>0.1608658837371451</v>
+        <v>0.2606871104784894</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.70833008910617</v>
+        <v>1.999136806682372</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6348062253255478</v>
+        <v>1.476882972563288</v>
       </c>
       <c r="C10">
-        <v>0.2565220548683911</v>
+        <v>0.1616266426770281</v>
       </c>
       <c r="D10">
-        <v>0.1072001421842828</v>
+        <v>0.2986395000674946</v>
       </c>
       <c r="E10">
-        <v>0.1437251620492646</v>
+        <v>0.07056837324217824</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.8901584396550959</v>
+        <v>0.5820185189717364</v>
       </c>
       <c r="H10">
-        <v>0.9385323085713679</v>
+        <v>0.4263796437934388</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3820954680558089</v>
+        <v>1.241295431850318</v>
       </c>
       <c r="L10">
-        <v>0.2026817121632973</v>
+        <v>0.2043693369023174</v>
       </c>
       <c r="M10">
-        <v>0.1737175579576231</v>
+        <v>0.3091693121322336</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.690588885755005</v>
+        <v>2.074585688816853</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6653173498160641</v>
+        <v>1.584949539050371</v>
       </c>
       <c r="C11">
-        <v>0.2563438393434865</v>
+        <v>0.161060499985382</v>
       </c>
       <c r="D11">
-        <v>0.1133650525211038</v>
+        <v>0.3210569125393761</v>
       </c>
       <c r="E11">
-        <v>0.1434733952395923</v>
+        <v>0.07160727332070849</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.8899368298872474</v>
+        <v>0.5977873697448928</v>
       </c>
       <c r="H11">
-        <v>0.9357293833357829</v>
+        <v>0.4290797312838492</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4084880565438596</v>
+        <v>1.328127811880449</v>
       </c>
       <c r="L11">
-        <v>0.2052924995102927</v>
+        <v>0.2166742510573414</v>
       </c>
       <c r="M11">
-        <v>0.1796233162125134</v>
+        <v>0.3314424412838122</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.684439246828646</v>
+        <v>2.113952851128658</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6768897260279232</v>
+        <v>1.625994753579789</v>
       </c>
       <c r="C12">
-        <v>0.2562805157772843</v>
+        <v>0.1608555667512164</v>
       </c>
       <c r="D12">
-        <v>0.1157046753496758</v>
+        <v>0.3295933922605769</v>
       </c>
       <c r="E12">
-        <v>0.1433864458544178</v>
+        <v>0.07201884634263322</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8899288579367948</v>
+        <v>0.6039967945347087</v>
       </c>
       <c r="H12">
-        <v>0.9347237036076308</v>
+        <v>0.4302333330271182</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4184752823021824</v>
+        <v>1.36107082776519</v>
       </c>
       <c r="L12">
-        <v>0.2062946157902843</v>
+        <v>0.2213739245229078</v>
       </c>
       <c r="M12">
-        <v>0.1818681269954112</v>
+        <v>0.3399125018619955</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.682386685620344</v>
+        <v>2.129638183679958</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6743965959758498</v>
+        <v>1.617149172333825</v>
       </c>
       <c r="C13">
-        <v>0.2562939689376478</v>
+        <v>0.1608992795247843</v>
       </c>
       <c r="D13">
-        <v>0.1152005692286906</v>
+        <v>0.3277527016680182</v>
       </c>
       <c r="E13">
-        <v>0.1434047991326963</v>
+        <v>0.07192938286721784</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8899271965225921</v>
+        <v>0.6026486078076516</v>
       </c>
       <c r="H13">
-        <v>0.9349378172696134</v>
+        <v>0.4299789250558064</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4163246768386557</v>
+        <v>1.353973011857505</v>
       </c>
       <c r="L13">
-        <v>0.2060781941535907</v>
+        <v>0.2203599249633896</v>
       </c>
       <c r="M13">
-        <v>0.181384293934947</v>
+        <v>0.3380866625911239</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.682816459361248</v>
+        <v>2.126224599056656</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6662690494653987</v>
+        <v>1.58832378571654</v>
       </c>
       <c r="C14">
-        <v>0.2563385464049119</v>
+        <v>0.1610434495357964</v>
       </c>
       <c r="D14">
-        <v>0.1135574325887774</v>
+        <v>0.321758228087873</v>
       </c>
       <c r="E14">
-        <v>0.1434660738313625</v>
+        <v>0.07164076390472474</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.8899346517405746</v>
+        <v>0.5982933482786024</v>
       </c>
       <c r="H14">
-        <v>0.9356455289706531</v>
+        <v>0.4291719651395312</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4093098561571082</v>
+        <v>1.330836744898164</v>
       </c>
       <c r="L14">
-        <v>0.2053746746711624</v>
+        <v>0.217060071927861</v>
       </c>
       <c r="M14">
-        <v>0.1798078299350863</v>
+        <v>0.3321385367859335</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.684264846759959</v>
+        <v>2.115227390833411</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6612930801062191</v>
+        <v>1.570683946182697</v>
       </c>
       <c r="C15">
-        <v>0.2563663926914188</v>
+        <v>0.161132994130611</v>
       </c>
       <c r="D15">
-        <v>0.1125516277302125</v>
+        <v>0.3180928002362862</v>
       </c>
       <c r="E15">
-        <v>0.1435046983472255</v>
+        <v>0.07146637161427449</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.8899491098443946</v>
+        <v>0.5956571642218762</v>
       </c>
       <c r="H15">
-        <v>0.9360862782452273</v>
+        <v>0.4286949916553056</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4050121403449793</v>
+        <v>1.316673515187887</v>
       </c>
       <c r="L15">
-        <v>0.2049455006805516</v>
+        <v>0.2150441435719586</v>
       </c>
       <c r="M15">
-        <v>0.1788432941807514</v>
+        <v>0.3284999217040294</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.685187990226979</v>
+        <v>2.108594197453584</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6328148709326626</v>
+        <v>1.469836736367625</v>
       </c>
       <c r="C16">
-        <v>0.2565342856954658</v>
+        <v>0.1616649546433209</v>
       </c>
       <c r="D16">
-        <v>0.1067979671046686</v>
+        <v>0.2971807967501121</v>
       </c>
       <c r="E16">
-        <v>0.143742790533782</v>
+        <v>0.07050296661664035</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.8901835481134839</v>
+        <v>0.5810203445219173</v>
       </c>
       <c r="H16">
-        <v>0.9387232880463188</v>
+        <v>0.4262211113395153</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3803696865006714</v>
+        <v>1.235628617129095</v>
       </c>
       <c r="L16">
-        <v>0.2025129791672811</v>
+        <v>0.2035705916964332</v>
       </c>
       <c r="M16">
-        <v>0.173332788881126</v>
+        <v>0.3077184660872803</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.691029428520039</v>
+        <v>2.072118866957368</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6153779866173181</v>
+        <v>1.408169224712822</v>
       </c>
       <c r="C17">
-        <v>0.2566447266197045</v>
+        <v>0.1620079457429355</v>
       </c>
       <c r="D17">
-        <v>0.1032774132095113</v>
+        <v>0.2844303429902055</v>
       </c>
       <c r="E17">
-        <v>0.1439038139094198</v>
+        <v>0.06994325153310399</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.8904626015488475</v>
+        <v>0.5724464823219932</v>
       </c>
       <c r="H17">
-        <v>0.9404403342560954</v>
+        <v>0.4249287381261979</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3652402526200547</v>
+        <v>1.186005731389486</v>
       </c>
       <c r="L17">
-        <v>0.2010447621185421</v>
+        <v>0.1965994649799683</v>
       </c>
       <c r="M17">
-        <v>0.1699674157826934</v>
+        <v>0.2950286117205323</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.695104919053335</v>
+        <v>2.05107074044605</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6053612911183563</v>
+        <v>1.372767119392734</v>
       </c>
       <c r="C18">
-        <v>0.2567109938901027</v>
+        <v>0.162211290402638</v>
       </c>
       <c r="D18">
-        <v>0.1012558503788483</v>
+        <v>0.2771236164589794</v>
       </c>
       <c r="E18">
-        <v>0.1440019343848959</v>
+        <v>0.06963251558219774</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.8906727919356143</v>
+        <v>0.5676585362618454</v>
       </c>
       <c r="H18">
-        <v>0.941464456549383</v>
+        <v>0.4242657716586393</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3565339153127809</v>
+        <v>1.157495014349564</v>
       </c>
       <c r="L18">
-        <v>0.2002091435451661</v>
+        <v>0.1926135538624294</v>
       </c>
       <c r="M18">
-        <v>0.1680373468673935</v>
+        <v>0.2877500178643828</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.697629843041966</v>
+        <v>2.039435940841827</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6019719827895074</v>
+        <v>1.36079162611972</v>
       </c>
       <c r="C19">
-        <v>0.2567339030816953</v>
+        <v>0.1622811761756395</v>
       </c>
       <c r="D19">
-        <v>0.1005719632189965</v>
+        <v>0.2746541537751739</v>
       </c>
       <c r="E19">
-        <v>0.1440361021721337</v>
+        <v>0.06952920049915257</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.8907524913480813</v>
+        <v>0.5660615640080238</v>
       </c>
       <c r="H19">
-        <v>0.9418174815443905</v>
+        <v>0.4240548833612081</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.353585377471461</v>
+        <v>1.147846734837344</v>
       </c>
       <c r="L19">
-        <v>0.199927741288775</v>
+        <v>0.1912679592207525</v>
       </c>
       <c r="M19">
-        <v>0.167384825054782</v>
+        <v>0.2852889666849592</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.698515794747408</v>
+        <v>2.03557604512136</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.617232879489336</v>
+        <v>1.414726732994836</v>
       </c>
       <c r="C20">
-        <v>0.2566326861442718</v>
+        <v>0.1619708048393989</v>
       </c>
       <c r="D20">
-        <v>0.1036518339966364</v>
+        <v>0.285784816395477</v>
       </c>
       <c r="E20">
-        <v>0.1438861031739975</v>
+        <v>0.07000166848613532</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.8904277532336664</v>
+        <v>0.573344210871241</v>
       </c>
       <c r="H20">
-        <v>0.9402537722566677</v>
+        <v>0.4250579417909108</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3668512538743869</v>
+        <v>1.191284868682743</v>
       </c>
       <c r="L20">
-        <v>0.2012001397079786</v>
+        <v>0.1973390760401657</v>
       </c>
       <c r="M20">
-        <v>0.1703250863224568</v>
+        <v>0.2963773397306895</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.694652363385387</v>
+        <v>2.053262180384763</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6686558104383948</v>
+        <v>1.596787019180823</v>
       </c>
       <c r="C21">
-        <v>0.256325340164409</v>
+        <v>0.1610008453423504</v>
       </c>
       <c r="D21">
-        <v>0.1140399233834017</v>
+        <v>0.3235176141056257</v>
       </c>
       <c r="E21">
-        <v>0.1434478484286714</v>
+        <v>0.07172503733404056</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.8899304005060458</v>
+        <v>0.5995659887045122</v>
       </c>
       <c r="H21">
-        <v>0.9354361449796897</v>
+        <v>0.4294053665326771</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4113704748671694</v>
+        <v>1.337630652230416</v>
       </c>
       <c r="L21">
-        <v>0.2055809503941646</v>
+        <v>0.218028202000454</v>
       </c>
       <c r="M21">
-        <v>0.1802706478639493</v>
+        <v>0.3338846404631823</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.683831925426688</v>
+        <v>2.118435991619435</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7023710692662064</v>
+        <v>1.716498731928823</v>
       </c>
       <c r="C22">
-        <v>0.2561487230576986</v>
+        <v>0.1604221073666992</v>
       </c>
       <c r="D22">
-        <v>0.120858879778595</v>
+        <v>0.3484579188908867</v>
       </c>
       <c r="E22">
-        <v>0.143210314201955</v>
+        <v>0.07295772520576449</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.890048044134474</v>
+        <v>0.6181001296431532</v>
       </c>
       <c r="H22">
-        <v>0.9326123383053471</v>
+        <v>0.4330149488812509</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4404249001865139</v>
+        <v>1.433641051971364</v>
       </c>
       <c r="L22">
-        <v>0.2085225342316193</v>
+        <v>0.2317851089539573</v>
       </c>
       <c r="M22">
-        <v>0.1868197168587074</v>
+        <v>0.3586082000767377</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.678369869371949</v>
+        <v>2.165591679287616</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6843669798647625</v>
+        <v>1.652533729185564</v>
       </c>
       <c r="C23">
-        <v>0.2562407770172115</v>
+        <v>0.1607258813529313</v>
       </c>
       <c r="D23">
-        <v>0.117216765046507</v>
+        <v>0.3351192311583446</v>
       </c>
       <c r="E23">
-        <v>0.1433326231338619</v>
+        <v>0.07228974917234154</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.8899447375599152</v>
+        <v>0.6080743211152395</v>
       </c>
       <c r="H23">
-        <v>0.9340897598573719</v>
+        <v>0.4310154939181814</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4249219587647417</v>
+        <v>1.38236062454078</v>
       </c>
       <c r="L23">
-        <v>0.2069453966024639</v>
+        <v>0.2244200248005939</v>
       </c>
       <c r="M23">
-        <v>0.1833199062262665</v>
+        <v>0.345392015981524</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.681137799257897</v>
+        <v>2.139988218157981</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6163942574521002</v>
+        <v>1.411761924843688</v>
       </c>
       <c r="C24">
-        <v>0.2566381210031068</v>
+        <v>0.1619875770846022</v>
       </c>
       <c r="D24">
-        <v>0.1034825507243085</v>
+        <v>0.285172385639612</v>
       </c>
       <c r="E24">
-        <v>0.1438940929211885</v>
+        <v>0.06997522383023558</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.8904433531636755</v>
+        <v>0.5729379090186626</v>
       </c>
       <c r="H24">
-        <v>0.9403380017725169</v>
+        <v>0.4249992800884002</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.366122945789698</v>
+        <v>1.188898115162203</v>
       </c>
       <c r="L24">
-        <v>0.2011298670848873</v>
+        <v>0.1970046299844483</v>
       </c>
       <c r="M24">
-        <v>0.1701633687325597</v>
+        <v>0.2957675272544122</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.694856397280518</v>
+        <v>2.052269982667667</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5435563263725953</v>
+        <v>1.15456498319756</v>
       </c>
       <c r="C25">
-        <v>0.2571717661713961</v>
+        <v>0.1635798390224394</v>
       </c>
       <c r="D25">
-        <v>0.08879676740340869</v>
+        <v>0.232308659058404</v>
       </c>
       <c r="E25">
-        <v>0.1447102324416036</v>
+        <v>0.06790332179035907</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.8928806088690777</v>
+        <v>0.5404644272906154</v>
       </c>
       <c r="H25">
-        <v>0.9484743418894794</v>
+        <v>0.421556141911438</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3025365151589767</v>
+        <v>0.9813601479492036</v>
       </c>
       <c r="L25">
-        <v>0.1951958799654108</v>
+        <v>0.1683262564577035</v>
       </c>
       <c r="M25">
-        <v>0.1561866333289466</v>
+        <v>0.2429994856934279</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.716566968525228</v>
+        <v>1.97549643796674</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_18/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9667052084946874</v>
+        <v>1.061366399515748</v>
       </c>
       <c r="C2">
-        <v>0.1649457239131742</v>
+        <v>0.1100436050816498</v>
       </c>
       <c r="D2">
-        <v>0.1940536208988988</v>
+        <v>0.3100169317153814</v>
       </c>
       <c r="E2">
-        <v>0.06670977367758901</v>
+        <v>0.08199936342935032</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5206350386384031</v>
+        <v>0.5038872538403822</v>
       </c>
       <c r="H2">
-        <v>0.421382987055523</v>
+        <v>0.008961075685122152</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.007866314635469163</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4228091546210493</v>
       </c>
       <c r="K2">
-        <v>0.8290697850329423</v>
+        <v>0.4626810543038005</v>
       </c>
       <c r="L2">
-        <v>0.1478547424530845</v>
+        <v>0.027090369616392</v>
       </c>
       <c r="M2">
-        <v>0.204645735595097</v>
+        <v>0.8975701450576992</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2744658202568502</v>
       </c>
       <c r="O2">
-        <v>1.932531116889379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.9899553268468946</v>
+      </c>
+      <c r="Q2">
+        <v>1.899427070982327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8400403620027816</v>
+        <v>0.9271429644644797</v>
       </c>
       <c r="C3">
-        <v>0.1659897148095766</v>
+        <v>0.1028514004742789</v>
       </c>
       <c r="D3">
-        <v>0.1684519782563711</v>
+        <v>0.2865351638602505</v>
       </c>
       <c r="E3">
-        <v>0.06609264245408752</v>
+        <v>0.0768774385636668</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.5094732864457683</v>
+        <v>0.4911408164806446</v>
       </c>
       <c r="H3">
-        <v>0.4226210293282406</v>
+        <v>0.01139721935131885</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.009866553570492265</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4207401349075255</v>
       </c>
       <c r="K3">
-        <v>0.7259754399713927</v>
+        <v>0.460520274041798</v>
       </c>
       <c r="L3">
-        <v>0.1343260289667825</v>
+        <v>0.0253349973935304</v>
       </c>
       <c r="M3">
-        <v>0.178894093182123</v>
+        <v>0.7817194233171563</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2466061515989537</v>
       </c>
       <c r="O3">
-        <v>1.911056294384821</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1.018700044563308</v>
+      </c>
+      <c r="Q3">
+        <v>1.867801305049682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7624993820356565</v>
+        <v>0.8443958656878294</v>
       </c>
       <c r="C4">
-        <v>0.1666883858000645</v>
+        <v>0.09845836496101867</v>
       </c>
       <c r="D4">
-        <v>0.1528640037018221</v>
+        <v>0.2722254392746777</v>
       </c>
       <c r="E4">
-        <v>0.06580356519683939</v>
+        <v>0.07371629913765965</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.5036603902076138</v>
+        <v>0.4836658553847641</v>
       </c>
       <c r="H4">
-        <v>0.4240134843231473</v>
+        <v>0.01310395219375923</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01129793271053403</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4197151854992285</v>
       </c>
       <c r="K4">
-        <v>0.6626687798629831</v>
+        <v>0.4594046672551073</v>
       </c>
       <c r="L4">
-        <v>0.1261721794798447</v>
+        <v>0.02424313547944834</v>
       </c>
       <c r="M4">
-        <v>0.1631801177777277</v>
+        <v>0.7104929488908027</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2295708026591541</v>
       </c>
       <c r="O4">
-        <v>1.901389577003556</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1.036935412356867</v>
+      </c>
+      <c r="Q4">
+        <v>1.849634136035746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7309472094067075</v>
+        <v>0.8099212586446356</v>
       </c>
       <c r="C5">
-        <v>0.1669875017805929</v>
+        <v>0.09681418955398158</v>
       </c>
       <c r="D5">
-        <v>0.1465409564236211</v>
+        <v>0.2663561246933313</v>
       </c>
       <c r="E5">
-        <v>0.06570769102060936</v>
+        <v>0.07238965776660855</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.5015416343627663</v>
+        <v>0.4803499865316638</v>
       </c>
       <c r="H5">
-        <v>0.4247348180836781</v>
+        <v>0.01385536771508783</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01201581627657955</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4191749613284657</v>
       </c>
       <c r="K5">
-        <v>0.6368608966785985</v>
+        <v>0.4586830059458116</v>
       </c>
       <c r="L5">
-        <v>0.1228854672001063</v>
+        <v>0.02378297326844336</v>
       </c>
       <c r="M5">
-        <v>0.1567982228489555</v>
+        <v>0.6814124298993249</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2227629175156238</v>
       </c>
       <c r="O5">
-        <v>1.898299914820555</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1.04446235160487</v>
+      </c>
+      <c r="Q5">
+        <v>1.841400235012529</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7257104635299356</v>
+        <v>0.8033724855912112</v>
       </c>
       <c r="C6">
-        <v>0.1670380369454598</v>
+        <v>0.09671564394889032</v>
       </c>
       <c r="D6">
-        <v>0.1454926710828346</v>
+        <v>0.265305056754741</v>
       </c>
       <c r="E6">
-        <v>0.0656930766444912</v>
+        <v>0.07212730787298582</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.5012045902863989</v>
+        <v>0.4793706218388039</v>
       </c>
       <c r="H6">
-        <v>0.424863745553715</v>
+        <v>0.01398875087909437</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0122491735365724</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.418865243349714</v>
       </c>
       <c r="K6">
-        <v>0.6325746852333083</v>
+        <v>0.4581766742891205</v>
       </c>
       <c r="L6">
-        <v>0.1223418208070441</v>
+        <v>0.02369259637911547</v>
       </c>
       <c r="M6">
-        <v>0.1557397421889988</v>
+        <v>0.6765476710189517</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2217782165498789</v>
       </c>
       <c r="O6">
-        <v>1.897837193412514</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1.045662942443997</v>
+      </c>
+      <c r="Q6">
+        <v>1.838662990626972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7620736857196562</v>
+        <v>0.8416868656819361</v>
       </c>
       <c r="C7">
-        <v>0.1666923615906306</v>
+        <v>0.09891334736315827</v>
       </c>
       <c r="D7">
-        <v>0.152778615750421</v>
+        <v>0.271933179898781</v>
       </c>
       <c r="E7">
-        <v>0.06580218427905926</v>
+        <v>0.07358432537771087</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.5036308184106133</v>
+        <v>0.4824368138099189</v>
       </c>
       <c r="H7">
-        <v>0.4240225959168669</v>
+        <v>0.0131282434617141</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01159465490839295</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4190981600497494</v>
       </c>
       <c r="K7">
-        <v>0.6623207764751982</v>
+        <v>0.4583321505937406</v>
       </c>
       <c r="L7">
-        <v>0.1261277108403362</v>
+        <v>0.02419953255994578</v>
       </c>
       <c r="M7">
-        <v>0.1630939652285441</v>
+        <v>0.7100065140300416</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2298753085014908</v>
       </c>
       <c r="O7">
-        <v>1.901344514097005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1.036890501593533</v>
+      </c>
+      <c r="Q7">
+        <v>1.845735051186153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9229756874551356</v>
+        <v>1.012155558942737</v>
       </c>
       <c r="C8">
-        <v>0.165293664863988</v>
+        <v>0.1081985129139511</v>
       </c>
       <c r="D8">
-        <v>0.1851964647533606</v>
+        <v>0.3016151077582521</v>
       </c>
       <c r="E8">
-        <v>0.06647793018956349</v>
+        <v>0.08008587350919782</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5165633694824123</v>
+        <v>0.4978555074157995</v>
       </c>
       <c r="H8">
-        <v>0.4216754863146548</v>
+        <v>0.009771694591943644</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0088584940706955</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4212432256903895</v>
       </c>
       <c r="K8">
-        <v>0.7935189800458318</v>
+        <v>0.4604937105637852</v>
       </c>
       <c r="L8">
-        <v>0.143156846179572</v>
+        <v>0.02643852761807963</v>
       </c>
       <c r="M8">
-        <v>0.1957445206017354</v>
+        <v>0.8575129876918481</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2653724987163173</v>
       </c>
       <c r="O8">
-        <v>1.924374496783088</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.9996048523549881</v>
+      </c>
+      <c r="Q8">
+        <v>1.883268500685276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.240925841592883</v>
+        <v>1.34795252043034</v>
       </c>
       <c r="C9">
-        <v>0.1630130811751442</v>
+        <v>0.1257860089441252</v>
       </c>
       <c r="D9">
-        <v>0.2499991534972281</v>
+        <v>0.3611326278366676</v>
       </c>
       <c r="E9">
-        <v>0.06854754081212455</v>
+        <v>0.09291982919572561</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5507317684090793</v>
+        <v>0.5331493238309264</v>
       </c>
       <c r="H9">
-        <v>0.4223325666339832</v>
+        <v>0.004922467135954456</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.004739724847880211</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.4285436922511394</v>
       </c>
       <c r="K9">
-        <v>1.051159607022441</v>
+        <v>0.468357195451059</v>
       </c>
       <c r="L9">
-        <v>0.1778785982236286</v>
+        <v>0.03080510312411899</v>
       </c>
       <c r="M9">
-        <v>0.2606871104784894</v>
+        <v>1.146395266206184</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3349141434995602</v>
       </c>
       <c r="O9">
-        <v>1.999136806682372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.9314407122064807</v>
+      </c>
+      <c r="Q9">
+        <v>1.974012481683928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.476882972563288</v>
+        <v>1.58409829757062</v>
       </c>
       <c r="C10">
-        <v>0.1616266426770281</v>
+        <v>0.1400060543358279</v>
       </c>
       <c r="D10">
-        <v>0.2986395000674946</v>
+        <v>0.3998083638551293</v>
       </c>
       <c r="E10">
-        <v>0.07056837324217824</v>
+        <v>0.09935825350713401</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5820185189717364</v>
+        <v>0.5546232990907924</v>
       </c>
       <c r="H10">
-        <v>0.4263796437934388</v>
+        <v>0.002843030372957855</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.003021626334879457</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.4319761302417646</v>
       </c>
       <c r="K10">
-        <v>1.241295431850318</v>
+        <v>0.470561026335389</v>
       </c>
       <c r="L10">
-        <v>0.2043693369023174</v>
+        <v>0.03327520615608837</v>
       </c>
       <c r="M10">
-        <v>0.3091693121322336</v>
+        <v>1.35529603764698</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.37564908370463</v>
       </c>
       <c r="O10">
-        <v>2.074585688816853</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.8847102169891272</v>
+      </c>
+      <c r="Q10">
+        <v>2.027151872131469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.584949539050371</v>
+        <v>1.617217961641217</v>
       </c>
       <c r="C11">
-        <v>0.161060499985382</v>
+        <v>0.155004670084864</v>
       </c>
       <c r="D11">
-        <v>0.3210569125393761</v>
+        <v>0.3692509527630392</v>
       </c>
       <c r="E11">
-        <v>0.07160727332070849</v>
+        <v>0.07940647143761481</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5977873697448928</v>
+        <v>0.5126877514651937</v>
       </c>
       <c r="H11">
-        <v>0.4290797312838492</v>
+        <v>0.02139074341645042</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.00319551945687202</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.4075928859750917</v>
       </c>
       <c r="K11">
-        <v>1.328127811880449</v>
+        <v>0.4347484764623886</v>
       </c>
       <c r="L11">
-        <v>0.2166742510573414</v>
+        <v>0.03248560865855321</v>
       </c>
       <c r="M11">
-        <v>0.3314424412838122</v>
+        <v>1.421542770151518</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.304002818007362</v>
       </c>
       <c r="O11">
-        <v>2.113952851128658</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.8701337326136027</v>
+      </c>
+      <c r="Q11">
+        <v>1.887360176247796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.625994753579789</v>
+        <v>1.597932414098466</v>
       </c>
       <c r="C12">
-        <v>0.1608555667512164</v>
+        <v>0.164549770593581</v>
       </c>
       <c r="D12">
-        <v>0.3295933922605769</v>
+        <v>0.3365588897647029</v>
       </c>
       <c r="E12">
-        <v>0.07201884634263322</v>
+        <v>0.06438539513990449</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6039967945347087</v>
+        <v>0.4753897188721083</v>
       </c>
       <c r="H12">
-        <v>0.4302333330271182</v>
+        <v>0.06023135467626162</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.00315822880672556</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3874690830527499</v>
       </c>
       <c r="K12">
-        <v>1.36107082776519</v>
+        <v>0.4067331347187313</v>
       </c>
       <c r="L12">
-        <v>0.2213739245229078</v>
+        <v>0.03692282843426753</v>
       </c>
       <c r="M12">
-        <v>0.3399125018619955</v>
+        <v>1.43282583372573</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2414386559173067</v>
       </c>
       <c r="O12">
-        <v>2.129638183679958</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.871834173236735</v>
+      </c>
+      <c r="Q12">
+        <v>1.766208293233262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.617149172333825</v>
+        <v>1.533772706038832</v>
       </c>
       <c r="C13">
-        <v>0.1608992795247843</v>
+        <v>0.1711051189607673</v>
       </c>
       <c r="D13">
-        <v>0.3277527016680182</v>
+        <v>0.3001317902918998</v>
       </c>
       <c r="E13">
-        <v>0.07192938286721784</v>
+        <v>0.05214160645041055</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6026486078076516</v>
+        <v>0.4375992426118529</v>
       </c>
       <c r="H13">
-        <v>0.4299789250558064</v>
+        <v>0.1163406552122694</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.003348173691352763</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3684527031693747</v>
       </c>
       <c r="K13">
-        <v>1.353973011857505</v>
+        <v>0.3813860024615927</v>
       </c>
       <c r="L13">
-        <v>0.2203599249633896</v>
+        <v>0.04541689187180609</v>
       </c>
       <c r="M13">
-        <v>0.3380866625911239</v>
+        <v>1.402182950627633</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1831668004979079</v>
       </c>
       <c r="O13">
-        <v>2.126224599056656</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.885279618466253</v>
+      </c>
+      <c r="Q13">
+        <v>1.646248500930227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.58832378571654</v>
+        <v>1.468159536950907</v>
       </c>
       <c r="C14">
-        <v>0.1610434495357964</v>
+        <v>0.1745623155082541</v>
       </c>
       <c r="D14">
-        <v>0.321758228087873</v>
+        <v>0.2732579036838843</v>
       </c>
       <c r="E14">
-        <v>0.07164076390472474</v>
+        <v>0.04526961089812342</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5982933482786024</v>
+        <v>0.4109634812727307</v>
       </c>
       <c r="H14">
-        <v>0.4291719651395312</v>
+        <v>0.166024770268038</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.00368846595502248</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3556301523263059</v>
       </c>
       <c r="K14">
-        <v>1.330836744898164</v>
+        <v>0.3648697849581843</v>
       </c>
       <c r="L14">
-        <v>0.217060071927861</v>
+        <v>0.0538513756386223</v>
       </c>
       <c r="M14">
-        <v>0.3321385367859335</v>
+        <v>1.361807529916177</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1457178953213898</v>
       </c>
       <c r="O14">
-        <v>2.115227390833411</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.900362225519622</v>
+      </c>
+      <c r="Q14">
+        <v>1.562875311852196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.570683946182697</v>
+        <v>1.441983399297527</v>
       </c>
       <c r="C15">
-        <v>0.161132994130611</v>
+        <v>0.1749296708725296</v>
       </c>
       <c r="D15">
-        <v>0.3180928002362862</v>
+        <v>0.2657871244462768</v>
       </c>
       <c r="E15">
-        <v>0.07146637161427449</v>
+        <v>0.04379393882672211</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5956571642218762</v>
+        <v>0.4039431484199199</v>
       </c>
       <c r="H15">
-        <v>0.4286949916553056</v>
+        <v>0.178696090697585</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.003957513804306423</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.352538642273359</v>
       </c>
       <c r="K15">
-        <v>1.316673515187887</v>
+        <v>0.3610026129778312</v>
       </c>
       <c r="L15">
-        <v>0.2150441435719586</v>
+        <v>0.05604119167956156</v>
       </c>
       <c r="M15">
-        <v>0.3284999217040294</v>
+        <v>1.343123934803714</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1367566479395421</v>
       </c>
       <c r="O15">
-        <v>2.108594197453584</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.9060918361309689</v>
+      </c>
+      <c r="Q15">
+        <v>1.541486470234503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.469836736367625</v>
+        <v>1.353613214175709</v>
       </c>
       <c r="C16">
-        <v>0.1616649546433209</v>
+        <v>0.1675015331752832</v>
       </c>
       <c r="D16">
-        <v>0.2971807967501121</v>
+        <v>0.2571837004374373</v>
       </c>
       <c r="E16">
-        <v>0.07050296661664035</v>
+        <v>0.04375712691196387</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.5810203445219173</v>
+        <v>0.4018673039257337</v>
       </c>
       <c r="H16">
-        <v>0.4262211113395153</v>
+        <v>0.1668417458972016</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.004777571190623497</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.354523979975184</v>
       </c>
       <c r="K16">
-        <v>1.235628617129095</v>
+        <v>0.36462487786536</v>
       </c>
       <c r="L16">
-        <v>0.2035705916964332</v>
+        <v>0.05296195458994291</v>
       </c>
       <c r="M16">
-        <v>0.3077184660872803</v>
+        <v>1.259845057908649</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1328083980195345</v>
       </c>
       <c r="O16">
-        <v>2.072118866957368</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.9211453240011238</v>
+      </c>
+      <c r="Q16">
+        <v>1.54106361105093</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.408169224712822</v>
+        <v>1.320488611882581</v>
       </c>
       <c r="C17">
-        <v>0.1620079457429355</v>
+        <v>0.1599886206356018</v>
       </c>
       <c r="D17">
-        <v>0.2844303429902055</v>
+        <v>0.2646448716572536</v>
       </c>
       <c r="E17">
-        <v>0.06994325153310399</v>
+        <v>0.04705367879835087</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.5724464823219932</v>
+        <v>0.4143033069299378</v>
       </c>
       <c r="H17">
-        <v>0.4249287381261979</v>
+        <v>0.1295777181054802</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.005261539525197811</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3628377952624078</v>
       </c>
       <c r="K17">
-        <v>1.186005731389486</v>
+        <v>0.3760562804216896</v>
       </c>
       <c r="L17">
-        <v>0.1965994649799683</v>
+        <v>0.0456785367497794</v>
       </c>
       <c r="M17">
-        <v>0.2950286117205323</v>
+        <v>1.217490811314491</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1487928590142786</v>
       </c>
       <c r="O17">
-        <v>2.05107074044605</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.9248122600090056</v>
+      </c>
+      <c r="Q17">
+        <v>1.58472883866061</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.372767119392734</v>
+        <v>1.332690151782174</v>
       </c>
       <c r="C18">
-        <v>0.162211290402638</v>
+        <v>0.1512910455532506</v>
       </c>
       <c r="D18">
-        <v>0.2771236164589794</v>
+        <v>0.2875523854635418</v>
       </c>
       <c r="E18">
-        <v>0.06963251558219774</v>
+        <v>0.05516868157773658</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5676585362618454</v>
+        <v>0.4419895881169822</v>
       </c>
       <c r="H18">
-        <v>0.4242657716586393</v>
+        <v>0.07684951615545543</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.005134053488180967</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3781562811149115</v>
       </c>
       <c r="K18">
-        <v>1.157495014349564</v>
+        <v>0.3968127887577992</v>
       </c>
       <c r="L18">
-        <v>0.1926135538624294</v>
+        <v>0.03655032824120497</v>
       </c>
       <c r="M18">
-        <v>0.2877500178643828</v>
+        <v>1.205283186100331</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1873074987127197</v>
       </c>
       <c r="O18">
-        <v>2.039435940841827</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.9206411542941062</v>
+      </c>
+      <c r="Q18">
+        <v>1.675444935325316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.36079162611972</v>
+        <v>1.376250317179966</v>
       </c>
       <c r="C19">
-        <v>0.1622811761756395</v>
+        <v>0.1438697797099877</v>
       </c>
       <c r="D19">
-        <v>0.2746541537751739</v>
+        <v>0.3220573127115642</v>
       </c>
       <c r="E19">
-        <v>0.06952920049915257</v>
+        <v>0.0687745219033058</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5660615640080238</v>
+        <v>0.4791531732569467</v>
       </c>
       <c r="H19">
-        <v>0.4240548833612081</v>
+        <v>0.03118466599521241</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.005082477093755422</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3974723843321755</v>
       </c>
       <c r="K19">
-        <v>1.147846734837344</v>
+        <v>0.4230740610596158</v>
       </c>
       <c r="L19">
-        <v>0.1912679592207525</v>
+        <v>0.03055283416318844</v>
       </c>
       <c r="M19">
-        <v>0.2852889666849592</v>
+        <v>1.217812181292487</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2476178469466248</v>
       </c>
       <c r="O19">
-        <v>2.03557604512136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.9138147158761178</v>
+      </c>
+      <c r="Q19">
+        <v>1.794671666037573</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.414726732994836</v>
+        <v>1.51467322478581</v>
       </c>
       <c r="C20">
-        <v>0.1619708048393989</v>
+        <v>0.137867967030509</v>
       </c>
       <c r="D20">
-        <v>0.285784816395477</v>
+        <v>0.3887124388705132</v>
       </c>
       <c r="E20">
-        <v>0.07000166848613532</v>
+        <v>0.09720192006517436</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.573344210871241</v>
+        <v>0.5449582063132965</v>
       </c>
       <c r="H20">
-        <v>0.4250579417909108</v>
+        <v>0.003317025346794455</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.004252602882070633</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.4290073408944295</v>
       </c>
       <c r="K20">
-        <v>1.191284868682743</v>
+        <v>0.4664995798272997</v>
       </c>
       <c r="L20">
-        <v>0.1973390760401657</v>
+        <v>0.03248494587382034</v>
       </c>
       <c r="M20">
-        <v>0.2963773397306895</v>
+        <v>1.299983300303126</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3657121128431413</v>
       </c>
       <c r="O20">
-        <v>2.053262180384763</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.8967331830310687</v>
+      </c>
+      <c r="Q20">
+        <v>2.000335182255014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.596787019180823</v>
+        <v>1.709341500242033</v>
       </c>
       <c r="C21">
-        <v>0.1610008453423504</v>
+        <v>0.1473111154269802</v>
       </c>
       <c r="D21">
-        <v>0.3235176141056257</v>
+        <v>0.4274582400646381</v>
       </c>
       <c r="E21">
-        <v>0.07172503733404056</v>
+        <v>0.106648899126867</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5995659887045122</v>
+        <v>0.5720693271738924</v>
       </c>
       <c r="H21">
-        <v>0.4294053665326771</v>
+        <v>0.001672520332559269</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.003068751387665714</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.43707519897103</v>
       </c>
       <c r="K21">
-        <v>1.337630652230416</v>
+        <v>0.4757961734783365</v>
       </c>
       <c r="L21">
-        <v>0.218028202000454</v>
+        <v>0.0354797368403057</v>
       </c>
       <c r="M21">
-        <v>0.3338846404631823</v>
+        <v>1.465416450145824</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4140490441225353</v>
       </c>
       <c r="O21">
-        <v>2.118435991619435</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.8616511044383799</v>
+      </c>
+      <c r="Q21">
+        <v>2.075025304453646</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.716498731928823</v>
+        <v>1.835311297111929</v>
       </c>
       <c r="C22">
-        <v>0.1604221073666992</v>
+        <v>0.1533133088730096</v>
       </c>
       <c r="D22">
-        <v>0.3484579188908867</v>
+        <v>0.4503589432462149</v>
       </c>
       <c r="E22">
-        <v>0.07295772520576449</v>
+        <v>0.111502245853881</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.6181001296431532</v>
+        <v>0.5887444212509223</v>
       </c>
       <c r="H22">
-        <v>0.4330149488812509</v>
+        <v>0.000985677450428879</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.002217520290620278</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.4418815818813897</v>
       </c>
       <c r="K22">
-        <v>1.433641051971364</v>
+        <v>0.4813140989764122</v>
       </c>
       <c r="L22">
-        <v>0.2317851089539573</v>
+        <v>0.03713677620052103</v>
       </c>
       <c r="M22">
-        <v>0.3586082000767377</v>
+        <v>1.572121467887484</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.4396014537652491</v>
       </c>
       <c r="O22">
-        <v>2.165591679287616</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.8394482850217315</v>
+      </c>
+      <c r="Q22">
+        <v>2.120642702399778</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.652533729185564</v>
+        <v>1.770833673185933</v>
       </c>
       <c r="C23">
-        <v>0.1607258813529313</v>
+        <v>0.1495016065824331</v>
       </c>
       <c r="D23">
-        <v>0.3351192311583446</v>
+        <v>0.4383733082686092</v>
       </c>
       <c r="E23">
-        <v>0.07228974917234154</v>
+        <v>0.1090460299211138</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.6080743211152395</v>
+        <v>0.581177886719388</v>
       </c>
       <c r="H23">
-        <v>0.4310154939181814</v>
+        <v>0.001324119958561853</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.002326310211178573</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.4399888564995962</v>
       </c>
       <c r="K23">
-        <v>1.38236062454078</v>
+        <v>0.4795658853510858</v>
       </c>
       <c r="L23">
-        <v>0.2244200248005939</v>
+        <v>0.03629492974309834</v>
       </c>
       <c r="M23">
-        <v>0.345392015981524</v>
+        <v>1.515288204650744</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.4254691279748926</v>
       </c>
       <c r="O23">
-        <v>2.139988218157981</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.851223490611714</v>
+      </c>
+      <c r="Q23">
+        <v>2.10053117392431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.411761924843688</v>
+        <v>1.521998231124968</v>
       </c>
       <c r="C24">
-        <v>0.1619875770846022</v>
+        <v>0.1361505641446072</v>
       </c>
       <c r="D24">
-        <v>0.285172385639612</v>
+        <v>0.3929105405009494</v>
       </c>
       <c r="E24">
-        <v>0.06997522383023558</v>
+        <v>0.09952640294509862</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5729379090186626</v>
+        <v>0.5513042150090683</v>
       </c>
       <c r="H24">
-        <v>0.4249992800884002</v>
+        <v>0.003117320255884404</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.003711298545372443</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.4322974822040493</v>
       </c>
       <c r="K24">
-        <v>1.188898115162203</v>
+        <v>0.471551932446399</v>
       </c>
       <c r="L24">
-        <v>0.1970046299844483</v>
+        <v>0.03305108657216227</v>
       </c>
       <c r="M24">
-        <v>0.2957675272544122</v>
+        <v>1.300035686961195</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3729696729840839</v>
       </c>
       <c r="O24">
-        <v>2.052269982667667</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.8971427460109549</v>
+      </c>
+      <c r="Q24">
+        <v>2.020674975932423</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.15456498319756</v>
+        <v>1.25322755196558</v>
       </c>
       <c r="C25">
-        <v>0.1635798390224394</v>
+        <v>0.1218878378115917</v>
       </c>
       <c r="D25">
-        <v>0.232308659058404</v>
+        <v>0.3445354984142455</v>
       </c>
       <c r="E25">
-        <v>0.06790332179035907</v>
+        <v>0.08925371024687223</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5404644272906154</v>
+        <v>0.5211389066135865</v>
       </c>
       <c r="H25">
-        <v>0.421556141911438</v>
+        <v>0.006050515538956858</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.006143235684666237</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.4252595642911672</v>
       </c>
       <c r="K25">
-        <v>0.9813601479492036</v>
+        <v>0.4641423260427473</v>
       </c>
       <c r="L25">
-        <v>0.1683262564577035</v>
+        <v>0.0295637762915133</v>
       </c>
       <c r="M25">
-        <v>0.2429994856934279</v>
+        <v>1.068090590872117</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3167479682118994</v>
       </c>
       <c r="O25">
-        <v>1.97549643796674</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.9492537863959569</v>
+      </c>
+      <c r="Q25">
+        <v>1.941508099406917</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_18/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.061366399515748</v>
+        <v>1.013570667835154</v>
       </c>
       <c r="C2">
-        <v>0.1100436050816498</v>
+        <v>0.1059247348149057</v>
       </c>
       <c r="D2">
-        <v>0.3100169317153814</v>
+        <v>0.3051848100150494</v>
       </c>
       <c r="E2">
-        <v>0.08199936342935032</v>
+        <v>0.07915676872818977</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5038872538403822</v>
+        <v>0.4538803395936526</v>
       </c>
       <c r="H2">
-        <v>0.008961075685122152</v>
+        <v>0.007560779869943052</v>
       </c>
       <c r="I2">
-        <v>0.007866314635469163</v>
+        <v>0.005945628528731817</v>
       </c>
       <c r="J2">
-        <v>0.4228091546210493</v>
+        <v>0.4185725866485797</v>
       </c>
       <c r="K2">
-        <v>0.4626810543038005</v>
+        <v>0.4192189848577712</v>
       </c>
       <c r="L2">
-        <v>0.027090369616392</v>
+        <v>0.1880216188081256</v>
       </c>
       <c r="M2">
-        <v>0.8975701450576992</v>
+        <v>0.12958674162779</v>
       </c>
       <c r="N2">
-        <v>0.2744658202568502</v>
+        <v>0.02581919808567346</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.8986373931937521</v>
       </c>
       <c r="P2">
-        <v>0.9899553268468946</v>
+        <v>0.289608322236333</v>
       </c>
       <c r="Q2">
-        <v>1.899427070982327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.9566380764079305</v>
+      </c>
+      <c r="S2">
+        <v>1.769861152913506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9271429644644797</v>
+        <v>0.8878460495170657</v>
       </c>
       <c r="C3">
-        <v>0.1028514004742789</v>
+        <v>0.09624695118645121</v>
       </c>
       <c r="D3">
-        <v>0.2865351638602505</v>
+        <v>0.2825046030869629</v>
       </c>
       <c r="E3">
-        <v>0.0768774385636668</v>
+        <v>0.07448920693678218</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4911408164806446</v>
+        <v>0.4457922205564415</v>
       </c>
       <c r="H3">
-        <v>0.01139721935131885</v>
+        <v>0.009664200194040955</v>
       </c>
       <c r="I3">
-        <v>0.009866553570492265</v>
+        <v>0.007472477102274055</v>
       </c>
       <c r="J3">
-        <v>0.4207401349075255</v>
+        <v>0.4148106603654043</v>
       </c>
       <c r="K3">
-        <v>0.460520274041798</v>
+        <v>0.4192410451758413</v>
       </c>
       <c r="L3">
-        <v>0.0253349973935304</v>
+        <v>0.1919709616342153</v>
       </c>
       <c r="M3">
-        <v>0.7817194233171563</v>
+        <v>0.1272707792605896</v>
       </c>
       <c r="N3">
-        <v>0.2466061515989537</v>
+        <v>0.02423249013822648</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.7830710698701466</v>
       </c>
       <c r="P3">
-        <v>1.018700044563308</v>
+        <v>0.2604321459512136</v>
       </c>
       <c r="Q3">
-        <v>1.867801305049682</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.9824393994686034</v>
+      </c>
+      <c r="S3">
+        <v>1.747180624451445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8443958656878294</v>
+        <v>0.8101399140551848</v>
       </c>
       <c r="C4">
-        <v>0.09845836496101867</v>
+        <v>0.0903882390340911</v>
       </c>
       <c r="D4">
-        <v>0.2722254392746777</v>
+        <v>0.2686744587746972</v>
       </c>
       <c r="E4">
-        <v>0.07371629913765965</v>
+        <v>0.07160259744308206</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4836658553847641</v>
+        <v>0.4411856217793186</v>
       </c>
       <c r="H4">
-        <v>0.01310395219375923</v>
+        <v>0.01114114785722566</v>
       </c>
       <c r="I4">
-        <v>0.01129793271053403</v>
+        <v>0.008583386645753421</v>
       </c>
       <c r="J4">
-        <v>0.4197151854992285</v>
+        <v>0.4125715061467758</v>
       </c>
       <c r="K4">
-        <v>0.4594046672551073</v>
+        <v>0.4193877093709055</v>
       </c>
       <c r="L4">
-        <v>0.02424313547944834</v>
+        <v>0.1944470180865991</v>
       </c>
       <c r="M4">
-        <v>0.7104929488908027</v>
+        <v>0.1264047574896292</v>
       </c>
       <c r="N4">
-        <v>0.2295708026591541</v>
+        <v>0.02324372411312847</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7119797427654078</v>
       </c>
       <c r="P4">
-        <v>1.036935412356867</v>
+        <v>0.2426205152587642</v>
       </c>
       <c r="Q4">
-        <v>1.849634136035746</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.9988870692867362</v>
+      </c>
+      <c r="S4">
+        <v>1.734195612404221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8099212586446356</v>
+        <v>0.7776845529320155</v>
       </c>
       <c r="C5">
-        <v>0.09681418955398158</v>
+        <v>0.08818637452522182</v>
       </c>
       <c r="D5">
-        <v>0.2663561246933313</v>
+        <v>0.2629978197569898</v>
       </c>
       <c r="E5">
-        <v>0.07238965776660855</v>
+        <v>0.07038731351247129</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4803499865316638</v>
+        <v>0.4390565506054926</v>
       </c>
       <c r="H5">
-        <v>0.01385536771508783</v>
+        <v>0.01179227541346349</v>
       </c>
       <c r="I5">
-        <v>0.01201581627657955</v>
+        <v>0.009175288849822216</v>
       </c>
       <c r="J5">
-        <v>0.4191749613284657</v>
+        <v>0.4114904889337865</v>
       </c>
       <c r="K5">
-        <v>0.4586830059458116</v>
+        <v>0.4191781201157667</v>
       </c>
       <c r="L5">
-        <v>0.02378297326844336</v>
+        <v>0.1953181444030783</v>
       </c>
       <c r="M5">
-        <v>0.6814124298993249</v>
+        <v>0.1261149840727889</v>
       </c>
       <c r="N5">
-        <v>0.2227629175156238</v>
+        <v>0.02282646590734494</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.6829450804766424</v>
       </c>
       <c r="P5">
-        <v>1.04446235160487</v>
+        <v>0.2355069462737305</v>
       </c>
       <c r="Q5">
-        <v>1.841400235012529</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1.005718727974138</v>
+      </c>
+      <c r="S5">
+        <v>1.728031130296728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8033724855912112</v>
+        <v>0.7714791239351655</v>
       </c>
       <c r="C6">
-        <v>0.09671564394889032</v>
+        <v>0.0880265329242178</v>
       </c>
       <c r="D6">
-        <v>0.265305056754741</v>
+        <v>0.2619788766100157</v>
       </c>
       <c r="E6">
-        <v>0.07212730787298582</v>
+        <v>0.07014407850807025</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4793706218388039</v>
+        <v>0.4382943502920824</v>
       </c>
       <c r="H6">
-        <v>0.01398875087909437</v>
+        <v>0.01190808121259493</v>
       </c>
       <c r="I6">
-        <v>0.0122491735365724</v>
+        <v>0.009403306967109337</v>
       </c>
       <c r="J6">
-        <v>0.418865243349714</v>
+        <v>0.4110848047319422</v>
       </c>
       <c r="K6">
-        <v>0.4581766742891205</v>
+        <v>0.4187766218310571</v>
       </c>
       <c r="L6">
-        <v>0.02369259637911547</v>
+        <v>0.1952800800158094</v>
       </c>
       <c r="M6">
-        <v>0.6765476710189517</v>
+        <v>0.1259815349437527</v>
       </c>
       <c r="N6">
-        <v>0.2217782165498789</v>
+        <v>0.0227444092010014</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.6780873082876582</v>
       </c>
       <c r="P6">
-        <v>1.045662942443997</v>
+        <v>0.2344751081976995</v>
       </c>
       <c r="Q6">
-        <v>1.838662990626972</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1.006839042436779</v>
+      </c>
+      <c r="S6">
+        <v>1.725674984528226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8416868656819361</v>
+        <v>0.8070416438047801</v>
       </c>
       <c r="C7">
-        <v>0.09891334736315827</v>
+        <v>0.09077050887307081</v>
       </c>
       <c r="D7">
-        <v>0.271933179898781</v>
+        <v>0.2684222518417556</v>
       </c>
       <c r="E7">
-        <v>0.07358432537771087</v>
+        <v>0.07149053336813438</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4824368138099189</v>
+        <v>0.4426072615001857</v>
       </c>
       <c r="H7">
-        <v>0.0131282434617141</v>
+        <v>0.01116979437854971</v>
       </c>
       <c r="I7">
-        <v>0.01159465490839295</v>
+        <v>0.008926594488372075</v>
       </c>
       <c r="J7">
-        <v>0.4190981600497494</v>
+        <v>0.4080738528367576</v>
       </c>
       <c r="K7">
-        <v>0.4583321505937406</v>
+        <v>0.4179959014766403</v>
       </c>
       <c r="L7">
-        <v>0.02419953255994578</v>
+        <v>0.1937840580256172</v>
       </c>
       <c r="M7">
-        <v>0.7100065140300416</v>
+        <v>0.1260302649269605</v>
       </c>
       <c r="N7">
-        <v>0.2298753085014908</v>
+        <v>0.02320316821871993</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7107740990671516</v>
       </c>
       <c r="P7">
-        <v>1.036890501593533</v>
+        <v>0.2428218356130856</v>
       </c>
       <c r="Q7">
-        <v>1.845735051186153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.9989241749267705</v>
+      </c>
+      <c r="S7">
+        <v>1.728148394080947</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.012155558942737</v>
+        <v>0.9658765029516587</v>
       </c>
       <c r="C8">
-        <v>0.1081985129139511</v>
+        <v>0.1028247494873966</v>
       </c>
       <c r="D8">
-        <v>0.3016151077582521</v>
+        <v>0.2971880321776297</v>
       </c>
       <c r="E8">
-        <v>0.08008587350919782</v>
+        <v>0.07746053226392036</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4978555074157995</v>
+        <v>0.4581675474578262</v>
       </c>
       <c r="H8">
-        <v>0.009771694591943644</v>
+        <v>0.008279376766793578</v>
       </c>
       <c r="I8">
-        <v>0.0088584940706955</v>
+        <v>0.006851064350191116</v>
       </c>
       <c r="J8">
-        <v>0.4212432256903895</v>
+        <v>0.4038788083105374</v>
       </c>
       <c r="K8">
-        <v>0.4604937105637852</v>
+        <v>0.4166287013948846</v>
       </c>
       <c r="L8">
-        <v>0.02643852761807963</v>
+        <v>0.1882258465021778</v>
       </c>
       <c r="M8">
-        <v>0.8575129876918481</v>
+        <v>0.1278857806265243</v>
       </c>
       <c r="N8">
-        <v>0.2653724987163173</v>
+        <v>0.02522827359482349</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.8562719029926598</v>
       </c>
       <c r="P8">
-        <v>0.9996048523549881</v>
+        <v>0.2797068083283705</v>
       </c>
       <c r="Q8">
-        <v>1.883268500685276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.9654775676360074</v>
+      </c>
+      <c r="S8">
+        <v>1.74946395145615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.34795252043034</v>
+        <v>1.278957115124911</v>
       </c>
       <c r="C9">
-        <v>0.1257860089441252</v>
+        <v>0.1267101906258006</v>
       </c>
       <c r="D9">
-        <v>0.3611326278366676</v>
+        <v>0.3546659843336073</v>
       </c>
       <c r="E9">
-        <v>0.09291982919572561</v>
+        <v>0.08915031899310577</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5331493238309264</v>
+        <v>0.4842346176362611</v>
       </c>
       <c r="H9">
-        <v>0.004922467135954456</v>
+        <v>0.004107151114223773</v>
       </c>
       <c r="I9">
-        <v>0.004739724847880211</v>
+        <v>0.003685599886956048</v>
       </c>
       <c r="J9">
-        <v>0.4285436922511394</v>
+        <v>0.4109855221623704</v>
       </c>
       <c r="K9">
-        <v>0.468357195451059</v>
+        <v>0.4182134021606636</v>
       </c>
       <c r="L9">
-        <v>0.03080510312411899</v>
+        <v>0.1791909388647248</v>
       </c>
       <c r="M9">
-        <v>1.146395266206184</v>
+        <v>0.1368791444718731</v>
       </c>
       <c r="N9">
-        <v>0.3349141434995602</v>
+        <v>0.02916598793806546</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.143475328825218</v>
       </c>
       <c r="P9">
-        <v>0.9314407122064807</v>
+        <v>0.3525958916956853</v>
       </c>
       <c r="Q9">
-        <v>1.974012481683928</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.9048169744159917</v>
+      </c>
+      <c r="S9">
+        <v>1.813938441262167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.58409829757062</v>
+        <v>1.495821679115267</v>
       </c>
       <c r="C10">
-        <v>0.1400060543358279</v>
+        <v>0.144966674007037</v>
       </c>
       <c r="D10">
-        <v>0.3998083638551293</v>
+        <v>0.3921296787858353</v>
       </c>
       <c r="E10">
-        <v>0.09935825350713401</v>
+        <v>0.09495149286519933</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5546232990907924</v>
+        <v>0.5152654767817211</v>
       </c>
       <c r="H10">
-        <v>0.002843030372957855</v>
+        <v>0.002380386894648812</v>
       </c>
       <c r="I10">
-        <v>0.003021626334879457</v>
+        <v>0.00252348885982645</v>
       </c>
       <c r="J10">
-        <v>0.4319761302417646</v>
+        <v>0.3931327099751485</v>
       </c>
       <c r="K10">
-        <v>0.470561026335389</v>
+        <v>0.414055179573392</v>
       </c>
       <c r="L10">
-        <v>0.03327520615608837</v>
+        <v>0.1706540628147657</v>
       </c>
       <c r="M10">
-        <v>1.35529603764698</v>
+        <v>0.143799272397267</v>
       </c>
       <c r="N10">
-        <v>0.37564908370463</v>
+        <v>0.03144883292621836</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.346559219867629</v>
       </c>
       <c r="P10">
-        <v>0.8847102169891272</v>
+        <v>0.3949000863117504</v>
       </c>
       <c r="Q10">
-        <v>2.027151872131469</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.8648822297487726</v>
+      </c>
+      <c r="S10">
+        <v>1.835557930271591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.617217961641217</v>
+        <v>1.524612398303105</v>
       </c>
       <c r="C11">
-        <v>0.155004670084864</v>
+        <v>0.1598539907889744</v>
       </c>
       <c r="D11">
-        <v>0.3692509527630392</v>
+        <v>0.3625151815797523</v>
       </c>
       <c r="E11">
-        <v>0.07940647143761481</v>
+        <v>0.075861724935681</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5126877514651937</v>
+        <v>0.5090984729482386</v>
       </c>
       <c r="H11">
-        <v>0.02139074341645042</v>
+        <v>0.02098537411720613</v>
       </c>
       <c r="I11">
-        <v>0.00319551945687202</v>
+        <v>0.002934113555265405</v>
       </c>
       <c r="J11">
-        <v>0.4075928859750917</v>
+        <v>0.3357258427668484</v>
       </c>
       <c r="K11">
-        <v>0.4347484764623886</v>
+        <v>0.3786882965618119</v>
       </c>
       <c r="L11">
-        <v>0.03248560865855321</v>
+        <v>0.1553780736828614</v>
       </c>
       <c r="M11">
-        <v>1.421542770151518</v>
+        <v>0.1335892968821639</v>
       </c>
       <c r="N11">
-        <v>0.304002818007362</v>
+        <v>0.03159304151295839</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.402934562698732</v>
       </c>
       <c r="P11">
-        <v>0.8701337326136027</v>
+        <v>0.319685947341398</v>
       </c>
       <c r="Q11">
-        <v>1.887360176247796</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.8610526623189259</v>
+      </c>
+      <c r="S11">
+        <v>1.682223254550905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.597932414098466</v>
+        <v>1.507548999037851</v>
       </c>
       <c r="C12">
-        <v>0.164549770593581</v>
+        <v>0.1685465532586505</v>
       </c>
       <c r="D12">
-        <v>0.3365588897647029</v>
+        <v>0.3306856667363718</v>
       </c>
       <c r="E12">
-        <v>0.06438539513990449</v>
+        <v>0.06153781683466697</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4753897188721083</v>
+        <v>0.4886716848649542</v>
       </c>
       <c r="H12">
-        <v>0.06023135467626162</v>
+        <v>0.05982615826440707</v>
       </c>
       <c r="I12">
-        <v>0.00315822880672556</v>
+        <v>0.002915223364844621</v>
       </c>
       <c r="J12">
-        <v>0.3874690830527499</v>
+        <v>0.3077840070968847</v>
       </c>
       <c r="K12">
-        <v>0.4067331347187313</v>
+        <v>0.3537360378911174</v>
       </c>
       <c r="L12">
-        <v>0.03692282843426753</v>
+        <v>0.1460156599532105</v>
       </c>
       <c r="M12">
-        <v>1.43282583372573</v>
+        <v>0.1246502966526215</v>
       </c>
       <c r="N12">
-        <v>0.2414386559173067</v>
+        <v>0.03669241450686656</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.409827175671694</v>
       </c>
       <c r="P12">
-        <v>0.871834173236735</v>
+        <v>0.2544202518643459</v>
       </c>
       <c r="Q12">
-        <v>1.766208293233262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.8700767890680652</v>
+      </c>
+      <c r="S12">
+        <v>1.565208812858785</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.533772706038832</v>
+        <v>1.451993971576286</v>
       </c>
       <c r="C13">
-        <v>0.1711051189607673</v>
+        <v>0.1743574990089058</v>
       </c>
       <c r="D13">
-        <v>0.3001317902918998</v>
+        <v>0.295019995702944</v>
       </c>
       <c r="E13">
-        <v>0.05214160645041055</v>
+        <v>0.04990416224011085</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4375992426118529</v>
+        <v>0.4482893934884089</v>
       </c>
       <c r="H13">
-        <v>0.1163406552122694</v>
+        <v>0.1158817464105368</v>
       </c>
       <c r="I13">
-        <v>0.003348173691352763</v>
+        <v>0.00303053385919938</v>
       </c>
       <c r="J13">
-        <v>0.3684527031693747</v>
+        <v>0.2996763100251769</v>
       </c>
       <c r="K13">
-        <v>0.3813860024615927</v>
+        <v>0.3341095788521713</v>
       </c>
       <c r="L13">
-        <v>0.04541689187180609</v>
+        <v>0.1396785031464187</v>
       </c>
       <c r="M13">
-        <v>1.402182950627633</v>
+        <v>0.116065474529524</v>
       </c>
       <c r="N13">
-        <v>0.1831668004979079</v>
+        <v>0.04577113944576894</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.380776075977877</v>
       </c>
       <c r="P13">
-        <v>0.885279618466253</v>
+        <v>0.194066477091333</v>
       </c>
       <c r="Q13">
-        <v>1.646248500930227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.8870944417583644</v>
+      </c>
+      <c r="S13">
+        <v>1.466661212341037</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.468159536950907</v>
+        <v>1.395121292620217</v>
       </c>
       <c r="C14">
-        <v>0.1745623155082541</v>
+        <v>0.1773781255618303</v>
       </c>
       <c r="D14">
-        <v>0.2732579036838843</v>
+        <v>0.2686390484253423</v>
       </c>
       <c r="E14">
-        <v>0.04526961089812342</v>
+        <v>0.04343110351277613</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4109634812727307</v>
+        <v>0.4125379929633866</v>
       </c>
       <c r="H14">
-        <v>0.166024770268038</v>
+        <v>0.1655008733739862</v>
       </c>
       <c r="I14">
-        <v>0.00368846595502248</v>
+        <v>0.003287116402708179</v>
       </c>
       <c r="J14">
-        <v>0.3556301523263059</v>
+        <v>0.3010523253862019</v>
       </c>
       <c r="K14">
-        <v>0.3648697849581843</v>
+        <v>0.3224828356884402</v>
       </c>
       <c r="L14">
-        <v>0.0538513756386223</v>
+        <v>0.1363409797727595</v>
       </c>
       <c r="M14">
-        <v>1.361807529916177</v>
+        <v>0.1102711856127598</v>
       </c>
       <c r="N14">
-        <v>0.1457178953213898</v>
+        <v>0.05459787870261223</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.344087381804997</v>
       </c>
       <c r="P14">
-        <v>0.900362225519622</v>
+        <v>0.1553865828641037</v>
       </c>
       <c r="Q14">
-        <v>1.562875311852196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.9024661019459899</v>
+      </c>
+      <c r="S14">
+        <v>1.404621499691117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.441983399297527</v>
+        <v>1.372283434149153</v>
       </c>
       <c r="C15">
-        <v>0.1749296708725296</v>
+        <v>0.1777115354883847</v>
       </c>
       <c r="D15">
-        <v>0.2657871244462768</v>
+        <v>0.2612838085448459</v>
       </c>
       <c r="E15">
-        <v>0.04379393882672211</v>
+        <v>0.0420556327342867</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4039431484199199</v>
+        <v>0.4004043981408785</v>
       </c>
       <c r="H15">
-        <v>0.178696090697585</v>
+        <v>0.1781397860368372</v>
       </c>
       <c r="I15">
-        <v>0.003957513804306423</v>
+        <v>0.003534540223683713</v>
       </c>
       <c r="J15">
-        <v>0.352538642273359</v>
+        <v>0.3043584892495304</v>
       </c>
       <c r="K15">
-        <v>0.3610026129778312</v>
+        <v>0.3202322983717103</v>
       </c>
       <c r="L15">
-        <v>0.05604119167956156</v>
+        <v>0.1358840021833814</v>
       </c>
       <c r="M15">
-        <v>1.343123934803714</v>
+        <v>0.1088174925162502</v>
       </c>
       <c r="N15">
-        <v>0.1367566479395421</v>
+        <v>0.05689634620360451</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.327395209178974</v>
       </c>
       <c r="P15">
-        <v>0.9060918361309689</v>
+        <v>0.1461864099902215</v>
       </c>
       <c r="Q15">
-        <v>1.541486470234503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.9073919062591642</v>
+      </c>
+      <c r="S15">
+        <v>1.391238771975992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.353613214175709</v>
+        <v>1.2943351772021</v>
       </c>
       <c r="C16">
-        <v>0.1675015331752832</v>
+        <v>0.1704681909709507</v>
       </c>
       <c r="D16">
-        <v>0.2571837004374373</v>
+        <v>0.2527036448418016</v>
       </c>
       <c r="E16">
-        <v>0.04375712691196387</v>
+        <v>0.04207089886903237</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4018673039257337</v>
+        <v>0.3748066894844655</v>
       </c>
       <c r="H16">
-        <v>0.1668417458972016</v>
+        <v>0.1661146526887194</v>
       </c>
       <c r="I16">
-        <v>0.004777571190623497</v>
+        <v>0.004151655313840763</v>
       </c>
       <c r="J16">
-        <v>0.354523979975184</v>
+        <v>0.3331420299706309</v>
       </c>
       <c r="K16">
-        <v>0.36462487786536</v>
+        <v>0.3274395541125799</v>
       </c>
       <c r="L16">
-        <v>0.05296195458994291</v>
+        <v>0.140006518117799</v>
       </c>
       <c r="M16">
-        <v>1.259845057908649</v>
+        <v>0.1090451600686126</v>
       </c>
       <c r="N16">
-        <v>0.1328083980195345</v>
+        <v>0.05392256427778008</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.253117988949526</v>
       </c>
       <c r="P16">
-        <v>0.9211453240011238</v>
+        <v>0.1426645156612167</v>
       </c>
       <c r="Q16">
-        <v>1.54106361105093</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.9151310714477319</v>
+      </c>
+      <c r="S16">
+        <v>1.414720008774324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.320488611882581</v>
+        <v>1.263906106761709</v>
       </c>
       <c r="C17">
-        <v>0.1599886206356018</v>
+        <v>0.1629877263525827</v>
       </c>
       <c r="D17">
-        <v>0.2646448716572536</v>
+        <v>0.2599700088180441</v>
       </c>
       <c r="E17">
-        <v>0.04705367879835087</v>
+        <v>0.04519157931491513</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4143033069299378</v>
+        <v>0.3766489168811447</v>
       </c>
       <c r="H17">
-        <v>0.1295777181054802</v>
+        <v>0.1287538595769888</v>
       </c>
       <c r="I17">
-        <v>0.005261539525197811</v>
+        <v>0.004527318108416445</v>
       </c>
       <c r="J17">
-        <v>0.3628377952624078</v>
+        <v>0.3531629844349879</v>
       </c>
       <c r="K17">
-        <v>0.3760562804216896</v>
+        <v>0.3389171916790374</v>
       </c>
       <c r="L17">
-        <v>0.0456785367497794</v>
+        <v>0.1451606717894389</v>
       </c>
       <c r="M17">
-        <v>1.217490811314491</v>
+        <v>0.1120071456249558</v>
       </c>
       <c r="N17">
-        <v>0.1487928590142786</v>
+        <v>0.04645085068155907</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.214500501352688</v>
       </c>
       <c r="P17">
-        <v>0.9248122600090056</v>
+        <v>0.1595885510796293</v>
       </c>
       <c r="Q17">
-        <v>1.58472883866061</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.9142675489249825</v>
+      </c>
+      <c r="S17">
+        <v>1.463852960217665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.332690151782174</v>
+        <v>1.273573320548195</v>
       </c>
       <c r="C18">
-        <v>0.1512910455532506</v>
+        <v>0.1544474105808433</v>
       </c>
       <c r="D18">
-        <v>0.2875523854635418</v>
+        <v>0.2823777400511318</v>
       </c>
       <c r="E18">
-        <v>0.05516868157773658</v>
+        <v>0.0528659575222612</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4419895881169822</v>
+        <v>0.3973985343679232</v>
       </c>
       <c r="H18">
-        <v>0.07684951615545543</v>
+        <v>0.07600302756743815</v>
       </c>
       <c r="I18">
-        <v>0.005134053488180967</v>
+        <v>0.004323570185688297</v>
       </c>
       <c r="J18">
-        <v>0.3781562811149115</v>
+        <v>0.3725477078521635</v>
       </c>
       <c r="K18">
-        <v>0.3968127887577992</v>
+        <v>0.3571965242651629</v>
       </c>
       <c r="L18">
-        <v>0.03655032824120497</v>
+        <v>0.1525371357619107</v>
       </c>
       <c r="M18">
-        <v>1.205283186100331</v>
+        <v>0.1181478067615629</v>
       </c>
       <c r="N18">
-        <v>0.1873074987127197</v>
+        <v>0.03685412984596326</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.203707451043982</v>
       </c>
       <c r="P18">
-        <v>0.9206411542941062</v>
+        <v>0.1998245281545934</v>
       </c>
       <c r="Q18">
-        <v>1.675444935325316</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.9063717705048404</v>
+      </c>
+      <c r="S18">
+        <v>1.548824659867094</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.376250317179966</v>
+        <v>1.311044487283993</v>
       </c>
       <c r="C19">
-        <v>0.1438697797099877</v>
+        <v>0.1474925148116029</v>
       </c>
       <c r="D19">
-        <v>0.3220573127115642</v>
+        <v>0.3161116771133834</v>
       </c>
       <c r="E19">
-        <v>0.0687745219033058</v>
+        <v>0.06579779124699137</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4791531732569467</v>
+        <v>0.4289482899120216</v>
       </c>
       <c r="H19">
-        <v>0.03118466599521241</v>
+        <v>0.03039225660953804</v>
       </c>
       <c r="I19">
-        <v>0.005082477093755422</v>
+        <v>0.004341388783557498</v>
       </c>
       <c r="J19">
-        <v>0.3974723843321755</v>
+        <v>0.391529219179148</v>
       </c>
       <c r="K19">
-        <v>0.4230740610596158</v>
+        <v>0.3792937413471513</v>
       </c>
       <c r="L19">
-        <v>0.03055283416318844</v>
+        <v>0.1610193461563156</v>
       </c>
       <c r="M19">
-        <v>1.217812181292487</v>
+        <v>0.126246515904441</v>
       </c>
       <c r="N19">
-        <v>0.2476178469466248</v>
+        <v>0.03014584497495765</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.216393750649445</v>
       </c>
       <c r="P19">
-        <v>0.9138147158761178</v>
+        <v>0.2625722135788351</v>
       </c>
       <c r="Q19">
-        <v>1.794671666037573</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.8961687449862517</v>
+      </c>
+      <c r="S19">
+        <v>1.655050141373778</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.51467322478581</v>
+        <v>1.433402172332393</v>
       </c>
       <c r="C20">
-        <v>0.137867967030509</v>
+        <v>0.1426777102710872</v>
       </c>
       <c r="D20">
-        <v>0.3887124388705132</v>
+        <v>0.3812263390984185</v>
       </c>
       <c r="E20">
-        <v>0.09720192006517436</v>
+        <v>0.09291280216779541</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5449582063132965</v>
+        <v>0.4936718143104315</v>
       </c>
       <c r="H20">
-        <v>0.003317025346794455</v>
+        <v>0.00275999321502729</v>
       </c>
       <c r="I20">
-        <v>0.004252602882070633</v>
+        <v>0.003766861617751083</v>
       </c>
       <c r="J20">
-        <v>0.4290073408944295</v>
+        <v>0.4085895101331189</v>
       </c>
       <c r="K20">
-        <v>0.4664995798272997</v>
+        <v>0.4133209623681893</v>
       </c>
       <c r="L20">
-        <v>0.03248494587382034</v>
+        <v>0.1721940545364191</v>
       </c>
       <c r="M20">
-        <v>1.299983300303126</v>
+        <v>0.1411461861575134</v>
       </c>
       <c r="N20">
-        <v>0.3657121128431413</v>
+        <v>0.03073118749418757</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.295487892167642</v>
       </c>
       <c r="P20">
-        <v>0.8967331830310687</v>
+        <v>0.3849526898789293</v>
       </c>
       <c r="Q20">
-        <v>2.000335182255014</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.8752983130031247</v>
+      </c>
+      <c r="S20">
+        <v>1.825910570815267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.709341500242033</v>
+        <v>1.602439112915874</v>
       </c>
       <c r="C21">
-        <v>0.1473111154269802</v>
+        <v>0.1522289625465021</v>
       </c>
       <c r="D21">
-        <v>0.4274582400646381</v>
+        <v>0.4195847801627934</v>
       </c>
       <c r="E21">
-        <v>0.106648899126867</v>
+        <v>0.1020397395102357</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5720693271738924</v>
+        <v>0.5806045192288849</v>
       </c>
       <c r="H21">
-        <v>0.001672520332559269</v>
+        <v>0.00138933502052685</v>
       </c>
       <c r="I21">
-        <v>0.003068751387665714</v>
+        <v>0.002965929680246226</v>
       </c>
       <c r="J21">
-        <v>0.43707519897103</v>
+        <v>0.3401575647533051</v>
       </c>
       <c r="K21">
-        <v>0.4757961734783365</v>
+        <v>0.4094909865499936</v>
       </c>
       <c r="L21">
-        <v>0.0354797368403057</v>
+        <v>0.1656710286384069</v>
       </c>
       <c r="M21">
-        <v>1.465416450145824</v>
+        <v>0.1467178570965224</v>
       </c>
       <c r="N21">
-        <v>0.4140490441225353</v>
+        <v>0.03337350485691815</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.441974244880612</v>
       </c>
       <c r="P21">
-        <v>0.8616511044383799</v>
+        <v>0.4330307300312768</v>
       </c>
       <c r="Q21">
-        <v>2.075025304453646</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.8462825017299771</v>
+      </c>
+      <c r="S21">
+        <v>1.829490016299133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.835311297111929</v>
+        <v>1.710982152749665</v>
       </c>
       <c r="C22">
-        <v>0.1533133088730096</v>
+        <v>0.1579751229903366</v>
       </c>
       <c r="D22">
-        <v>0.4503589432462149</v>
+        <v>0.442378668562128</v>
       </c>
       <c r="E22">
-        <v>0.111502245853881</v>
+        <v>0.1067905162027039</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5887444212509223</v>
+        <v>0.6455053590373865</v>
       </c>
       <c r="H22">
-        <v>0.000985677450428879</v>
+        <v>0.0008260338114847166</v>
       </c>
       <c r="I22">
-        <v>0.002217520290620278</v>
+        <v>0.002239006373001118</v>
       </c>
       <c r="J22">
-        <v>0.4418815818813897</v>
+        <v>0.3003502647659815</v>
       </c>
       <c r="K22">
-        <v>0.4813140989764122</v>
+        <v>0.4059847396641061</v>
       </c>
       <c r="L22">
-        <v>0.03713677620052103</v>
+        <v>0.1611970106398495</v>
       </c>
       <c r="M22">
-        <v>1.572121467887484</v>
+        <v>0.1502510792184708</v>
       </c>
       <c r="N22">
-        <v>0.4396014537652491</v>
+        <v>0.03487631899176868</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.534822350038468</v>
       </c>
       <c r="P22">
-        <v>0.8394482850217315</v>
+        <v>0.4580082937757766</v>
       </c>
       <c r="Q22">
-        <v>2.120642702399778</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.8286992341787176</v>
+      </c>
+      <c r="S22">
+        <v>1.825389427286979</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.770833673185933</v>
+        <v>1.657011088170066</v>
       </c>
       <c r="C23">
-        <v>0.1495016065824331</v>
+        <v>0.1545941593924738</v>
       </c>
       <c r="D23">
-        <v>0.4383733082686092</v>
+        <v>0.4303346859121291</v>
       </c>
       <c r="E23">
-        <v>0.1090460299211138</v>
+        <v>0.1043304425066296</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.581177886719388</v>
+        <v>0.603825034678934</v>
       </c>
       <c r="H23">
-        <v>0.001324119958561853</v>
+        <v>0.001099988558518783</v>
       </c>
       <c r="I23">
-        <v>0.002326310211178573</v>
+        <v>0.002221680883503829</v>
       </c>
       <c r="J23">
-        <v>0.4399888564995962</v>
+        <v>0.3277963161284205</v>
       </c>
       <c r="K23">
-        <v>0.4795658853510858</v>
+        <v>0.4098857977739883</v>
       </c>
       <c r="L23">
-        <v>0.03629492974309834</v>
+        <v>0.1642483865093212</v>
       </c>
       <c r="M23">
-        <v>1.515288204650744</v>
+        <v>0.149190840944371</v>
       </c>
       <c r="N23">
-        <v>0.4254691279748926</v>
+        <v>0.03410779677807074</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.487419570753133</v>
       </c>
       <c r="P23">
-        <v>0.851223490611714</v>
+        <v>0.444471045804832</v>
       </c>
       <c r="Q23">
-        <v>2.10053117392431</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.837443778273478</v>
+      </c>
+      <c r="S23">
+        <v>1.83744834253929</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.521998231124968</v>
+        <v>1.440133481019359</v>
       </c>
       <c r="C24">
-        <v>0.1361505641446072</v>
+        <v>0.1407485532929371</v>
       </c>
       <c r="D24">
-        <v>0.3929105405009494</v>
+        <v>0.3853312153309645</v>
       </c>
       <c r="E24">
-        <v>0.09952640294509862</v>
+        <v>0.09514505939282714</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5513042150090683</v>
+        <v>0.4989555254218203</v>
       </c>
       <c r="H24">
-        <v>0.003117320255884404</v>
+        <v>0.002568457504805055</v>
       </c>
       <c r="I24">
-        <v>0.003711298545372443</v>
+        <v>0.003130435949269206</v>
       </c>
       <c r="J24">
-        <v>0.4322974822040493</v>
+        <v>0.4122280391467683</v>
       </c>
       <c r="K24">
-        <v>0.471551932446399</v>
+        <v>0.4177685196468985</v>
       </c>
       <c r="L24">
-        <v>0.03305108657216227</v>
+        <v>0.1739102421098622</v>
       </c>
       <c r="M24">
-        <v>1.300035686961195</v>
+        <v>0.1427608673579996</v>
       </c>
       <c r="N24">
-        <v>0.3729696729840839</v>
+        <v>0.03118788292645558</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.295666741094408</v>
       </c>
       <c r="P24">
-        <v>0.8971427460109549</v>
+        <v>0.3924945036187637</v>
       </c>
       <c r="Q24">
-        <v>2.020674975932423</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.8748774827581975</v>
+      </c>
+      <c r="S24">
+        <v>1.844727248402251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.25322755196558</v>
+        <v>1.191278799000372</v>
       </c>
       <c r="C25">
-        <v>0.1218878378115917</v>
+        <v>0.12146959319643</v>
       </c>
       <c r="D25">
-        <v>0.3445354984142455</v>
+        <v>0.3385813971985101</v>
       </c>
       <c r="E25">
-        <v>0.08925371024687223</v>
+        <v>0.08577784146773837</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5211389066135865</v>
+        <v>0.4710688168898116</v>
       </c>
       <c r="H25">
-        <v>0.006050515538956858</v>
+        <v>0.005068813431697183</v>
       </c>
       <c r="I25">
-        <v>0.006143235684666237</v>
+        <v>0.004935002543210665</v>
       </c>
       <c r="J25">
-        <v>0.4252595642911672</v>
+        <v>0.4132488190140791</v>
       </c>
       <c r="K25">
-        <v>0.4641423260427473</v>
+        <v>0.4164508747247844</v>
       </c>
       <c r="L25">
-        <v>0.0295637762915133</v>
+        <v>0.1811070623883815</v>
       </c>
       <c r="M25">
-        <v>1.068090590872117</v>
+        <v>0.1335424804789263</v>
       </c>
       <c r="N25">
-        <v>0.3167479682118994</v>
+        <v>0.02805038784650549</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.06671892791735</v>
       </c>
       <c r="P25">
-        <v>0.9492537863959569</v>
+        <v>0.333672209788503</v>
       </c>
       <c r="Q25">
-        <v>1.941508099406917</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.9207619450605922</v>
+      </c>
+      <c r="S25">
+        <v>1.792380574393945</v>
       </c>
     </row>
   </sheetData>
